--- a/_gothicTextsDb.xlsx
+++ b/_gothicTextsDb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-36200" yWindow="-3280" windowWidth="32420" windowHeight="20580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="524">
   <si>
     <t>Title</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>The Castle of Otranto</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Sleath, Eleanor</t>
-  </si>
-  <si>
-    <t>Wieland</t>
   </si>
   <si>
     <t>Brown, Charles Brockden</t>
@@ -1471,9 +1465,6 @@
     <t>http://www.english.upenn.edu/~mgamer/Etexts/barbauldessays.html#pleasure</t>
   </si>
   <si>
-    <t>Text Source</t>
-  </si>
-  <si>
     <t>http://www.gutenberg.org/files/5182/5182-h/5182-h.htm</t>
   </si>
   <si>
@@ -1574,13 +1565,136 @@
   </si>
   <si>
     <t>Lewis_TheMonk_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>Roche_TheChildrenOfTheAbbey_OTA.txt</t>
+  </si>
+  <si>
+    <t>Date Accessed</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>eText Publisher</t>
+  </si>
+  <si>
+    <t>eText Pub date</t>
+  </si>
+  <si>
+    <t>Bibliographic Info</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Project Gutenberg Australia</t>
+  </si>
+  <si>
+    <t>Scott, Richard</t>
+  </si>
+  <si>
+    <t>eBook No.</t>
+  </si>
+  <si>
+    <t>0605701h.html</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0605701h.html</t>
+  </si>
+  <si>
+    <t>Lewis_TheCastleSpectre_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/792/pg792.txt</t>
+  </si>
+  <si>
+    <t>Project Gutenberg</t>
+  </si>
+  <si>
+    <t>#792</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Wieland; or The Transformation: An American Tale</t>
+  </si>
+  <si>
+    <t>Brown_Wieland_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/121/121-0.txt</t>
+  </si>
+  <si>
+    <t>Reference 1</t>
+  </si>
+  <si>
+    <t>Reference 2</t>
+  </si>
+  <si>
+    <t>Reference 3</t>
+  </si>
+  <si>
+    <t>April 1994, updated September 7, 2016</t>
+  </si>
+  <si>
+    <t>#121</t>
+  </si>
+  <si>
+    <t>anon.</t>
+  </si>
+  <si>
+    <t>Austen_NorthangerAbbey_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>University of Oxford Text Archive</t>
+  </si>
+  <si>
+    <t>Philadelphia, 1800</t>
+  </si>
+  <si>
+    <t>http://ota.ox.ac.uk/tcp/headers/N28/N28815.html</t>
+  </si>
+  <si>
+    <t>0606561h.html</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606561h.html</t>
+  </si>
+  <si>
+    <t>Sleath_TheOrphanOfTheRhine_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>December 10 2016</t>
+  </si>
+  <si>
+    <t>The Online Distributed Proofreading Team at http://www.pgdp.net</t>
+  </si>
+  <si>
+    <t>London, Henry Colburn and Richard Bentley, 1831</t>
+  </si>
+  <si>
+    <t>#53707</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/53707/53707-0.txt</t>
+  </si>
+  <si>
+    <t>Yes. Caption: "He put his hand to the wound; the Animal stirred not"</t>
+  </si>
+  <si>
+    <t>Godwin_StLeon_Gutenberg.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1643,8 +1757,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,8 +1782,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1672,8 +1797,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1683,8 +1834,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1722,16 +1881,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2061,22 +2237,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N289"/>
+  <dimension ref="A1:T289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
+      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="19" width="10.83203125" style="24"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="5" customFormat="1">
+    <row r="1" spans="1:20">
+      <c r="O1" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2090,42 +2273,60 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>4</v>
+        <v>506</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>476</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="20">
@@ -2134,15 +2335,15 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="16">
@@ -2151,124 +2352,132 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>1764</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>1768</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
         <v>1771</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>1773</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1">
       <c r="A9" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1">
         <v>1773</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>138</v>
+      </c>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="16">
@@ -2277,55 +2486,55 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
         <v>1783</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2">
         <v>1783</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="16">
@@ -2334,145 +2543,154 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>1784</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>1785</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>444</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>1785</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>1786</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2">
         <v>1787</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="16">
@@ -2481,46 +2699,49 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="16">
         <v>1788</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16">
@@ -2529,18 +2750,18 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16">
@@ -2549,21 +2770,21 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="16">
@@ -2572,55 +2793,58 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>447</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
         <v>1790</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>1790</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="16">
@@ -2629,18 +2853,18 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="16">
@@ -2649,18 +2873,18 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="16">
@@ -2669,21 +2893,24 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="16">
@@ -2692,58 +2919,61 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>447</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
         <v>1791</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2">
         <v>1791</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="16">
@@ -2752,18 +2982,18 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="16">
@@ -2772,21 +3002,24 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="16">
@@ -2795,18 +3028,18 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16">
@@ -2815,18 +3048,18 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16">
@@ -2835,18 +3068,18 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16">
@@ -2855,93 +3088,99 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D38" s="2">
         <v>1793</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2">
         <v>1793</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>447</v>
+      </c>
+      <c r="Q39" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2">
         <v>1793</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="16">
@@ -2950,18 +3189,18 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="16">
@@ -2970,18 +3209,18 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="16">
@@ -2990,110 +3229,119 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q43" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
         <v>1794</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>444</v>
+      </c>
+      <c r="Q44" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2">
         <v>1794</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2">
         <v>1794</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>447</v>
+      </c>
+      <c r="Q46" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2">
         <v>1794</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="16">
@@ -3102,15 +3350,15 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="16">
@@ -3119,15 +3367,15 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="16">
@@ -3136,15 +3384,15 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="16">
@@ -3153,30 +3401,33 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="Q51" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="16">
@@ -3185,18 +3436,18 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="16">
@@ -3205,24 +3456,27 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>444</v>
+      </c>
+      <c r="Q53" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="16">
@@ -3231,18 +3485,18 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="16">
@@ -3251,32 +3505,32 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D56" s="2">
         <v>1795</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="16">
@@ -3285,15 +3539,15 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="16">
@@ -3302,15 +3556,15 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="16">
@@ -3319,15 +3573,15 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="16">
@@ -3336,480 +3590,549 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D61" s="2">
         <v>1796</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D62" s="2">
         <v>1796</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>1796</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2">
         <v>1796</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>444</v>
+      </c>
+      <c r="Q64" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2">
         <v>1796</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="16">
         <v>1796</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="16">
         <v>1796</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="16">
         <v>1796</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="16">
         <v>1796</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="16">
         <v>1796</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>481</v>
+      </c>
+      <c r="Q70" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="16">
         <v>1796</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="16">
         <v>1796</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="16">
         <v>1796</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>422</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="16">
         <v>1796</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>422</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O74" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q74" s="25">
+        <v>42812</v>
+      </c>
+      <c r="S74" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="16">
         <v>1796</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>422</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="16">
         <v>1796</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D77" s="2">
         <v>1797</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>138</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D78" s="2">
         <v>1797</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2">
         <v>1797</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>138</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O79" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="P79" s="27">
+        <v>38930</v>
+      </c>
+      <c r="Q79" s="25">
+        <v>42812</v>
+      </c>
+      <c r="R79" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="S79" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="T79" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="2">
         <v>1797</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2">
         <v>1797</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D82" s="2">
         <v>1797</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D83" s="2">
         <v>1797</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2">
         <v>1797</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D85" s="2">
         <v>1797</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="16">
@@ -3818,157 +4141,248 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="11" customFormat="1">
       <c r="A87" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="16">
         <v>1797</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+    </row>
+    <row r="88" spans="1:20" s="11" customFormat="1">
       <c r="A88" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="16">
         <v>1797</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+    </row>
+    <row r="89" spans="1:20" s="11" customFormat="1">
       <c r="A89" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="16">
         <v>1797</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+    </row>
+    <row r="90" spans="1:20" s="11" customFormat="1">
       <c r="A90" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="16">
         <v>1797</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="11" customFormat="1">
+        <v>444</v>
+      </c>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="25">
+        <v>42810</v>
+      </c>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+    </row>
+    <row r="91" spans="1:20" s="11" customFormat="1">
       <c r="A91" s="3" t="s">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2">
         <v>1798</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="O91" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="P91" s="29">
+        <v>39667</v>
+      </c>
+      <c r="Q91" s="29">
+        <v>42812</v>
+      </c>
+      <c r="R91" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="S91" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="T91" s="28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="11" customFormat="1">
       <c r="A92" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2">
         <v>1798</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+    </row>
+    <row r="93" spans="1:20" s="11" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2">
         <v>1798</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+    </row>
+    <row r="94" spans="1:20" s="11" customFormat="1">
       <c r="A94" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2">
         <v>1798</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="O94" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="P94" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q94" s="29">
+        <v>42812</v>
+      </c>
+      <c r="R94" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="S94" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="T94" s="30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="11" customFormat="1">
       <c r="A95" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3976,353 +4390,511 @@
         <v>1798</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
+    </row>
+    <row r="96" spans="1:20" s="11" customFormat="1">
       <c r="A96" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="16">
         <v>1798</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+    </row>
+    <row r="97" spans="1:20" s="11" customFormat="1">
       <c r="A97" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="16">
         <v>1798</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+    </row>
+    <row r="98" spans="1:20" s="11" customFormat="1">
       <c r="A98" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="16">
         <v>1798</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26"/>
+    </row>
+    <row r="99" spans="1:20" s="11" customFormat="1">
       <c r="A99" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="16">
         <v>1798</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+    </row>
+    <row r="100" spans="1:20" s="11" customFormat="1">
       <c r="A100" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="16">
         <v>1798</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="O100" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="P100" s="31">
+        <v>38930</v>
+      </c>
+      <c r="Q100" s="29">
+        <v>42812</v>
+      </c>
+      <c r="R100" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="S100" s="26"/>
+      <c r="T100" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="11" customFormat="1">
       <c r="A101" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="16">
         <v>1798</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="26"/>
+      <c r="R101" s="26"/>
+      <c r="S101" s="26"/>
+    </row>
+    <row r="102" spans="1:20" s="11" customFormat="1">
       <c r="A102" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2">
         <v>1799</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+    </row>
+    <row r="103" spans="1:20" s="11" customFormat="1">
       <c r="A103" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="16">
         <v>1799</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+    </row>
+    <row r="104" spans="1:20" s="11" customFormat="1">
       <c r="A104" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="16">
         <v>1799</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+    </row>
+    <row r="105" spans="1:20" s="11" customFormat="1">
       <c r="A105" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="16">
         <v>1799</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="O105" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="P105" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q105" s="29">
+        <v>42812</v>
+      </c>
+      <c r="R105" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="S105" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="T105" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="11" customFormat="1">
       <c r="A106" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="16">
         <v>1799</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="26"/>
+      <c r="R106" s="26"/>
+      <c r="S106" s="26"/>
+    </row>
+    <row r="107" spans="1:20" s="11" customFormat="1">
       <c r="A107" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="16">
         <v>1799</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+    </row>
+    <row r="108" spans="1:20" s="11" customFormat="1">
       <c r="A108" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2">
         <v>1800</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+    </row>
+    <row r="109" spans="1:20" s="11" customFormat="1">
       <c r="A109" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2">
         <v>1800</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+    </row>
+    <row r="110" spans="1:20" s="11" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2">
         <v>1800</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+    </row>
+    <row r="111" spans="1:20" s="11" customFormat="1">
       <c r="A111" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="16">
         <v>1800</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O111" s="26"/>
+      <c r="P111" s="26"/>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26"/>
+      <c r="S111" s="26"/>
+    </row>
+    <row r="112" spans="1:20" s="11" customFormat="1">
       <c r="A112" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="16">
         <v>1800</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="26"/>
+      <c r="S112" s="26"/>
+    </row>
+    <row r="113" spans="1:19" s="11" customFormat="1">
       <c r="A113" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="18">
         <v>1800</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+      <c r="S113" s="26"/>
+    </row>
+    <row r="114" spans="1:19" s="11" customFormat="1">
       <c r="A114" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="16">
         <v>1800</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O114" s="26"/>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+      <c r="S114" s="26"/>
+    </row>
+    <row r="115" spans="1:19" s="11" customFormat="1">
       <c r="A115" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="16">
         <v>1800</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="26"/>
+    </row>
+    <row r="116" spans="1:19" s="11" customFormat="1">
       <c r="A116" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="16">
         <v>1800</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O116" s="26"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26"/>
+    </row>
+    <row r="117" spans="1:19" s="11" customFormat="1">
       <c r="A117" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4330,435 +4902,550 @@
         <v>1801</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26"/>
+    </row>
+    <row r="118" spans="1:19" s="11" customFormat="1">
       <c r="A118" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="16">
         <v>1801</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
+    </row>
+    <row r="119" spans="1:19" s="11" customFormat="1">
       <c r="A119" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="16">
         <v>1801</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="26"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
+    </row>
+    <row r="120" spans="1:19" s="11" customFormat="1">
       <c r="A120" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="16">
         <v>1801</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
+    </row>
+    <row r="121" spans="1:19" s="11" customFormat="1">
       <c r="A121" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="16">
         <v>1801</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="26"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="26"/>
+    </row>
+    <row r="122" spans="1:19" s="11" customFormat="1">
       <c r="A122" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B122" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="16">
         <v>1801</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O122" s="26"/>
+      <c r="P122" s="26"/>
+      <c r="Q122" s="26"/>
+      <c r="R122" s="26"/>
+      <c r="S122" s="26"/>
+    </row>
+    <row r="123" spans="1:19" s="11" customFormat="1">
       <c r="A123" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="16">
         <v>1801</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
+    </row>
+    <row r="124" spans="1:19" s="11" customFormat="1">
       <c r="A124" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="16">
         <v>1801</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O124" s="26"/>
+      <c r="P124" s="26"/>
+      <c r="Q124" s="26"/>
+      <c r="R124" s="26"/>
+      <c r="S124" s="26"/>
+    </row>
+    <row r="125" spans="1:19" s="11" customFormat="1">
       <c r="A125" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="16">
         <v>1801</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
+      <c r="Q125" s="26"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
+    </row>
+    <row r="126" spans="1:19" s="11" customFormat="1">
       <c r="A126" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2">
         <v>1802</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+    </row>
+    <row r="127" spans="1:19" s="11" customFormat="1">
       <c r="A127" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2">
         <v>1802</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O127" s="26"/>
+      <c r="P127" s="26"/>
+      <c r="Q127" s="26"/>
+      <c r="R127" s="26"/>
+      <c r="S127" s="26"/>
+    </row>
+    <row r="128" spans="1:19" s="11" customFormat="1">
       <c r="A128" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2">
         <v>1802</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O128" s="26"/>
+      <c r="P128" s="26"/>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="26"/>
+      <c r="S128" s="26"/>
+    </row>
+    <row r="129" spans="1:19" s="11" customFormat="1">
       <c r="A129" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="16">
         <v>1802</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O129" s="26"/>
+      <c r="P129" s="26"/>
+      <c r="Q129" s="26"/>
+      <c r="R129" s="26"/>
+      <c r="S129" s="26"/>
+    </row>
+    <row r="130" spans="1:19" s="11" customFormat="1">
       <c r="A130" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="16">
         <v>1802</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O130" s="26"/>
+      <c r="P130" s="26"/>
+      <c r="Q130" s="26"/>
+      <c r="R130" s="26"/>
+      <c r="S130" s="26"/>
+    </row>
+    <row r="131" spans="1:19" s="11" customFormat="1">
       <c r="A131" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="16">
         <v>1802</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26"/>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+    </row>
+    <row r="132" spans="1:19" s="11" customFormat="1">
       <c r="A132" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="16">
         <v>1802</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O132" s="26"/>
+      <c r="P132" s="26"/>
+      <c r="Q132" s="26"/>
+      <c r="R132" s="26"/>
+      <c r="S132" s="26"/>
+    </row>
+    <row r="133" spans="1:19" s="11" customFormat="1">
       <c r="A133" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="16">
         <v>1802</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26"/>
+      <c r="R133" s="26"/>
+      <c r="S133" s="26"/>
+    </row>
+    <row r="134" spans="1:19" s="11" customFormat="1">
       <c r="A134" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="16">
         <v>1802</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="26"/>
+    </row>
+    <row r="135" spans="1:19" s="11" customFormat="1">
       <c r="A135" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2">
         <v>1803</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="26"/>
+      <c r="R135" s="26"/>
+      <c r="S135" s="26"/>
+    </row>
+    <row r="136" spans="1:19" s="11" customFormat="1">
       <c r="A136" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2">
         <v>1803</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="26"/>
+    </row>
+    <row r="137" spans="1:19" s="11" customFormat="1">
       <c r="A137" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="16">
         <v>1803</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O137" s="26"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="26"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
+    </row>
+    <row r="138" spans="1:19" s="11" customFormat="1">
       <c r="A138" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="16">
         <v>1803</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O138" s="26"/>
+      <c r="P138" s="26"/>
+      <c r="Q138" s="26"/>
+      <c r="R138" s="26"/>
+      <c r="S138" s="26"/>
+    </row>
+    <row r="139" spans="1:19" s="11" customFormat="1">
       <c r="A139" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="16">
         <v>1803</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O139" s="26"/>
+      <c r="P139" s="26"/>
+      <c r="Q139" s="26"/>
+      <c r="R139" s="26"/>
+      <c r="S139" s="26"/>
+    </row>
+    <row r="140" spans="1:19" s="11" customFormat="1">
       <c r="A140" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2">
@@ -4767,790 +5454,1015 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
+      <c r="S140" s="26"/>
+    </row>
+    <row r="141" spans="1:19" s="11" customFormat="1">
       <c r="A141" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="16">
         <v>1804</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O141" s="26"/>
+      <c r="P141" s="26"/>
+      <c r="Q141" s="26"/>
+      <c r="R141" s="26"/>
+      <c r="S141" s="26"/>
+    </row>
+    <row r="142" spans="1:19" s="11" customFormat="1">
       <c r="A142" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="16">
         <v>1804</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O142" s="26"/>
+      <c r="P142" s="26"/>
+      <c r="Q142" s="26"/>
+      <c r="R142" s="26"/>
+      <c r="S142" s="26"/>
+    </row>
+    <row r="143" spans="1:19" s="11" customFormat="1">
       <c r="A143" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="16">
         <v>1804</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O143" s="26"/>
+      <c r="P143" s="26"/>
+      <c r="Q143" s="26"/>
+      <c r="R143" s="26"/>
+      <c r="S143" s="26"/>
+    </row>
+    <row r="144" spans="1:19" s="11" customFormat="1">
       <c r="A144" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B144" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="16">
         <v>1804</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O144" s="26"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
+    </row>
+    <row r="145" spans="1:19" s="11" customFormat="1">
       <c r="A145" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B145" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="16">
         <v>1804</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
+    </row>
+    <row r="146" spans="1:19" s="11" customFormat="1">
       <c r="A146" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="16">
         <v>1805</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O146" s="26"/>
+      <c r="P146" s="26"/>
+      <c r="Q146" s="26"/>
+      <c r="R146" s="26"/>
+      <c r="S146" s="26"/>
+    </row>
+    <row r="147" spans="1:19" s="11" customFormat="1">
       <c r="A147" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="16">
         <v>1805</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O147" s="26"/>
+      <c r="P147" s="26"/>
+      <c r="Q147" s="26"/>
+      <c r="R147" s="26"/>
+      <c r="S147" s="26"/>
+    </row>
+    <row r="148" spans="1:19" s="11" customFormat="1">
       <c r="A148" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="16">
         <v>1805</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O148" s="26"/>
+      <c r="P148" s="26"/>
+      <c r="Q148" s="26"/>
+      <c r="R148" s="26"/>
+      <c r="S148" s="26"/>
+    </row>
+    <row r="149" spans="1:19" s="11" customFormat="1">
       <c r="A149" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="16">
         <v>1805</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O149" s="26"/>
+      <c r="P149" s="26"/>
+      <c r="Q149" s="26"/>
+      <c r="R149" s="26"/>
+      <c r="S149" s="26"/>
+    </row>
+    <row r="150" spans="1:19" s="11" customFormat="1">
       <c r="A150" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="16">
         <v>1805</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O150" s="26"/>
+      <c r="P150" s="26"/>
+      <c r="Q150" s="26"/>
+      <c r="R150" s="26"/>
+      <c r="S150" s="26"/>
+    </row>
+    <row r="151" spans="1:19" s="11" customFormat="1">
       <c r="A151" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B151" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="16">
         <v>1805</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O151" s="26"/>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="26"/>
+    </row>
+    <row r="152" spans="1:19" s="11" customFormat="1">
       <c r="A152" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="16">
         <v>1805</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O152" s="26"/>
+      <c r="P152" s="26"/>
+      <c r="Q152" s="26"/>
+      <c r="R152" s="26"/>
+      <c r="S152" s="26"/>
+    </row>
+    <row r="153" spans="1:19" s="11" customFormat="1">
       <c r="A153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2">
         <v>1806</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O153" s="26"/>
+      <c r="P153" s="26"/>
+      <c r="Q153" s="26"/>
+      <c r="R153" s="26"/>
+      <c r="S153" s="26"/>
+    </row>
+    <row r="154" spans="1:19" s="11" customFormat="1">
       <c r="A154" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2">
         <v>1806</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O154" s="26"/>
+      <c r="P154" s="26"/>
+      <c r="Q154" s="26"/>
+      <c r="R154" s="26"/>
+      <c r="S154" s="26"/>
+    </row>
+    <row r="155" spans="1:19" s="11" customFormat="1">
       <c r="A155" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="16">
         <v>1806</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O155" s="26"/>
+      <c r="P155" s="26"/>
+      <c r="Q155" s="26"/>
+      <c r="R155" s="26"/>
+      <c r="S155" s="26"/>
+    </row>
+    <row r="156" spans="1:19" s="11" customFormat="1">
       <c r="A156" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B156" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="16">
         <v>1806</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O156" s="26"/>
+      <c r="P156" s="26"/>
+      <c r="Q156" s="26"/>
+      <c r="R156" s="26"/>
+      <c r="S156" s="26"/>
+    </row>
+    <row r="157" spans="1:19" s="11" customFormat="1">
       <c r="A157" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="16">
         <v>1806</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O157" s="26"/>
+      <c r="P157" s="26"/>
+      <c r="Q157" s="26"/>
+      <c r="R157" s="26"/>
+      <c r="S157" s="26"/>
+    </row>
+    <row r="158" spans="1:19" s="11" customFormat="1">
       <c r="A158" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="16">
         <v>1806</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O158" s="26"/>
+      <c r="P158" s="26"/>
+      <c r="Q158" s="26"/>
+      <c r="R158" s="26"/>
+      <c r="S158" s="26"/>
+    </row>
+    <row r="159" spans="1:19" s="11" customFormat="1">
       <c r="A159" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="16">
         <v>1806</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O159" s="26"/>
+      <c r="P159" s="26"/>
+      <c r="Q159" s="26"/>
+      <c r="R159" s="26"/>
+      <c r="S159" s="26"/>
+    </row>
+    <row r="160" spans="1:19" s="11" customFormat="1">
       <c r="A160" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="16">
         <v>1806</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O160" s="26"/>
+      <c r="P160" s="26"/>
+      <c r="Q160" s="26"/>
+      <c r="R160" s="26"/>
+      <c r="S160" s="26"/>
+    </row>
+    <row r="161" spans="1:19" s="11" customFormat="1">
       <c r="A161" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="16">
         <v>1806</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O161" s="26"/>
+      <c r="P161" s="26"/>
+      <c r="Q161" s="26"/>
+      <c r="R161" s="26"/>
+      <c r="S161" s="26"/>
+    </row>
+    <row r="162" spans="1:19" s="11" customFormat="1">
       <c r="A162" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B162" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="16">
         <v>1806</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O162" s="26"/>
+      <c r="P162" s="26"/>
+      <c r="Q162" s="26"/>
+      <c r="R162" s="26"/>
+      <c r="S162" s="26"/>
+    </row>
+    <row r="163" spans="1:19" s="11" customFormat="1">
       <c r="A163" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="16">
         <v>1806</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O163" s="26"/>
+      <c r="P163" s="26"/>
+      <c r="Q163" s="26"/>
+      <c r="R163" s="26"/>
+      <c r="S163" s="26"/>
+    </row>
+    <row r="164" spans="1:19" s="11" customFormat="1">
       <c r="A164" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2">
         <v>1807</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O164" s="26"/>
+      <c r="P164" s="26"/>
+      <c r="Q164" s="26"/>
+      <c r="R164" s="26"/>
+      <c r="S164" s="26"/>
+    </row>
+    <row r="165" spans="1:19" s="11" customFormat="1">
       <c r="A165" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="16">
         <v>1807</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O165" s="26"/>
+      <c r="P165" s="26"/>
+      <c r="Q165" s="26"/>
+      <c r="R165" s="26"/>
+      <c r="S165" s="26"/>
+    </row>
+    <row r="166" spans="1:19" s="11" customFormat="1">
       <c r="A166" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="16">
         <v>1807</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O166" s="26"/>
+      <c r="P166" s="26"/>
+      <c r="Q166" s="26"/>
+      <c r="R166" s="26"/>
+      <c r="S166" s="26"/>
+    </row>
+    <row r="167" spans="1:19" s="11" customFormat="1">
       <c r="A167" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="18">
         <v>1807</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O167" s="26"/>
+      <c r="P167" s="26"/>
+      <c r="Q167" s="26"/>
+      <c r="R167" s="26"/>
+      <c r="S167" s="26"/>
+    </row>
+    <row r="168" spans="1:19" s="11" customFormat="1">
       <c r="A168" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="16">
         <v>1807</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O168" s="26"/>
+      <c r="P168" s="26"/>
+      <c r="Q168" s="26"/>
+      <c r="R168" s="26"/>
+      <c r="S168" s="26"/>
+    </row>
+    <row r="169" spans="1:19" s="11" customFormat="1">
       <c r="A169" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="19">
         <v>1807</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O169" s="26"/>
+      <c r="P169" s="26"/>
+      <c r="Q169" s="26"/>
+      <c r="R169" s="26"/>
+      <c r="S169" s="26"/>
+    </row>
+    <row r="170" spans="1:19" s="11" customFormat="1">
       <c r="A170" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="16">
         <v>1807</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O170" s="26"/>
+      <c r="P170" s="26"/>
+      <c r="Q170" s="26"/>
+      <c r="R170" s="26"/>
+      <c r="S170" s="26"/>
+    </row>
+    <row r="171" spans="1:19" s="11" customFormat="1">
       <c r="A171" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="16">
         <v>1807</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O171" s="26"/>
+      <c r="P171" s="26"/>
+      <c r="Q171" s="26"/>
+      <c r="R171" s="26"/>
+      <c r="S171" s="26"/>
+    </row>
+    <row r="172" spans="1:19" s="11" customFormat="1">
       <c r="A172" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="16">
         <v>1808</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O172" s="26"/>
+      <c r="P172" s="26"/>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26"/>
+      <c r="S172" s="26"/>
+    </row>
+    <row r="173" spans="1:19" s="11" customFormat="1">
       <c r="A173" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="16">
         <v>1808</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O173" s="26"/>
+      <c r="P173" s="26"/>
+      <c r="Q173" s="26"/>
+      <c r="R173" s="26"/>
+      <c r="S173" s="26"/>
+    </row>
+    <row r="174" spans="1:19" s="11" customFormat="1">
       <c r="A174" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="16">
         <v>1808</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O174" s="26"/>
+      <c r="P174" s="26"/>
+      <c r="Q174" s="26"/>
+      <c r="R174" s="26"/>
+      <c r="S174" s="26"/>
+    </row>
+    <row r="175" spans="1:19" s="11" customFormat="1">
       <c r="A175" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="16">
         <v>1808</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O175" s="26"/>
+      <c r="P175" s="26"/>
+      <c r="Q175" s="26"/>
+      <c r="R175" s="26"/>
+      <c r="S175" s="26"/>
+    </row>
+    <row r="176" spans="1:19" s="11" customFormat="1">
       <c r="A176" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="16">
         <v>1808</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O176" s="26"/>
+      <c r="P176" s="26"/>
+      <c r="Q176" s="26"/>
+      <c r="R176" s="26"/>
+      <c r="S176" s="26"/>
+    </row>
+    <row r="177" spans="1:19" s="11" customFormat="1">
       <c r="A177" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B177" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="16">
         <v>1808</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O177" s="26"/>
+      <c r="P177" s="26"/>
+      <c r="Q177" s="26"/>
+      <c r="R177" s="26"/>
+      <c r="S177" s="26"/>
+    </row>
+    <row r="178" spans="1:19" s="11" customFormat="1">
       <c r="A178" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="16">
         <v>1808</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O178" s="26"/>
+      <c r="P178" s="26"/>
+      <c r="Q178" s="26"/>
+      <c r="R178" s="26"/>
+      <c r="S178" s="26"/>
+    </row>
+    <row r="179" spans="1:19" s="11" customFormat="1">
       <c r="A179" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="16">
         <v>1808</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O179" s="26"/>
+      <c r="P179" s="26"/>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="26"/>
+      <c r="S179" s="26"/>
+    </row>
+    <row r="180" spans="1:19" s="11" customFormat="1">
       <c r="A180" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B180" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="16">
         <v>1808</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O180" s="26"/>
+      <c r="P180" s="26"/>
+      <c r="Q180" s="26"/>
+      <c r="R180" s="26"/>
+      <c r="S180" s="26"/>
+    </row>
+    <row r="181" spans="1:19" s="11" customFormat="1">
       <c r="A181" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="16">
         <v>1809</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O181" s="26"/>
+      <c r="P181" s="26"/>
+      <c r="Q181" s="26"/>
+      <c r="R181" s="26"/>
+      <c r="S181" s="26"/>
+    </row>
+    <row r="182" spans="1:19" s="11" customFormat="1">
       <c r="A182" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="16">
         <v>1809</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O182" s="26"/>
+      <c r="P182" s="26"/>
+      <c r="Q182" s="26"/>
+      <c r="R182" s="26"/>
+      <c r="S182" s="26"/>
+    </row>
+    <row r="183" spans="1:19" s="11" customFormat="1">
       <c r="A183" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B183" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="16">
         <v>1809</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O183" s="26"/>
+      <c r="P183" s="26"/>
+      <c r="Q183" s="26"/>
+      <c r="R183" s="26"/>
+      <c r="S183" s="26"/>
+    </row>
+    <row r="184" spans="1:19" s="11" customFormat="1">
       <c r="A184" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2">
         <v>1810</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O184" s="26"/>
+      <c r="P184" s="26"/>
+      <c r="Q184" s="26"/>
+      <c r="R184" s="26"/>
+      <c r="S184" s="26"/>
+    </row>
+    <row r="185" spans="1:19" s="11" customFormat="1">
       <c r="A185" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5558,16 +6470,21 @@
         <v>1810</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O185" s="26"/>
+      <c r="P185" s="26"/>
+      <c r="Q185" s="26"/>
+      <c r="R185" s="26"/>
+      <c r="S185" s="26"/>
+    </row>
+    <row r="186" spans="1:19" s="11" customFormat="1">
       <c r="A186" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5575,532 +6492,677 @@
         <v>1810</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O186" s="26"/>
+      <c r="P186" s="26"/>
+      <c r="Q186" s="26"/>
+      <c r="R186" s="26"/>
+      <c r="S186" s="26"/>
+    </row>
+    <row r="187" spans="1:19" s="11" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2">
         <v>1810</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O187" s="26"/>
+      <c r="P187" s="26"/>
+      <c r="Q187" s="26"/>
+      <c r="R187" s="26"/>
+      <c r="S187" s="26"/>
+    </row>
+    <row r="188" spans="1:19" s="11" customFormat="1">
       <c r="A188" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="16">
         <v>1810</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O188" s="26"/>
+      <c r="P188" s="26"/>
+      <c r="Q188" s="26"/>
+      <c r="R188" s="26"/>
+      <c r="S188" s="26"/>
+    </row>
+    <row r="189" spans="1:19" s="11" customFormat="1">
       <c r="A189" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="16">
         <v>1810</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O189" s="26"/>
+      <c r="P189" s="26"/>
+      <c r="Q189" s="26"/>
+      <c r="R189" s="26"/>
+      <c r="S189" s="26"/>
+    </row>
+    <row r="190" spans="1:19" s="11" customFormat="1">
       <c r="A190" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="16">
         <v>1810</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O190" s="26"/>
+      <c r="P190" s="26"/>
+      <c r="Q190" s="26"/>
+      <c r="R190" s="26"/>
+      <c r="S190" s="26"/>
+    </row>
+    <row r="191" spans="1:19" s="11" customFormat="1">
       <c r="A191" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="16">
         <v>1810</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O191" s="26"/>
+      <c r="P191" s="26"/>
+      <c r="Q191" s="26"/>
+      <c r="R191" s="26"/>
+      <c r="S191" s="26"/>
+    </row>
+    <row r="192" spans="1:19" s="11" customFormat="1">
       <c r="A192" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="16">
         <v>1810</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O192" s="26"/>
+      <c r="P192" s="26"/>
+      <c r="Q192" s="26"/>
+      <c r="R192" s="26"/>
+      <c r="S192" s="26"/>
+    </row>
+    <row r="193" spans="1:19" s="11" customFormat="1">
       <c r="A193" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="16">
         <v>1810</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O193" s="26"/>
+      <c r="P193" s="26"/>
+      <c r="Q193" s="26"/>
+      <c r="R193" s="26"/>
+      <c r="S193" s="26"/>
+    </row>
+    <row r="194" spans="1:19" s="11" customFormat="1">
       <c r="A194" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B194" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="16">
         <v>1810</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O194" s="26"/>
+      <c r="P194" s="26"/>
+      <c r="Q194" s="26"/>
+      <c r="R194" s="26"/>
+      <c r="S194" s="26"/>
+    </row>
+    <row r="195" spans="1:19" s="11" customFormat="1">
       <c r="A195" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2">
         <v>1811</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O195" s="26"/>
+      <c r="P195" s="26"/>
+      <c r="Q195" s="26"/>
+      <c r="R195" s="26"/>
+      <c r="S195" s="26"/>
+    </row>
+    <row r="196" spans="1:19" s="11" customFormat="1">
       <c r="A196" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B196" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="16">
         <v>1811</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O196" s="26"/>
+      <c r="P196" s="26"/>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="26"/>
+      <c r="S196" s="26"/>
+    </row>
+    <row r="197" spans="1:19" s="11" customFormat="1">
       <c r="A197" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="16">
         <v>1811</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O197" s="26"/>
+      <c r="P197" s="26"/>
+      <c r="Q197" s="26"/>
+      <c r="R197" s="26"/>
+      <c r="S197" s="26"/>
+    </row>
+    <row r="198" spans="1:19" s="11" customFormat="1">
       <c r="A198" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="16">
         <v>1811</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O198" s="26"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+    </row>
+    <row r="199" spans="1:19" s="11" customFormat="1">
       <c r="A199" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="16">
         <v>1811</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O199" s="26"/>
+      <c r="P199" s="26"/>
+      <c r="Q199" s="26"/>
+      <c r="R199" s="26"/>
+      <c r="S199" s="26"/>
+    </row>
+    <row r="200" spans="1:19" s="11" customFormat="1">
       <c r="A200" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="16">
         <v>1811</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O200" s="26"/>
+      <c r="P200" s="26"/>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="S200" s="26"/>
+    </row>
+    <row r="201" spans="1:19" s="11" customFormat="1">
       <c r="A201" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2">
         <v>1812</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O201" s="26"/>
+      <c r="P201" s="26"/>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="S201" s="26"/>
+    </row>
+    <row r="202" spans="1:19" s="11" customFormat="1">
       <c r="A202" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B202" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="16">
         <v>1812</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O202" s="26"/>
+      <c r="P202" s="26"/>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="S202" s="26"/>
+    </row>
+    <row r="203" spans="1:19" s="11" customFormat="1">
       <c r="A203" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B203" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="16">
         <v>1812</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O203" s="26"/>
+      <c r="P203" s="26"/>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="S203" s="26"/>
+    </row>
+    <row r="204" spans="1:19" s="11" customFormat="1">
       <c r="A204" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2">
         <v>1813</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O204" s="26"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="26"/>
+      <c r="R204" s="26"/>
+      <c r="S204" s="26"/>
+    </row>
+    <row r="205" spans="1:19" s="11" customFormat="1">
       <c r="A205" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B205" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="16">
         <v>1813</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O205" s="26"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="26"/>
+      <c r="R205" s="26"/>
+      <c r="S205" s="26"/>
+    </row>
+    <row r="206" spans="1:19" s="11" customFormat="1">
       <c r="A206" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="16">
         <v>1813</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O206" s="26"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="26"/>
+      <c r="R206" s="26"/>
+      <c r="S206" s="26"/>
+    </row>
+    <row r="207" spans="1:19" s="11" customFormat="1">
       <c r="A207" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="16">
         <v>1813</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O207" s="26"/>
+      <c r="P207" s="26"/>
+      <c r="Q207" s="26"/>
+      <c r="R207" s="26"/>
+      <c r="S207" s="26"/>
+    </row>
+    <row r="208" spans="1:19" s="11" customFormat="1">
       <c r="A208" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="16">
         <v>1814</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O208" s="26"/>
+      <c r="P208" s="26"/>
+      <c r="Q208" s="26"/>
+      <c r="R208" s="26"/>
+      <c r="S208" s="26"/>
+    </row>
+    <row r="209" spans="1:19" s="11" customFormat="1">
       <c r="A209" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="16">
         <v>1815</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O209" s="26"/>
+      <c r="P209" s="26"/>
+      <c r="Q209" s="26"/>
+      <c r="R209" s="26"/>
+      <c r="S209" s="26"/>
+    </row>
+    <row r="210" spans="1:19" s="11" customFormat="1">
       <c r="A210" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="16">
         <v>1815</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O210" s="26"/>
+      <c r="P210" s="26"/>
+      <c r="Q210" s="26"/>
+      <c r="R210" s="26"/>
+      <c r="S210" s="26"/>
+    </row>
+    <row r="211" spans="1:19" s="11" customFormat="1">
       <c r="A211" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2">
         <v>1816</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O211" s="26"/>
+      <c r="P211" s="26"/>
+      <c r="Q211" s="26"/>
+      <c r="R211" s="26"/>
+      <c r="S211" s="26"/>
+    </row>
+    <row r="212" spans="1:19" s="11" customFormat="1">
       <c r="A212" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2">
         <v>1816</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O212" s="26"/>
+      <c r="P212" s="26"/>
+      <c r="Q212" s="26"/>
+      <c r="R212" s="26"/>
+      <c r="S212" s="26"/>
+    </row>
+    <row r="213" spans="1:19" s="11" customFormat="1">
       <c r="A213" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B213" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="16">
         <v>1816</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O213" s="26"/>
+      <c r="P213" s="26"/>
+      <c r="Q213" s="26"/>
+      <c r="R213" s="26"/>
+      <c r="S213" s="26"/>
+    </row>
+    <row r="214" spans="1:19" s="11" customFormat="1">
       <c r="A214" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="16">
         <v>1816</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O214" s="26"/>
+      <c r="P214" s="26"/>
+      <c r="Q214" s="26"/>
+      <c r="R214" s="26"/>
+      <c r="S214" s="26"/>
+    </row>
+    <row r="215" spans="1:19" s="11" customFormat="1">
       <c r="A215" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6108,342 +7170,442 @@
         <v>1818</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O215" s="26"/>
+      <c r="P215" s="26"/>
+      <c r="Q215" s="26"/>
+      <c r="R215" s="26"/>
+      <c r="S215" s="26"/>
+    </row>
+    <row r="216" spans="1:19" s="11" customFormat="1">
       <c r="A216" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="16">
         <v>1818</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O216" s="26"/>
+      <c r="P216" s="26"/>
+      <c r="Q216" s="26"/>
+      <c r="R216" s="26"/>
+      <c r="S216" s="26"/>
+    </row>
+    <row r="217" spans="1:19" s="11" customFormat="1">
       <c r="A217" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B217" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="16">
         <v>1818</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O217" s="26"/>
+      <c r="P217" s="26"/>
+      <c r="Q217" s="26"/>
+      <c r="R217" s="26"/>
+      <c r="S217" s="26"/>
+    </row>
+    <row r="218" spans="1:19" s="11" customFormat="1">
       <c r="A218" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="16">
         <v>1818</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O218" s="26"/>
+      <c r="P218" s="26"/>
+      <c r="Q218" s="26"/>
+      <c r="R218" s="26"/>
+      <c r="S218" s="26"/>
+    </row>
+    <row r="219" spans="1:19" s="11" customFormat="1">
       <c r="A219" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2">
         <v>1819</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O219" s="26"/>
+      <c r="P219" s="26"/>
+      <c r="Q219" s="26"/>
+      <c r="R219" s="26"/>
+      <c r="S219" s="26"/>
+    </row>
+    <row r="220" spans="1:19" s="11" customFormat="1">
       <c r="A220" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B220" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="16">
         <v>1819</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O220" s="26"/>
+      <c r="P220" s="26"/>
+      <c r="Q220" s="26"/>
+      <c r="R220" s="26"/>
+      <c r="S220" s="26"/>
+    </row>
+    <row r="221" spans="1:19" s="11" customFormat="1">
       <c r="A221" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B221" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="16">
         <v>1819</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O221" s="26"/>
+      <c r="P221" s="26"/>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="26"/>
+      <c r="S221" s="26"/>
+    </row>
+    <row r="222" spans="1:19" s="11" customFormat="1">
       <c r="A222" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B222" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="16">
         <v>1819</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O222" s="26"/>
+      <c r="P222" s="26"/>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="26"/>
+      <c r="S222" s="26"/>
+    </row>
+    <row r="223" spans="1:19" s="11" customFormat="1">
       <c r="A223" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="16">
         <v>1819</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O223" s="26"/>
+      <c r="P223" s="26"/>
+      <c r="Q223" s="26"/>
+      <c r="R223" s="26"/>
+      <c r="S223" s="26"/>
+    </row>
+    <row r="224" spans="1:19" s="11" customFormat="1">
       <c r="A224" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B224" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="16">
         <v>1819</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O224" s="26"/>
+      <c r="P224" s="26"/>
+      <c r="Q224" s="26"/>
+      <c r="R224" s="26"/>
+      <c r="S224" s="26"/>
+    </row>
+    <row r="225" spans="1:19" s="11" customFormat="1">
       <c r="A225" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="17">
         <v>1819</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O225" s="26"/>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+    </row>
+    <row r="226" spans="1:19" s="11" customFormat="1">
       <c r="A226" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2">
         <v>1820</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O226" s="26"/>
+      <c r="P226" s="26"/>
+      <c r="Q226" s="26"/>
+      <c r="R226" s="26"/>
+      <c r="S226" s="26"/>
+    </row>
+    <row r="227" spans="1:19" s="11" customFormat="1">
       <c r="A227" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B227" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="16">
         <v>1820</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O227" s="26"/>
+      <c r="P227" s="26"/>
+      <c r="Q227" s="26"/>
+      <c r="R227" s="26"/>
+      <c r="S227" s="26"/>
+    </row>
+    <row r="228" spans="1:19" s="11" customFormat="1">
       <c r="A228" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="16">
         <v>1820</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O228" s="26"/>
+      <c r="P228" s="26"/>
+      <c r="Q228" s="26"/>
+      <c r="R228" s="26"/>
+      <c r="S228" s="26"/>
+    </row>
+    <row r="229" spans="1:19" s="11" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B229" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="16">
         <v>1820</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O229" s="26"/>
+      <c r="P229" s="26"/>
+      <c r="Q229" s="26"/>
+      <c r="R229" s="26"/>
+      <c r="S229" s="26"/>
+    </row>
+    <row r="230" spans="1:19" s="11" customFormat="1">
       <c r="A230" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B230" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="16">
         <v>1820</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O230" s="26"/>
+      <c r="P230" s="26"/>
+      <c r="Q230" s="26"/>
+      <c r="R230" s="26"/>
+      <c r="S230" s="26"/>
+    </row>
+    <row r="231" spans="1:19" s="11" customFormat="1">
       <c r="A231" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="16">
         <v>1820</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O231" s="26"/>
+      <c r="P231" s="26"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="26"/>
+      <c r="S231" s="26"/>
+    </row>
+    <row r="232" spans="1:19" s="11" customFormat="1">
       <c r="A232" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B232" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="16">
         <v>1820</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O232" s="26"/>
+      <c r="P232" s="26"/>
+      <c r="Q232" s="26"/>
+      <c r="R232" s="26"/>
+      <c r="S232" s="26"/>
+    </row>
+    <row r="233" spans="1:19" s="11" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B233" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="16">
         <v>1820</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O233" s="26"/>
+      <c r="P233" s="26"/>
+      <c r="Q233" s="26"/>
+      <c r="R233" s="26"/>
+      <c r="S233" s="26"/>
+    </row>
+    <row r="234" spans="1:19" s="11" customFormat="1">
       <c r="A234" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B234" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="16">
         <v>1820</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O234" s="26"/>
+      <c r="P234" s="26"/>
+      <c r="Q234" s="26"/>
+      <c r="R234" s="26"/>
+      <c r="S234" s="26"/>
+    </row>
+    <row r="235" spans="1:19" s="11" customFormat="1">
       <c r="A235" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6451,947 +7613,1197 @@
         <v>1821</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O235" s="26"/>
+      <c r="P235" s="26"/>
+      <c r="Q235" s="26"/>
+      <c r="R235" s="26"/>
+      <c r="S235" s="26"/>
+    </row>
+    <row r="236" spans="1:19" s="11" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B236" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="16">
         <v>1822</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O236" s="26"/>
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26"/>
+      <c r="R236" s="26"/>
+      <c r="S236" s="26"/>
+    </row>
+    <row r="237" spans="1:19" s="11" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B237" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="16">
         <v>1822</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O237" s="26"/>
+      <c r="P237" s="26"/>
+      <c r="Q237" s="26"/>
+      <c r="R237" s="26"/>
+      <c r="S237" s="26"/>
+    </row>
+    <row r="238" spans="1:19" s="11" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B238" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="16">
         <v>1822</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O238" s="26"/>
+      <c r="P238" s="26"/>
+      <c r="Q238" s="26"/>
+      <c r="R238" s="26"/>
+      <c r="S238" s="26"/>
+    </row>
+    <row r="239" spans="1:19" s="11" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="16">
         <v>1822</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O239" s="26"/>
+      <c r="P239" s="26"/>
+      <c r="Q239" s="26"/>
+      <c r="R239" s="26"/>
+      <c r="S239" s="26"/>
+    </row>
+    <row r="240" spans="1:19" s="11" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B240" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="16">
         <v>1823</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O240" s="26"/>
+      <c r="P240" s="26"/>
+      <c r="Q240" s="26"/>
+      <c r="R240" s="26"/>
+      <c r="S240" s="26"/>
+    </row>
+    <row r="241" spans="1:19" s="11" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="16">
         <v>1823</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O241" s="26"/>
+      <c r="P241" s="26"/>
+      <c r="Q241" s="26"/>
+      <c r="R241" s="26"/>
+      <c r="S241" s="26"/>
+    </row>
+    <row r="242" spans="1:19" s="11" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="16">
         <v>1823</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O242" s="26"/>
+      <c r="P242" s="26"/>
+      <c r="Q242" s="26"/>
+      <c r="R242" s="26"/>
+      <c r="S242" s="26"/>
+    </row>
+    <row r="243" spans="1:19" s="11" customFormat="1">
       <c r="A243" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2">
         <v>1824</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O243" s="26"/>
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="S243" s="26"/>
+    </row>
+    <row r="244" spans="1:19" s="11" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B244" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="16">
         <v>1824</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O244" s="26"/>
+      <c r="P244" s="26"/>
+      <c r="Q244" s="26"/>
+      <c r="R244" s="26"/>
+      <c r="S244" s="26"/>
+    </row>
+    <row r="245" spans="1:19" s="11" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B245" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="16">
         <v>1824</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O245" s="26"/>
+      <c r="P245" s="26"/>
+      <c r="Q245" s="26"/>
+      <c r="R245" s="26"/>
+      <c r="S245" s="26"/>
+    </row>
+    <row r="246" spans="1:19" s="11" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B246" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="16">
         <v>1824</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O246" s="26"/>
+      <c r="P246" s="26"/>
+      <c r="Q246" s="26"/>
+      <c r="R246" s="26"/>
+      <c r="S246" s="26"/>
+    </row>
+    <row r="247" spans="1:19" s="11" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B247" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="16">
         <v>1824</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O247" s="26"/>
+      <c r="P247" s="26"/>
+      <c r="Q247" s="26"/>
+      <c r="R247" s="26"/>
+      <c r="S247" s="26"/>
+    </row>
+    <row r="248" spans="1:19" s="11" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="16">
         <v>1824</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O248" s="26"/>
+      <c r="P248" s="26"/>
+      <c r="Q248" s="26"/>
+      <c r="R248" s="26"/>
+      <c r="S248" s="26"/>
+    </row>
+    <row r="249" spans="1:19" s="11" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B249" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="16">
         <v>1824</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O249" s="26"/>
+      <c r="P249" s="26"/>
+      <c r="Q249" s="26"/>
+      <c r="R249" s="26"/>
+      <c r="S249" s="26"/>
+    </row>
+    <row r="250" spans="1:19" s="11" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B250" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="16">
         <v>1825</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O250" s="26"/>
+      <c r="P250" s="26"/>
+      <c r="Q250" s="26"/>
+      <c r="R250" s="26"/>
+      <c r="S250" s="26"/>
+    </row>
+    <row r="251" spans="1:19" s="11" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="16">
         <v>1825</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O251" s="26"/>
+      <c r="P251" s="26"/>
+      <c r="Q251" s="26"/>
+      <c r="R251" s="26"/>
+      <c r="S251" s="26"/>
+    </row>
+    <row r="252" spans="1:19" s="11" customFormat="1">
       <c r="A252" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B252" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="16">
         <v>1826</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O252" s="26"/>
+      <c r="P252" s="26"/>
+      <c r="Q252" s="26"/>
+      <c r="R252" s="26"/>
+      <c r="S252" s="26"/>
+    </row>
+    <row r="253" spans="1:19" s="11" customFormat="1">
       <c r="A253" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B253" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="16">
         <v>1826</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O253" s="26"/>
+      <c r="P253" s="26"/>
+      <c r="Q253" s="26"/>
+      <c r="R253" s="26"/>
+      <c r="S253" s="26"/>
+    </row>
+    <row r="254" spans="1:19" s="11" customFormat="1">
       <c r="A254" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="16">
         <v>1826</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J254" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" s="11" customFormat="1">
+        <v>441</v>
+      </c>
+      <c r="O254" s="26"/>
+      <c r="P254" s="26"/>
+      <c r="Q254" s="26"/>
+      <c r="R254" s="26"/>
+      <c r="S254" s="26"/>
+    </row>
+    <row r="255" spans="1:19" s="11" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="16">
         <v>1826</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O255" s="26"/>
+      <c r="P255" s="26"/>
+      <c r="Q255" s="26"/>
+      <c r="R255" s="26"/>
+      <c r="S255" s="26"/>
+    </row>
+    <row r="256" spans="1:19" s="11" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="16">
         <v>1827</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O256" s="26"/>
+      <c r="P256" s="26"/>
+      <c r="Q256" s="26"/>
+      <c r="R256" s="26"/>
+      <c r="S256" s="26"/>
+    </row>
+    <row r="257" spans="1:19" s="11" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B257" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="16">
         <v>1827</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O257" s="26"/>
+      <c r="P257" s="26"/>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="26"/>
+      <c r="S257" s="26"/>
+    </row>
+    <row r="258" spans="1:19" s="11" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B258" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="16">
         <v>1827</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O258" s="26"/>
+      <c r="P258" s="26"/>
+      <c r="Q258" s="26"/>
+      <c r="R258" s="26"/>
+      <c r="S258" s="26"/>
+    </row>
+    <row r="259" spans="1:19" s="11" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B259" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="16">
         <v>1828</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O259" s="26"/>
+      <c r="P259" s="26"/>
+      <c r="Q259" s="26"/>
+      <c r="R259" s="26"/>
+      <c r="S259" s="26"/>
+    </row>
+    <row r="260" spans="1:19" s="11" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B260" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="16">
         <v>1828</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O260" s="26"/>
+      <c r="P260" s="26"/>
+      <c r="Q260" s="26"/>
+      <c r="R260" s="26"/>
+      <c r="S260" s="26"/>
+    </row>
+    <row r="261" spans="1:19" s="11" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B261" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="16">
         <v>1828</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O261" s="26"/>
+      <c r="P261" s="26"/>
+      <c r="Q261" s="26"/>
+      <c r="R261" s="26"/>
+      <c r="S261" s="26"/>
+    </row>
+    <row r="262" spans="1:19" s="11" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="16">
         <v>1828</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O262" s="26"/>
+      <c r="P262" s="26"/>
+      <c r="Q262" s="26"/>
+      <c r="R262" s="26"/>
+      <c r="S262" s="26"/>
+    </row>
+    <row r="263" spans="1:19" s="11" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B263" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="16">
         <v>1830</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O263" s="26"/>
+      <c r="P263" s="26"/>
+      <c r="Q263" s="26"/>
+      <c r="R263" s="26"/>
+      <c r="S263" s="26"/>
+    </row>
+    <row r="264" spans="1:19" s="11" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B264" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="16">
         <v>1830</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O264" s="26"/>
+      <c r="P264" s="26"/>
+      <c r="Q264" s="26"/>
+      <c r="R264" s="26"/>
+      <c r="S264" s="26"/>
+    </row>
+    <row r="265" spans="1:19" s="11" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B265" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="16">
         <v>1830</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O265" s="26"/>
+      <c r="P265" s="26"/>
+      <c r="Q265" s="26"/>
+      <c r="R265" s="26"/>
+      <c r="S265" s="26"/>
+    </row>
+    <row r="266" spans="1:19" s="11" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B266" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="16">
         <v>1831</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O266" s="26"/>
+      <c r="P266" s="26"/>
+      <c r="Q266" s="26"/>
+      <c r="R266" s="26"/>
+      <c r="S266" s="26"/>
+    </row>
+    <row r="267" spans="1:19" s="11" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="16">
         <v>1832</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O267" s="26"/>
+      <c r="P267" s="26"/>
+      <c r="Q267" s="26"/>
+      <c r="R267" s="26"/>
+      <c r="S267" s="26"/>
+    </row>
+    <row r="268" spans="1:19" s="11" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B268" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="16">
         <v>1832</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O268" s="26"/>
+      <c r="P268" s="26"/>
+      <c r="Q268" s="26"/>
+      <c r="R268" s="26"/>
+      <c r="S268" s="26"/>
+    </row>
+    <row r="269" spans="1:19" s="11" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B269" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="16">
         <v>1832</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O269" s="26"/>
+      <c r="P269" s="26"/>
+      <c r="Q269" s="26"/>
+      <c r="R269" s="26"/>
+      <c r="S269" s="26"/>
+    </row>
+    <row r="270" spans="1:19" s="11" customFormat="1">
       <c r="A270" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2">
         <v>1834</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O270" s="26"/>
+      <c r="P270" s="26"/>
+      <c r="Q270" s="26"/>
+      <c r="R270" s="26"/>
+      <c r="S270" s="26"/>
+    </row>
+    <row r="271" spans="1:19" s="11" customFormat="1">
       <c r="A271" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="16">
         <v>1835</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O271" s="26"/>
+      <c r="P271" s="26"/>
+      <c r="Q271" s="26"/>
+      <c r="R271" s="26"/>
+      <c r="S271" s="26"/>
+    </row>
+    <row r="272" spans="1:19" s="11" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B272" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="16">
         <v>1837</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O272" s="26"/>
+      <c r="P272" s="26"/>
+      <c r="Q272" s="26"/>
+      <c r="R272" s="26"/>
+      <c r="S272" s="26"/>
+    </row>
+    <row r="273" spans="1:19" s="11" customFormat="1">
       <c r="A273" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2">
         <v>1839</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O273" s="26"/>
+      <c r="P273" s="26"/>
+      <c r="Q273" s="26"/>
+      <c r="R273" s="26"/>
+      <c r="S273" s="26"/>
+    </row>
+    <row r="274" spans="1:19" s="11" customFormat="1">
       <c r="A274" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2">
         <v>1849</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O274" s="26"/>
+      <c r="P274" s="26"/>
+      <c r="Q274" s="26"/>
+      <c r="R274" s="26"/>
+      <c r="S274" s="26"/>
+    </row>
+    <row r="275" spans="1:19" s="11" customFormat="1">
       <c r="A275" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
         <v>1851</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O275" s="26"/>
+      <c r="P275" s="26"/>
+      <c r="Q275" s="26"/>
+      <c r="R275" s="26"/>
+      <c r="S275" s="26"/>
+    </row>
+    <row r="276" spans="1:19" s="11" customFormat="1">
       <c r="A276" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="11" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="O276" s="26"/>
+      <c r="P276" s="26"/>
+      <c r="Q276" s="26"/>
+      <c r="R276" s="26"/>
+      <c r="S276" s="26"/>
+    </row>
+    <row r="277" spans="1:19" s="11" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O277" s="26"/>
+      <c r="P277" s="26"/>
+      <c r="Q277" s="26"/>
+      <c r="R277" s="26"/>
+      <c r="S277" s="26"/>
+    </row>
+    <row r="278" spans="1:19" s="11" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O278" s="26"/>
+      <c r="P278" s="26"/>
+      <c r="Q278" s="26"/>
+      <c r="R278" s="26"/>
+      <c r="S278" s="26"/>
+    </row>
+    <row r="279" spans="1:19" s="11" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O279" s="26"/>
+      <c r="P279" s="26"/>
+      <c r="Q279" s="26"/>
+      <c r="R279" s="26"/>
+      <c r="S279" s="26"/>
+    </row>
+    <row r="280" spans="1:19" s="11" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O280" s="26"/>
+      <c r="P280" s="26"/>
+      <c r="Q280" s="26"/>
+      <c r="R280" s="26"/>
+      <c r="S280" s="26"/>
+    </row>
+    <row r="281" spans="1:19" s="11" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" s="11" customFormat="1">
+        <v>422</v>
+      </c>
+      <c r="O281" s="26"/>
+      <c r="P281" s="26"/>
+      <c r="Q281" s="26"/>
+      <c r="R281" s="26"/>
+      <c r="S281" s="26"/>
+    </row>
+    <row r="282" spans="1:19" s="11" customFormat="1">
       <c r="A282" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B282" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C282"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="1:10" s="11" customFormat="1">
+      <c r="O282" s="26"/>
+      <c r="P282" s="26"/>
+      <c r="Q282" s="26"/>
+      <c r="R282" s="26"/>
+      <c r="S282" s="26"/>
+    </row>
+    <row r="283" spans="1:19" s="11" customFormat="1">
       <c r="A283" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B283" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C283"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-    </row>
-    <row r="284" spans="1:10" s="11" customFormat="1">
+      <c r="O283" s="26"/>
+      <c r="P283" s="26"/>
+      <c r="Q283" s="26"/>
+      <c r="R283" s="26"/>
+      <c r="S283" s="26"/>
+    </row>
+    <row r="284" spans="1:19" s="11" customFormat="1">
       <c r="A284" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B284" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C284"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="O284" s="26"/>
+      <c r="P284" s="26"/>
+      <c r="Q284" s="26"/>
+      <c r="R284" s="26"/>
+      <c r="S284" s="26"/>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D285" s="2">
         <v>1816</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J285" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19">
+      <c r="A286" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
-      <c r="A286" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="B286" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D286" s="2">
         <v>1798</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D287" s="2">
         <v>1798</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:19">
       <c r="A288" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D288" s="2">
         <v>1821</v>
@@ -7399,10 +8811,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D289" s="2">
         <v>1845</v>

--- a/_gothicTextsDb.xlsx
+++ b/_gothicTextsDb.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="-3280" windowWidth="32420" windowHeight="20580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$290</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="576">
   <si>
     <t>Title</t>
   </si>
@@ -1688,6 +1688,162 @@
   </si>
   <si>
     <t>Godwin_StLeon_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>Hours of Solitude</t>
+  </si>
+  <si>
+    <t>http://digital.lib.ucdavis.edu/projects/bwrp/Works/DacrCHours2.htm</t>
+  </si>
+  <si>
+    <t>British Women Romantic Poets Project</t>
+  </si>
+  <si>
+    <t>DacrCHours2</t>
+  </si>
+  <si>
+    <t>London, 1805</t>
+  </si>
+  <si>
+    <t>Payne, Charlotte</t>
+  </si>
+  <si>
+    <t>Dacre_HoursOfSolitude_BRWP.txt</t>
+  </si>
+  <si>
+    <t>eBook</t>
+  </si>
+  <si>
+    <t>https://books.google.ca/books?id=9H4jT25HBhUC&amp;redir_esc=y</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/feudaltyrantsorc01lewi</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/fatalrevengeorfa03matu</t>
+  </si>
+  <si>
+    <t>Stagg_TheVampyre_PoetsOrg.txt</t>
+  </si>
+  <si>
+    <t>https://www.poets.org/print/node/51018</t>
+  </si>
+  <si>
+    <t>ShelleyPercy_Zastrozzi_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606461h.html</t>
+  </si>
+  <si>
+    <t>0606461h.html</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/books/details?id=7oYqAAAAMAAJ&amp;rdid=book-7oYqAAAAMAAJ&amp;rdot=1</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/books/details?id=QSgGAAAAQAAJ&amp;rdid=book-QSgGAAAAQAAJ&amp;rdot=1</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/books/details?id=KR4GAAAAQAAJ&amp;rdid=book-KR4GAAAAQAAJ&amp;rdot=1</t>
+  </si>
+  <si>
+    <t>ShelleyPercy_StIrvyne_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606391h.html</t>
+  </si>
+  <si>
+    <t>Stannard_TheHeroine_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/43065/pg43065.txt</t>
+  </si>
+  <si>
+    <t>#43065</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/bertramtragedyin00matu</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/glenarvon01lambc</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/angelsformanddev03dave</t>
+  </si>
+  <si>
+    <t>ShelleyMary_Frankenstein_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/84/pg84.txt</t>
+  </si>
+  <si>
+    <t>#84</t>
+  </si>
+  <si>
+    <t>Haines, Al</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/ErnestusBerchtoldOrTheModernOEdipus</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/6087/pg6087.txt</t>
+  </si>
+  <si>
+    <t>#6087</t>
+  </si>
+  <si>
+    <t>Polidori_TheVampyre_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/15238/pg15238.txt</t>
+  </si>
+  <si>
+    <t>#15238</t>
+  </si>
+  <si>
+    <t>Nitchie, Elizabeth; Starner, David and Samuel, Cori</t>
+  </si>
+  <si>
+    <t>ShelleyMary_Mathilda_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>Planche_TheVampire_UPenn.txt</t>
+  </si>
+  <si>
+    <t>http://www.forgottenfutures.com/game/ff6/vampire.htm</t>
+  </si>
+  <si>
+    <t>https://catalog.hathitrust.org/Record/008667725</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/brothers00huisgoog</t>
+  </si>
+  <si>
+    <t>https://books.google.ca/books?id=C5WVcyPF754C&amp;pg=PR13&amp;lpg=PR13&amp;dq=%22italian+mysteries%22+lathom+full+text&amp;source=bl&amp;ots=eBpYOECJvt&amp;sig=0cffoy78_uvIbrNFwmJhGJnELBE&amp;hl=en&amp;sa=X&amp;ved=0ahUKEwi6ltrq8ejSAhVoi1QKHZeIAWgQ6AEIITAC#v=onepage&amp;q=%22italian%20mysteries%22%20lathom%20full%20text&amp;f=false</t>
+  </si>
+  <si>
+    <t>#53685</t>
+  </si>
+  <si>
+    <t>David Edwards, Jana Srna and www.pgdp.net</t>
+  </si>
+  <si>
+    <t>Maturin_Melmoth_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/53688/53688-0.txt</t>
+  </si>
+  <si>
+    <t>https://books.google.ca/books?id=k4exxIKNf-EC&amp;pg=PA14&amp;lpg=PA14&amp;dq=wilkinson+spectre+lanmere+full+text&amp;source=bl&amp;ots=56sqjksgD1&amp;sig=YMTsAGITlrNxHbl8lkkTRKgL46A&amp;hl=en&amp;sa=X&amp;ved=0ahUKEwi9yZOK9OjSAhUC_mMKHb2eDPkQ6AEIGjAA#v=onepage&amp;q=wilkinson%20spectre%20lanmere%20full%20text&amp;f=false</t>
+  </si>
+  <si>
+    <t>ShelleyMary_Valperga_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606801h.html</t>
+  </si>
+  <si>
+    <t>0606801h.html</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1980,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1891,7 +2053,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1900,6 +2062,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1908,6 +2073,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2237,29 +2405,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T289"/>
+  <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomRight" activeCell="Q243" sqref="Q243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="19" width="10.83203125" style="24"/>
-    <col min="20" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="20" width="10.83203125" style="24"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="O1" s="23" t="s">
+    <row r="1" spans="1:21">
+      <c r="P1" s="23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1">
+    <row r="2" spans="1:21" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2300,28 +2468,31 @@
         <v>459</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="9" t="s">
         <v>318</v>
       </c>
@@ -2338,7 +2509,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
         <v>239</v>
       </c>
@@ -2355,7 +2526,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2381,7 +2552,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -2404,7 +2575,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
@@ -2424,7 +2595,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2446,11 +2617,11 @@
       <c r="L8" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="R8" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>114</v>
       </c>
@@ -2466,13 +2637,13 @@
       <c r="G9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="24"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
         <v>154</v>
       </c>
@@ -2492,7 +2663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2512,7 +2683,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>117</v>
       </c>
@@ -2529,7 +2700,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
         <v>284</v>
       </c>
@@ -2549,7 +2720,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
@@ -2569,7 +2740,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2597,11 +2768,11 @@
       <c r="L15" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="R15" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2629,11 +2800,11 @@
       <c r="L16" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="R16" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -2661,11 +2832,11 @@
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="R17" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
@@ -2685,7 +2856,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="8" t="s">
         <v>282</v>
       </c>
@@ -2705,7 +2876,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
         <v>460</v>
       </c>
@@ -2732,11 +2903,11 @@
       <c r="L20" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="R20" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
@@ -2756,7 +2927,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="8" t="s">
         <v>263</v>
       </c>
@@ -2779,7 +2950,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="8" t="s">
         <v>275</v>
       </c>
@@ -2801,11 +2972,11 @@
       <c r="L23" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="R23" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2822,7 +2993,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +3010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="8" t="s">
         <v>153</v>
       </c>
@@ -2859,7 +3030,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="8" t="s">
         <v>268</v>
       </c>
@@ -2879,7 +3050,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="8" t="s">
         <v>280</v>
       </c>
@@ -2901,11 +3072,11 @@
       <c r="L28" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="R28" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="8" t="s">
         <v>343</v>
       </c>
@@ -2930,11 +3101,11 @@
       <c r="L29" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="R29" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -2951,7 +3122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -2968,7 +3139,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" s="8" t="s">
         <v>248</v>
       </c>
@@ -2988,7 +3159,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="8" t="s">
         <v>279</v>
       </c>
@@ -3010,11 +3181,11 @@
       <c r="L33" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="R33" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" s="8" t="s">
         <v>283</v>
       </c>
@@ -3034,7 +3205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="8" t="s">
         <v>159</v>
       </c>
@@ -3054,7 +3225,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" s="8" t="s">
         <v>213</v>
       </c>
@@ -3074,7 +3245,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" s="8" t="s">
         <v>286</v>
       </c>
@@ -3097,7 +3268,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3125,11 +3296,11 @@
       <c r="L38" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="R38" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -3154,11 +3325,11 @@
       <c r="L39" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="R39" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
@@ -3175,7 +3346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="8" t="s">
         <v>294</v>
       </c>
@@ -3195,7 +3366,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
         <v>335</v>
       </c>
@@ -3215,7 +3386,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
         <v>465</v>
       </c>
@@ -3240,11 +3411,11 @@
       <c r="L43" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="R43" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -3272,11 +3443,11 @@
       <c r="L44" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q44" s="25">
+      <c r="R44" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
@@ -3293,7 +3464,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
@@ -3318,11 +3489,11 @@
       <c r="L46" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Q46" s="25">
+      <c r="R46" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
@@ -3336,7 +3507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" s="8" t="s">
         <v>164</v>
       </c>
@@ -3353,7 +3524,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" s="8" t="s">
         <v>174</v>
       </c>
@@ -3370,7 +3541,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" s="8" t="s">
         <v>208</v>
       </c>
@@ -3387,7 +3558,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" s="8" t="s">
         <v>224</v>
       </c>
@@ -3415,14 +3586,14 @@
       <c r="L51" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="R51" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" s="8" t="s">
         <v>226</v>
       </c>
@@ -3442,7 +3613,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" s="8" t="s">
         <v>278</v>
       </c>
@@ -3467,11 +3638,11 @@
       <c r="L53" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="R53" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" s="9" t="s">
         <v>317</v>
       </c>
@@ -3491,7 +3662,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" s="8" t="s">
         <v>332</v>
       </c>
@@ -3508,7 +3679,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" s="3" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57" s="8" t="s">
         <v>203</v>
       </c>
@@ -3542,7 +3713,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" s="8" t="s">
         <v>225</v>
       </c>
@@ -3559,7 +3730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" s="8" t="s">
         <v>255</v>
       </c>
@@ -3576,7 +3747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" s="8" t="s">
         <v>334</v>
       </c>
@@ -3593,7 +3764,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -3610,7 +3781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
@@ -3627,7 +3798,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
@@ -3644,7 +3815,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" s="4" t="s">
         <v>93</v>
       </c>
@@ -3669,11 +3840,11 @@
       <c r="L64" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="R64" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:21">
       <c r="A65" s="3" t="s">
         <v>120</v>
       </c>
@@ -3693,7 +3864,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66" s="8" t="s">
         <v>152</v>
       </c>
@@ -3712,7 +3883,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -3731,7 +3902,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:21">
       <c r="A68" s="8" t="s">
         <v>204</v>
       </c>
@@ -3753,7 +3924,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69" s="8" t="s">
         <v>209</v>
       </c>
@@ -3772,7 +3943,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:21">
       <c r="A70" s="8" t="s">
         <v>243</v>
       </c>
@@ -3799,11 +3970,11 @@
       <c r="K70" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="Q70" s="25">
+      <c r="R70" s="25">
         <v>42810</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:21">
       <c r="A71" s="8" t="s">
         <v>265</v>
       </c>
@@ -3822,7 +3993,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:21">
       <c r="A72" s="8" t="s">
         <v>266</v>
       </c>
@@ -3841,7 +4012,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:21">
       <c r="A73" s="8" t="s">
         <v>269</v>
       </c>
@@ -3866,7 +4037,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:21">
       <c r="A74" s="8" t="s">
         <v>290</v>
       </c>
@@ -3896,17 +4067,17 @@
       <c r="L74" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="O74" s="26" t="s">
+      <c r="P74" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="Q74" s="25">
+      <c r="R74" s="25">
         <v>42812</v>
       </c>
-      <c r="S74" s="26" t="s">
+      <c r="T74" s="26" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:21">
       <c r="A75" s="8" t="s">
         <v>316</v>
       </c>
@@ -3931,7 +4102,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:21">
       <c r="A76" s="9" t="s">
         <v>333</v>
       </c>
@@ -3950,7 +4121,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
@@ -3970,7 +4141,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:21">
       <c r="A78" s="6" t="s">
         <v>112</v>
       </c>
@@ -3984,7 +4155,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
         <v>66</v>
       </c>
@@ -4009,26 +4180,26 @@
       <c r="L79" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="O79" s="24" t="s">
+      <c r="P79" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="P79" s="27">
+      <c r="Q79" s="27">
         <v>38930</v>
       </c>
-      <c r="Q79" s="25">
+      <c r="R79" s="25">
         <v>42812</v>
       </c>
-      <c r="R79" s="24" t="s">
+      <c r="S79" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="S79" s="24" t="s">
+      <c r="T79" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="T79" s="28" t="s">
+      <c r="U79" s="28" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:21">
       <c r="A80" s="6" t="s">
         <v>67</v>
       </c>
@@ -4045,7 +4216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:21">
       <c r="A81" s="3" t="s">
         <v>101</v>
       </c>
@@ -4065,7 +4236,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:21">
       <c r="A82" s="4" t="s">
         <v>121</v>
       </c>
@@ -4082,7 +4253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:21">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
@@ -4099,7 +4270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:21">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -4113,7 +4284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:21">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -4127,7 +4298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:21">
       <c r="A86" s="8" t="s">
         <v>162</v>
       </c>
@@ -4144,7 +4315,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="11" customFormat="1">
+    <row r="87" spans="1:21" s="11" customFormat="1">
       <c r="A87" s="8" t="s">
         <v>193</v>
       </c>
@@ -4158,13 +4329,13 @@
       <c r="G87" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O87" s="26"/>
       <c r="P87" s="26"/>
       <c r="Q87" s="26"/>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
-    </row>
-    <row r="88" spans="1:20" s="11" customFormat="1">
+      <c r="T87" s="26"/>
+    </row>
+    <row r="88" spans="1:21" s="11" customFormat="1">
       <c r="A88" s="8" t="s">
         <v>238</v>
       </c>
@@ -4178,13 +4349,13 @@
       <c r="G88" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O88" s="26"/>
       <c r="P88" s="26"/>
       <c r="Q88" s="26"/>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
-    </row>
-    <row r="89" spans="1:20" s="11" customFormat="1">
+      <c r="T88" s="26"/>
+    </row>
+    <row r="89" spans="1:21" s="11" customFormat="1">
       <c r="A89" s="8" t="s">
         <v>261</v>
       </c>
@@ -4198,13 +4369,13 @@
       <c r="G89" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O89" s="26"/>
       <c r="P89" s="26"/>
       <c r="Q89" s="26"/>
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
-    </row>
-    <row r="90" spans="1:20" s="11" customFormat="1">
+      <c r="T89" s="26"/>
+    </row>
+    <row r="90" spans="1:21" s="11" customFormat="1">
       <c r="A90" s="8" t="s">
         <v>277</v>
       </c>
@@ -4227,15 +4398,15 @@
       <c r="L90" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="O90" s="26"/>
       <c r="P90" s="26"/>
-      <c r="Q90" s="25">
+      <c r="Q90" s="26"/>
+      <c r="R90" s="25">
         <v>42810</v>
       </c>
-      <c r="R90" s="26"/>
       <c r="S90" s="26"/>
-    </row>
-    <row r="91" spans="1:20" s="11" customFormat="1">
+      <c r="T90" s="26"/>
+    </row>
+    <row r="91" spans="1:21" s="11" customFormat="1">
       <c r="A91" s="3" t="s">
         <v>501</v>
       </c>
@@ -4264,26 +4435,26 @@
       <c r="L91" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="O91" s="26" t="s">
+      <c r="P91" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="P91" s="29">
+      <c r="Q91" s="29">
         <v>39667</v>
       </c>
-      <c r="Q91" s="29">
+      <c r="R91" s="29">
         <v>42812</v>
-      </c>
-      <c r="R91" s="26" t="s">
-        <v>500</v>
       </c>
       <c r="S91" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="T91" s="28" t="s">
+      <c r="T91" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="U91" s="28" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="11" customFormat="1">
+    <row r="92" spans="1:21" s="11" customFormat="1">
       <c r="A92" s="3" t="s">
         <v>69</v>
       </c>
@@ -4304,13 +4475,13 @@
       <c r="K92" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="O92" s="26"/>
       <c r="P92" s="26"/>
       <c r="Q92" s="26"/>
       <c r="R92" s="26"/>
       <c r="S92" s="26"/>
-    </row>
-    <row r="93" spans="1:20" s="11" customFormat="1">
+      <c r="T92" s="26"/>
+    </row>
+    <row r="93" spans="1:21" s="11" customFormat="1">
       <c r="A93" s="4" t="s">
         <v>90</v>
       </c>
@@ -4328,13 +4499,13 @@
       <c r="G93" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O93" s="26"/>
       <c r="P93" s="26"/>
       <c r="Q93" s="26"/>
       <c r="R93" s="26"/>
       <c r="S93" s="26"/>
-    </row>
-    <row r="94" spans="1:20" s="11" customFormat="1">
+      <c r="T93" s="26"/>
+    </row>
+    <row r="94" spans="1:21" s="11" customFormat="1">
       <c r="A94" s="3" t="s">
         <v>102</v>
       </c>
@@ -4361,26 +4532,26 @@
       <c r="L94" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="O94" s="26" t="s">
+      <c r="P94" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="P94" s="26" t="s">
+      <c r="Q94" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="Q94" s="29">
+      <c r="R94" s="29">
         <v>42812</v>
       </c>
-      <c r="R94" s="26" t="s">
+      <c r="S94" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="S94" s="26" t="s">
+      <c r="T94" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="T94" s="30" t="s">
+      <c r="U94" s="30" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="11" customFormat="1">
+    <row r="95" spans="1:21" s="11" customFormat="1">
       <c r="A95" s="3" t="s">
         <v>141</v>
       </c>
@@ -4396,13 +4567,13 @@
       <c r="G95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O95" s="26"/>
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
       <c r="R95" s="26"/>
       <c r="S95" s="26"/>
-    </row>
-    <row r="96" spans="1:20" s="11" customFormat="1">
+      <c r="T95" s="26"/>
+    </row>
+    <row r="96" spans="1:21" s="11" customFormat="1">
       <c r="A96" s="8" t="s">
         <v>232</v>
       </c>
@@ -4422,13 +4593,13 @@
       <c r="K96" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="O96" s="26"/>
       <c r="P96" s="26"/>
       <c r="Q96" s="26"/>
       <c r="R96" s="26"/>
       <c r="S96" s="26"/>
-    </row>
-    <row r="97" spans="1:20" s="11" customFormat="1">
+      <c r="T96" s="26"/>
+    </row>
+    <row r="97" spans="1:21" s="11" customFormat="1">
       <c r="A97" s="8" t="s">
         <v>267</v>
       </c>
@@ -4442,13 +4613,13 @@
       <c r="G97" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O97" s="26"/>
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
       <c r="S97" s="26"/>
-    </row>
-    <row r="98" spans="1:20" s="11" customFormat="1">
+      <c r="T97" s="26"/>
+    </row>
+    <row r="98" spans="1:21" s="11" customFormat="1">
       <c r="A98" s="8" t="s">
         <v>270</v>
       </c>
@@ -4462,13 +4633,13 @@
       <c r="G98" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O98" s="26"/>
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
       <c r="R98" s="26"/>
       <c r="S98" s="26"/>
-    </row>
-    <row r="99" spans="1:20" s="11" customFormat="1">
+      <c r="T98" s="26"/>
+    </row>
+    <row r="99" spans="1:21" s="11" customFormat="1">
       <c r="A99" s="8" t="s">
         <v>291</v>
       </c>
@@ -4485,13 +4656,13 @@
       <c r="K99" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="O99" s="26"/>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26"/>
-    </row>
-    <row r="100" spans="1:20" s="11" customFormat="1">
+      <c r="T99" s="26"/>
+    </row>
+    <row r="100" spans="1:21" s="11" customFormat="1">
       <c r="A100" s="8" t="s">
         <v>312</v>
       </c>
@@ -4517,24 +4688,24 @@
       <c r="L100" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="O100" s="26" t="s">
+      <c r="P100" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="P100" s="31">
+      <c r="Q100" s="31">
         <v>38930</v>
       </c>
-      <c r="Q100" s="29">
+      <c r="R100" s="29">
         <v>42812</v>
       </c>
-      <c r="R100" s="26" t="s">
+      <c r="S100" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="S100" s="26"/>
-      <c r="T100" s="28" t="s">
+      <c r="T100" s="26"/>
+      <c r="U100" s="28" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="11" customFormat="1">
+    <row r="101" spans="1:21" s="11" customFormat="1">
       <c r="A101" s="8" t="s">
         <v>330</v>
       </c>
@@ -4548,13 +4719,13 @@
       <c r="G101" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O101" s="26"/>
       <c r="P101" s="26"/>
       <c r="Q101" s="26"/>
       <c r="R101" s="26"/>
       <c r="S101" s="26"/>
-    </row>
-    <row r="102" spans="1:20" s="11" customFormat="1">
+      <c r="T101" s="26"/>
+    </row>
+    <row r="102" spans="1:21" s="11" customFormat="1">
       <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
@@ -4572,13 +4743,13 @@
       <c r="G102" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O102" s="26"/>
       <c r="P102" s="26"/>
       <c r="Q102" s="26"/>
       <c r="R102" s="26"/>
       <c r="S102" s="26"/>
-    </row>
-    <row r="103" spans="1:20" s="11" customFormat="1">
+      <c r="T102" s="26"/>
+    </row>
+    <row r="103" spans="1:21" s="11" customFormat="1">
       <c r="A103" s="8" t="s">
         <v>155</v>
       </c>
@@ -4592,13 +4763,13 @@
       <c r="G103" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
       <c r="R103" s="26"/>
       <c r="S103" s="26"/>
-    </row>
-    <row r="104" spans="1:20" s="11" customFormat="1">
+      <c r="T103" s="26"/>
+    </row>
+    <row r="104" spans="1:21" s="11" customFormat="1">
       <c r="A104" s="8" t="s">
         <v>176</v>
       </c>
@@ -4612,13 +4783,13 @@
       <c r="G104" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O104" s="26"/>
       <c r="P104" s="26"/>
       <c r="Q104" s="26"/>
       <c r="R104" s="26"/>
       <c r="S104" s="26"/>
-    </row>
-    <row r="105" spans="1:20" s="11" customFormat="1">
+      <c r="T104" s="26"/>
+    </row>
+    <row r="105" spans="1:21" s="11" customFormat="1">
       <c r="A105" s="8" t="s">
         <v>196</v>
       </c>
@@ -4641,26 +4812,26 @@
       <c r="M105" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="O105" s="26" t="s">
+      <c r="P105" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="P105" s="26" t="s">
+      <c r="Q105" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="Q105" s="29">
+      <c r="R105" s="29">
         <v>42812</v>
       </c>
-      <c r="R105" s="26" t="s">
+      <c r="S105" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="S105" s="26" t="s">
+      <c r="T105" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="T105" s="30" t="s">
+      <c r="U105" s="30" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="11" customFormat="1">
+    <row r="106" spans="1:21" s="11" customFormat="1">
       <c r="A106" s="8" t="s">
         <v>219</v>
       </c>
@@ -4674,13 +4845,13 @@
       <c r="G106" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O106" s="26"/>
       <c r="P106" s="26"/>
       <c r="Q106" s="26"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
-    </row>
-    <row r="107" spans="1:20" s="11" customFormat="1">
+      <c r="T106" s="26"/>
+    </row>
+    <row r="107" spans="1:21" s="11" customFormat="1">
       <c r="A107" s="8" t="s">
         <v>348</v>
       </c>
@@ -4694,13 +4865,13 @@
       <c r="G107" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O107" s="26"/>
       <c r="P107" s="26"/>
       <c r="Q107" s="26"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
-    </row>
-    <row r="108" spans="1:20" s="11" customFormat="1">
+      <c r="T107" s="26"/>
+    </row>
+    <row r="108" spans="1:21" s="11" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>71</v>
       </c>
@@ -4718,13 +4889,13 @@
       <c r="G108" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O108" s="26"/>
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
-    </row>
-    <row r="109" spans="1:20" s="11" customFormat="1">
+      <c r="T108" s="26"/>
+    </row>
+    <row r="109" spans="1:21" s="11" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>73</v>
       </c>
@@ -4742,13 +4913,13 @@
       <c r="G109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O109" s="26"/>
       <c r="P109" s="26"/>
       <c r="Q109" s="26"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
-    </row>
-    <row r="110" spans="1:20" s="11" customFormat="1">
+      <c r="T109" s="26"/>
+    </row>
+    <row r="110" spans="1:21" s="11" customFormat="1">
       <c r="A110" s="4" t="s">
         <v>94</v>
       </c>
@@ -4766,13 +4937,13 @@
       <c r="G110" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O110" s="26"/>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
-    </row>
-    <row r="111" spans="1:20" s="11" customFormat="1">
+      <c r="T110" s="26"/>
+    </row>
+    <row r="111" spans="1:21" s="11" customFormat="1">
       <c r="A111" s="8" t="s">
         <v>221</v>
       </c>
@@ -4786,13 +4957,13 @@
       <c r="G111" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O111" s="26"/>
       <c r="P111" s="26"/>
       <c r="Q111" s="26"/>
       <c r="R111" s="26"/>
       <c r="S111" s="26"/>
-    </row>
-    <row r="112" spans="1:20" s="11" customFormat="1">
+      <c r="T111" s="26"/>
+    </row>
+    <row r="112" spans="1:21" s="11" customFormat="1">
       <c r="A112" s="8" t="s">
         <v>234</v>
       </c>
@@ -4806,13 +4977,19 @@
       <c r="G112" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O112" s="26"/>
+      <c r="K112" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
       <c r="R112" s="26"/>
       <c r="S112" s="26"/>
-    </row>
-    <row r="113" spans="1:19" s="11" customFormat="1">
+      <c r="T112" s="26"/>
+    </row>
+    <row r="113" spans="1:20" s="11" customFormat="1">
       <c r="A113" s="8" t="s">
         <v>237</v>
       </c>
@@ -4820,19 +4997,19 @@
         <v>387</v>
       </c>
       <c r="C113" s="10"/>
-      <c r="D113" s="18">
+      <c r="D113" s="19">
         <v>1800</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O113" s="26"/>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26"/>
-    </row>
-    <row r="114" spans="1:19" s="11" customFormat="1">
+      <c r="T113" s="26"/>
+    </row>
+    <row r="114" spans="1:20" s="11" customFormat="1">
       <c r="A114" s="8" t="s">
         <v>295</v>
       </c>
@@ -4846,13 +5023,22 @@
       <c r="G114" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O114" s="26"/>
+      <c r="K114" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>540</v>
+      </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26"/>
-    </row>
-    <row r="115" spans="1:19" s="11" customFormat="1">
+      <c r="T114" s="26"/>
+    </row>
+    <row r="115" spans="1:20" s="11" customFormat="1">
       <c r="A115" s="8" t="s">
         <v>309</v>
       </c>
@@ -4866,13 +5052,13 @@
       <c r="G115" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O115" s="26"/>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26"/>
-    </row>
-    <row r="116" spans="1:19" s="11" customFormat="1">
+      <c r="T115" s="26"/>
+    </row>
+    <row r="116" spans="1:20" s="11" customFormat="1">
       <c r="A116" s="8" t="s">
         <v>344</v>
       </c>
@@ -4886,13 +5072,13 @@
       <c r="G116" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O116" s="26"/>
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
       <c r="R116" s="26"/>
       <c r="S116" s="26"/>
-    </row>
-    <row r="117" spans="1:19" s="11" customFormat="1">
+      <c r="T116" s="26"/>
+    </row>
+    <row r="117" spans="1:20" s="11" customFormat="1">
       <c r="A117" s="7" t="s">
         <v>95</v>
       </c>
@@ -4908,13 +5094,13 @@
       <c r="G117" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O117" s="26"/>
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
       <c r="R117" s="26"/>
       <c r="S117" s="26"/>
-    </row>
-    <row r="118" spans="1:19" s="11" customFormat="1">
+      <c r="T117" s="26"/>
+    </row>
+    <row r="118" spans="1:20" s="11" customFormat="1">
       <c r="A118" s="8" t="s">
         <v>175</v>
       </c>
@@ -4934,13 +5120,13 @@
       <c r="H118" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O118" s="26"/>
       <c r="P118" s="26"/>
       <c r="Q118" s="26"/>
       <c r="R118" s="26"/>
       <c r="S118" s="26"/>
-    </row>
-    <row r="119" spans="1:19" s="11" customFormat="1">
+      <c r="T118" s="26"/>
+    </row>
+    <row r="119" spans="1:20" s="11" customFormat="1">
       <c r="A119" s="8" t="s">
         <v>210</v>
       </c>
@@ -4957,13 +5143,13 @@
       <c r="G119" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O119" s="26"/>
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
       <c r="R119" s="26"/>
       <c r="S119" s="26"/>
-    </row>
-    <row r="120" spans="1:19" s="11" customFormat="1">
+      <c r="T119" s="26"/>
+    </row>
+    <row r="120" spans="1:20" s="11" customFormat="1">
       <c r="A120" s="8" t="s">
         <v>222</v>
       </c>
@@ -4980,13 +5166,13 @@
       <c r="G120" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O120" s="26"/>
       <c r="P120" s="26"/>
       <c r="Q120" s="26"/>
       <c r="R120" s="26"/>
       <c r="S120" s="26"/>
-    </row>
-    <row r="121" spans="1:19" s="11" customFormat="1">
+      <c r="T120" s="26"/>
+    </row>
+    <row r="121" spans="1:20" s="11" customFormat="1">
       <c r="A121" s="8" t="s">
         <v>244</v>
       </c>
@@ -5006,13 +5192,16 @@
       <c r="H121" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O121" s="26"/>
+      <c r="K121" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P121" s="26"/>
       <c r="Q121" s="26"/>
       <c r="R121" s="26"/>
       <c r="S121" s="26"/>
-    </row>
-    <row r="122" spans="1:19" s="11" customFormat="1">
+      <c r="T121" s="26"/>
+    </row>
+    <row r="122" spans="1:20" s="11" customFormat="1">
       <c r="A122" s="8" t="s">
         <v>247</v>
       </c>
@@ -5029,13 +5218,16 @@
       <c r="G122" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O122" s="26"/>
+      <c r="K122" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
       <c r="R122" s="26"/>
       <c r="S122" s="26"/>
-    </row>
-    <row r="123" spans="1:19" s="11" customFormat="1">
+      <c r="T122" s="26"/>
+    </row>
+    <row r="123" spans="1:20" s="11" customFormat="1">
       <c r="A123" s="8" t="s">
         <v>299</v>
       </c>
@@ -5052,13 +5244,16 @@
       <c r="G123" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O123" s="26"/>
+      <c r="K123" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P123" s="26"/>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
       <c r="S123" s="26"/>
-    </row>
-    <row r="124" spans="1:19" s="11" customFormat="1">
+      <c r="T123" s="26"/>
+    </row>
+    <row r="124" spans="1:20" s="11" customFormat="1">
       <c r="A124" s="8" t="s">
         <v>346</v>
       </c>
@@ -5075,13 +5270,16 @@
       <c r="G124" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O124" s="26"/>
+      <c r="K124" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P124" s="26"/>
       <c r="Q124" s="26"/>
       <c r="R124" s="26"/>
       <c r="S124" s="26"/>
-    </row>
-    <row r="125" spans="1:19" s="11" customFormat="1">
+      <c r="T124" s="26"/>
+    </row>
+    <row r="125" spans="1:20" s="11" customFormat="1">
       <c r="A125" s="8" t="s">
         <v>347</v>
       </c>
@@ -5098,13 +5296,13 @@
       <c r="G125" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="Q125" s="26"/>
       <c r="R125" s="26"/>
       <c r="S125" s="26"/>
-    </row>
-    <row r="126" spans="1:19" s="11" customFormat="1">
+      <c r="T125" s="26"/>
+    </row>
+    <row r="126" spans="1:20" s="11" customFormat="1">
       <c r="A126" s="3" t="s">
         <v>48</v>
       </c>
@@ -5122,13 +5320,13 @@
       <c r="G126" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O126" s="26"/>
       <c r="P126" s="26"/>
       <c r="Q126" s="26"/>
       <c r="R126" s="26"/>
       <c r="S126" s="26"/>
-    </row>
-    <row r="127" spans="1:19" s="11" customFormat="1">
+      <c r="T126" s="26"/>
+    </row>
+    <row r="127" spans="1:20" s="11" customFormat="1">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -5146,13 +5344,13 @@
       <c r="G127" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O127" s="26"/>
       <c r="P127" s="26"/>
       <c r="Q127" s="26"/>
       <c r="R127" s="26"/>
       <c r="S127" s="26"/>
-    </row>
-    <row r="128" spans="1:19" s="11" customFormat="1">
+      <c r="T127" s="26"/>
+    </row>
+    <row r="128" spans="1:20" s="11" customFormat="1">
       <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
@@ -5170,13 +5368,13 @@
       <c r="G128" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O128" s="26"/>
       <c r="P128" s="26"/>
       <c r="Q128" s="26"/>
       <c r="R128" s="26"/>
       <c r="S128" s="26"/>
-    </row>
-    <row r="129" spans="1:19" s="11" customFormat="1">
+      <c r="T128" s="26"/>
+    </row>
+    <row r="129" spans="1:20" s="11" customFormat="1">
       <c r="A129" s="8" t="s">
         <v>158</v>
       </c>
@@ -5194,13 +5392,13 @@
       <c r="G129" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O129" s="26"/>
       <c r="P129" s="26"/>
       <c r="Q129" s="26"/>
       <c r="R129" s="26"/>
       <c r="S129" s="26"/>
-    </row>
-    <row r="130" spans="1:19" s="11" customFormat="1">
+      <c r="T129" s="26"/>
+    </row>
+    <row r="130" spans="1:20" s="11" customFormat="1">
       <c r="A130" s="8" t="s">
         <v>163</v>
       </c>
@@ -5218,13 +5416,13 @@
       <c r="G130" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O130" s="26"/>
       <c r="P130" s="26"/>
       <c r="Q130" s="26"/>
       <c r="R130" s="26"/>
       <c r="S130" s="26"/>
-    </row>
-    <row r="131" spans="1:19" s="11" customFormat="1">
+      <c r="T130" s="26"/>
+    </row>
+    <row r="131" spans="1:20" s="11" customFormat="1">
       <c r="A131" s="8" t="s">
         <v>230</v>
       </c>
@@ -5242,13 +5440,13 @@
       <c r="G131" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O131" s="26"/>
       <c r="P131" s="26"/>
       <c r="Q131" s="26"/>
       <c r="R131" s="26"/>
       <c r="S131" s="26"/>
-    </row>
-    <row r="132" spans="1:19" s="11" customFormat="1">
+      <c r="T131" s="26"/>
+    </row>
+    <row r="132" spans="1:20" s="11" customFormat="1">
       <c r="A132" s="8" t="s">
         <v>256</v>
       </c>
@@ -5266,13 +5464,13 @@
       <c r="G132" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O132" s="26"/>
       <c r="P132" s="26"/>
       <c r="Q132" s="26"/>
       <c r="R132" s="26"/>
       <c r="S132" s="26"/>
-    </row>
-    <row r="133" spans="1:19" s="11" customFormat="1">
+      <c r="T132" s="26"/>
+    </row>
+    <row r="133" spans="1:20" s="11" customFormat="1">
       <c r="A133" s="8" t="s">
         <v>262</v>
       </c>
@@ -5290,13 +5488,13 @@
       <c r="G133" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O133" s="26"/>
       <c r="P133" s="26"/>
       <c r="Q133" s="26"/>
       <c r="R133" s="26"/>
       <c r="S133" s="26"/>
-    </row>
-    <row r="134" spans="1:19" s="11" customFormat="1">
+      <c r="T133" s="26"/>
+    </row>
+    <row r="134" spans="1:20" s="11" customFormat="1">
       <c r="A134" s="8" t="s">
         <v>314</v>
       </c>
@@ -5314,13 +5512,13 @@
       <c r="G134" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O134" s="26"/>
       <c r="P134" s="26"/>
       <c r="Q134" s="26"/>
       <c r="R134" s="26"/>
       <c r="S134" s="26"/>
-    </row>
-    <row r="135" spans="1:19" s="11" customFormat="1">
+      <c r="T134" s="26"/>
+    </row>
+    <row r="135" spans="1:20" s="11" customFormat="1">
       <c r="A135" s="3" t="s">
         <v>34</v>
       </c>
@@ -5338,13 +5536,13 @@
       <c r="G135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O135" s="26"/>
       <c r="P135" s="26"/>
       <c r="Q135" s="26"/>
       <c r="R135" s="26"/>
       <c r="S135" s="26"/>
-    </row>
-    <row r="136" spans="1:19" s="11" customFormat="1">
+      <c r="T135" s="26"/>
+    </row>
+    <row r="136" spans="1:20" s="11" customFormat="1">
       <c r="A136" s="3" t="s">
         <v>128</v>
       </c>
@@ -5362,13 +5560,13 @@
       <c r="G136" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O136" s="26"/>
       <c r="P136" s="26"/>
       <c r="Q136" s="26"/>
       <c r="R136" s="26"/>
       <c r="S136" s="26"/>
-    </row>
-    <row r="137" spans="1:19" s="11" customFormat="1">
+      <c r="T136" s="26"/>
+    </row>
+    <row r="137" spans="1:20" s="11" customFormat="1">
       <c r="A137" s="8" t="s">
         <v>271</v>
       </c>
@@ -5386,13 +5584,13 @@
       <c r="G137" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O137" s="26"/>
       <c r="P137" s="26"/>
       <c r="Q137" s="26"/>
       <c r="R137" s="26"/>
       <c r="S137" s="26"/>
-    </row>
-    <row r="138" spans="1:19" s="11" customFormat="1">
+      <c r="T137" s="26"/>
+    </row>
+    <row r="138" spans="1:20" s="11" customFormat="1">
       <c r="A138" s="8" t="s">
         <v>329</v>
       </c>
@@ -5410,13 +5608,13 @@
       <c r="G138" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O138" s="26"/>
       <c r="P138" s="26"/>
       <c r="Q138" s="26"/>
       <c r="R138" s="26"/>
       <c r="S138" s="26"/>
-    </row>
-    <row r="139" spans="1:19" s="11" customFormat="1">
+      <c r="T138" s="26"/>
+    </row>
+    <row r="139" spans="1:20" s="11" customFormat="1">
       <c r="A139" s="8" t="s">
         <v>331</v>
       </c>
@@ -5434,13 +5632,13 @@
       <c r="G139" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O139" s="26"/>
       <c r="P139" s="26"/>
       <c r="Q139" s="26"/>
       <c r="R139" s="26"/>
       <c r="S139" s="26"/>
-    </row>
-    <row r="140" spans="1:19" s="11" customFormat="1">
+      <c r="T139" s="26"/>
+    </row>
+    <row r="140" spans="1:20" s="11" customFormat="1">
       <c r="A140" s="4" t="s">
         <v>106</v>
       </c>
@@ -5456,13 +5654,13 @@
       <c r="G140" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O140" s="26"/>
       <c r="P140" s="26"/>
       <c r="Q140" s="26"/>
       <c r="R140" s="26"/>
       <c r="S140" s="26"/>
-    </row>
-    <row r="141" spans="1:19" s="11" customFormat="1">
+      <c r="T140" s="26"/>
+    </row>
+    <row r="141" spans="1:20" s="11" customFormat="1">
       <c r="A141" s="8" t="s">
         <v>173</v>
       </c>
@@ -5479,13 +5677,13 @@
       <c r="G141" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O141" s="26"/>
       <c r="P141" s="26"/>
       <c r="Q141" s="26"/>
       <c r="R141" s="26"/>
       <c r="S141" s="26"/>
-    </row>
-    <row r="142" spans="1:19" s="11" customFormat="1">
+      <c r="T141" s="26"/>
+    </row>
+    <row r="142" spans="1:20" s="11" customFormat="1">
       <c r="A142" s="8" t="s">
         <v>179</v>
       </c>
@@ -5502,13 +5700,13 @@
       <c r="G142" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O142" s="26"/>
       <c r="P142" s="26"/>
       <c r="Q142" s="26"/>
       <c r="R142" s="26"/>
       <c r="S142" s="26"/>
-    </row>
-    <row r="143" spans="1:19" s="11" customFormat="1">
+      <c r="T142" s="26"/>
+    </row>
+    <row r="143" spans="1:20" s="11" customFormat="1">
       <c r="A143" s="8" t="s">
         <v>189</v>
       </c>
@@ -5525,13 +5723,16 @@
       <c r="G143" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O143" s="26"/>
+      <c r="K143" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P143" s="26"/>
       <c r="Q143" s="26"/>
       <c r="R143" s="26"/>
       <c r="S143" s="26"/>
-    </row>
-    <row r="144" spans="1:19" s="11" customFormat="1">
+      <c r="T143" s="26"/>
+    </row>
+    <row r="144" spans="1:20" s="11" customFormat="1">
       <c r="A144" s="8" t="s">
         <v>338</v>
       </c>
@@ -5548,13 +5749,13 @@
       <c r="G144" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O144" s="26"/>
       <c r="P144" s="26"/>
       <c r="Q144" s="26"/>
       <c r="R144" s="26"/>
       <c r="S144" s="26"/>
-    </row>
-    <row r="145" spans="1:19" s="11" customFormat="1">
+      <c r="T144" s="26"/>
+    </row>
+    <row r="145" spans="1:21" s="11" customFormat="1">
       <c r="A145" s="8" t="s">
         <v>345</v>
       </c>
@@ -5571,13 +5772,13 @@
       <c r="G145" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O145" s="26"/>
       <c r="P145" s="26"/>
       <c r="Q145" s="26"/>
       <c r="R145" s="26"/>
       <c r="S145" s="26"/>
-    </row>
-    <row r="146" spans="1:19" s="11" customFormat="1">
+      <c r="T145" s="26"/>
+    </row>
+    <row r="146" spans="1:21" s="11" customFormat="1">
       <c r="A146" s="9" t="s">
         <v>171</v>
       </c>
@@ -5594,13 +5795,13 @@
       <c r="G146" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O146" s="26"/>
       <c r="P146" s="26"/>
       <c r="Q146" s="26"/>
       <c r="R146" s="26"/>
       <c r="S146" s="26"/>
-    </row>
-    <row r="147" spans="1:19" s="11" customFormat="1">
+      <c r="T146" s="26"/>
+    </row>
+    <row r="147" spans="1:21" s="11" customFormat="1">
       <c r="A147" s="8" t="s">
         <v>181</v>
       </c>
@@ -5617,13 +5818,13 @@
       <c r="G147" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O147" s="26"/>
       <c r="P147" s="26"/>
       <c r="Q147" s="26"/>
       <c r="R147" s="26"/>
       <c r="S147" s="26"/>
-    </row>
-    <row r="148" spans="1:19" s="11" customFormat="1">
+      <c r="T147" s="26"/>
+    </row>
+    <row r="148" spans="1:21" s="11" customFormat="1">
       <c r="A148" s="8" t="s">
         <v>195</v>
       </c>
@@ -5640,13 +5841,13 @@
       <c r="G148" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O148" s="26"/>
       <c r="P148" s="26"/>
       <c r="Q148" s="26"/>
       <c r="R148" s="26"/>
       <c r="S148" s="26"/>
-    </row>
-    <row r="149" spans="1:19" s="11" customFormat="1">
+      <c r="T148" s="26"/>
+    </row>
+    <row r="149" spans="1:21" s="11" customFormat="1">
       <c r="A149" s="8" t="s">
         <v>218</v>
       </c>
@@ -5663,13 +5864,13 @@
       <c r="G149" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O149" s="26"/>
       <c r="P149" s="26"/>
       <c r="Q149" s="26"/>
       <c r="R149" s="26"/>
       <c r="S149" s="26"/>
-    </row>
-    <row r="150" spans="1:19" s="11" customFormat="1">
+      <c r="T149" s="26"/>
+    </row>
+    <row r="150" spans="1:21" s="11" customFormat="1">
       <c r="A150" s="8" t="s">
         <v>220</v>
       </c>
@@ -5686,13 +5887,13 @@
       <c r="G150" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O150" s="26"/>
       <c r="P150" s="26"/>
       <c r="Q150" s="26"/>
       <c r="R150" s="26"/>
       <c r="S150" s="26"/>
-    </row>
-    <row r="151" spans="1:19" s="11" customFormat="1">
+      <c r="T150" s="26"/>
+    </row>
+    <row r="151" spans="1:21" s="11" customFormat="1">
       <c r="A151" s="8" t="s">
         <v>240</v>
       </c>
@@ -5709,13 +5910,13 @@
       <c r="G151" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O151" s="26"/>
       <c r="P151" s="26"/>
       <c r="Q151" s="26"/>
       <c r="R151" s="26"/>
       <c r="S151" s="26"/>
-    </row>
-    <row r="152" spans="1:19" s="11" customFormat="1">
+      <c r="T151" s="26"/>
+    </row>
+    <row r="152" spans="1:21" s="11" customFormat="1">
       <c r="A152" s="9" t="s">
         <v>341</v>
       </c>
@@ -5732,42 +5933,59 @@
       <c r="G152" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O152" s="26"/>
       <c r="P152" s="26"/>
       <c r="Q152" s="26"/>
       <c r="R152" s="26"/>
       <c r="S152" s="26"/>
-    </row>
-    <row r="153" spans="1:19" s="11" customFormat="1">
-      <c r="A153" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2">
-        <v>1806</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O153" s="26"/>
-      <c r="P153" s="26"/>
+      <c r="T152" s="26"/>
+    </row>
+    <row r="153" spans="1:21" s="11" customFormat="1">
+      <c r="A153" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="16">
+        <v>1805</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="K153" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P153" s="26" t="s">
+        <v>526</v>
+      </c>
       <c r="Q153" s="26"/>
       <c r="R153" s="26"/>
-      <c r="S153" s="26"/>
-    </row>
-    <row r="154" spans="1:19" s="11" customFormat="1">
+      <c r="S153" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="T153" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="U153" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" s="11" customFormat="1">
       <c r="A154" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2">
@@ -5780,39 +5998,39 @@
       <c r="G154" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O154" s="26"/>
       <c r="P154" s="26"/>
       <c r="Q154" s="26"/>
       <c r="R154" s="26"/>
       <c r="S154" s="26"/>
-    </row>
-    <row r="155" spans="1:19" s="11" customFormat="1">
-      <c r="A155" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" t="s">
-        <v>360</v>
-      </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="16">
+      <c r="T154" s="26"/>
+    </row>
+    <row r="155" spans="1:21" s="11" customFormat="1">
+      <c r="A155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2">
         <v>1806</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O155" s="26"/>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P155" s="26"/>
       <c r="Q155" s="26"/>
       <c r="R155" s="26"/>
       <c r="S155" s="26"/>
-    </row>
-    <row r="156" spans="1:19" s="11" customFormat="1">
-      <c r="A156" s="9" t="s">
-        <v>169</v>
+      <c r="T155" s="26"/>
+    </row>
+    <row r="156" spans="1:21" s="11" customFormat="1">
+      <c r="A156" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B156" t="s">
         <v>360</v>
@@ -5828,18 +6046,18 @@
       <c r="G156" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O156" s="26"/>
       <c r="P156" s="26"/>
       <c r="Q156" s="26"/>
       <c r="R156" s="26"/>
       <c r="S156" s="26"/>
-    </row>
-    <row r="157" spans="1:19" s="11" customFormat="1">
-      <c r="A157" s="8" t="s">
-        <v>178</v>
+      <c r="T156" s="26"/>
+    </row>
+    <row r="157" spans="1:21" s="11" customFormat="1">
+      <c r="A157" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="16">
@@ -5852,18 +6070,18 @@
       <c r="G157" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O157" s="26"/>
       <c r="P157" s="26"/>
       <c r="Q157" s="26"/>
       <c r="R157" s="26"/>
       <c r="S157" s="26"/>
-    </row>
-    <row r="158" spans="1:19" s="11" customFormat="1">
+      <c r="T157" s="26"/>
+    </row>
+    <row r="158" spans="1:21" s="11" customFormat="1">
       <c r="A158" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="16">
@@ -5874,23 +6092,20 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O158" s="26"/>
+        <v>422</v>
+      </c>
       <c r="P158" s="26"/>
       <c r="Q158" s="26"/>
       <c r="R158" s="26"/>
       <c r="S158" s="26"/>
-    </row>
-    <row r="159" spans="1:19" s="11" customFormat="1">
+      <c r="T158" s="26"/>
+    </row>
+    <row r="159" spans="1:21" s="11" customFormat="1">
       <c r="A159" s="8" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B159" t="s">
-        <v>373</v>
+        <v>50</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="16">
@@ -5901,20 +6116,26 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O159" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P159" s="26"/>
       <c r="Q159" s="26"/>
       <c r="R159" s="26"/>
       <c r="S159" s="26"/>
-    </row>
-    <row r="160" spans="1:19" s="11" customFormat="1">
+      <c r="T159" s="26"/>
+    </row>
+    <row r="160" spans="1:21" s="11" customFormat="1">
       <c r="A160" s="8" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>373</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="16">
@@ -5927,18 +6148,18 @@
       <c r="G160" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O160" s="26"/>
       <c r="P160" s="26"/>
       <c r="Q160" s="26"/>
       <c r="R160" s="26"/>
       <c r="S160" s="26"/>
-    </row>
-    <row r="161" spans="1:19" s="11" customFormat="1">
-      <c r="A161" s="9" t="s">
-        <v>236</v>
+      <c r="T160" s="26"/>
+    </row>
+    <row r="161" spans="1:20" s="11" customFormat="1">
+      <c r="A161" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="16">
@@ -5951,18 +6172,24 @@
       <c r="G161" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O161" s="26"/>
+      <c r="K161" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>532</v>
+      </c>
       <c r="P161" s="26"/>
       <c r="Q161" s="26"/>
       <c r="R161" s="26"/>
       <c r="S161" s="26"/>
-    </row>
-    <row r="162" spans="1:19" s="11" customFormat="1">
-      <c r="A162" s="8" t="s">
-        <v>241</v>
+      <c r="T161" s="26"/>
+    </row>
+    <row r="162" spans="1:20" s="11" customFormat="1">
+      <c r="A162" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="16">
@@ -5975,18 +6202,18 @@
       <c r="G162" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O162" s="26"/>
       <c r="P162" s="26"/>
       <c r="Q162" s="26"/>
       <c r="R162" s="26"/>
       <c r="S162" s="26"/>
-    </row>
-    <row r="163" spans="1:19" s="11" customFormat="1">
+      <c r="T162" s="26"/>
+    </row>
+    <row r="163" spans="1:20" s="11" customFormat="1">
       <c r="A163" s="8" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="16">
@@ -5999,65 +6226,72 @@
       <c r="G163" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O163" s="26"/>
+      <c r="N163" s="11" t="s">
+        <v>533</v>
+      </c>
       <c r="P163" s="26"/>
       <c r="Q163" s="26"/>
       <c r="R163" s="26"/>
       <c r="S163" s="26"/>
-    </row>
-    <row r="164" spans="1:19" s="11" customFormat="1">
-      <c r="A164" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2">
-        <v>1807</v>
+      <c r="T163" s="26"/>
+    </row>
+    <row r="164" spans="1:20" s="11" customFormat="1">
+      <c r="A164" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" t="s">
+        <v>410</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="16">
+        <v>1806</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F164" s="2"/>
-      <c r="G164" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O164" s="26"/>
+      <c r="G164" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P164" s="26"/>
       <c r="Q164" s="26"/>
       <c r="R164" s="26"/>
       <c r="S164" s="26"/>
-    </row>
-    <row r="165" spans="1:19" s="11" customFormat="1">
-      <c r="A165" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B165" t="s">
-        <v>362</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="16">
+      <c r="T164" s="26"/>
+    </row>
+    <row r="165" spans="1:20" s="11" customFormat="1">
+      <c r="A165" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2">
         <v>1807</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O165" s="26"/>
+      <c r="E165" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P165" s="26"/>
       <c r="Q165" s="26"/>
       <c r="R165" s="26"/>
       <c r="S165" s="26"/>
-    </row>
-    <row r="166" spans="1:19" s="11" customFormat="1">
+      <c r="T165" s="26"/>
+    </row>
+    <row r="166" spans="1:20" s="11" customFormat="1">
       <c r="A166" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="16">
@@ -6069,21 +6303,21 @@
       <c r="G166" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O166" s="26"/>
       <c r="P166" s="26"/>
       <c r="Q166" s="26"/>
       <c r="R166" s="26"/>
       <c r="S166" s="26"/>
-    </row>
-    <row r="167" spans="1:19" s="11" customFormat="1">
+      <c r="T166" s="26"/>
+    </row>
+    <row r="167" spans="1:20" s="11" customFormat="1">
       <c r="A167" s="8" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="C167" s="10"/>
-      <c r="D167" s="18">
+      <c r="D167" s="16">
         <v>1807</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -6092,21 +6326,24 @@
       <c r="G167" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O167" s="26"/>
+      <c r="K167" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P167" s="26"/>
       <c r="Q167" s="26"/>
       <c r="R167" s="26"/>
       <c r="S167" s="26"/>
-    </row>
-    <row r="168" spans="1:19" s="11" customFormat="1">
+      <c r="T167" s="26"/>
+    </row>
+    <row r="168" spans="1:20" s="11" customFormat="1">
       <c r="A168" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="C168" s="10"/>
-      <c r="D168" s="16">
+      <c r="D168" s="18">
         <v>1807</v>
       </c>
       <c r="E168" s="11" t="s">
@@ -6115,21 +6352,24 @@
       <c r="G168" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O168" s="26"/>
+      <c r="K168" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P168" s="26"/>
       <c r="Q168" s="26"/>
       <c r="R168" s="26"/>
       <c r="S168" s="26"/>
-    </row>
-    <row r="169" spans="1:19" s="11" customFormat="1">
+      <c r="T168" s="26"/>
+    </row>
+    <row r="169" spans="1:20" s="11" customFormat="1">
       <c r="A169" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B169" t="s">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="C169" s="10"/>
-      <c r="D169" s="19">
+      <c r="D169" s="16">
         <v>1807</v>
       </c>
       <c r="E169" s="11" t="s">
@@ -6138,21 +6378,27 @@
       <c r="G169" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O169" s="26"/>
+      <c r="K169" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N169" s="11" t="s">
+        <v>534</v>
+      </c>
       <c r="P169" s="26"/>
       <c r="Q169" s="26"/>
       <c r="R169" s="26"/>
       <c r="S169" s="26"/>
-    </row>
-    <row r="170" spans="1:19" s="11" customFormat="1">
+      <c r="T169" s="26"/>
+    </row>
+    <row r="170" spans="1:20" s="11" customFormat="1">
       <c r="A170" s="8" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C170" s="10"/>
-      <c r="D170" s="16">
+      <c r="D170" s="19">
         <v>1807</v>
       </c>
       <c r="E170" s="11" t="s">
@@ -6161,18 +6407,18 @@
       <c r="G170" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O170" s="26"/>
       <c r="P170" s="26"/>
       <c r="Q170" s="26"/>
       <c r="R170" s="26"/>
       <c r="S170" s="26"/>
-    </row>
-    <row r="171" spans="1:19" s="11" customFormat="1">
+      <c r="T170" s="26"/>
+    </row>
+    <row r="171" spans="1:20" s="11" customFormat="1">
       <c r="A171" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="16">
@@ -6184,38 +6430,41 @@
       <c r="G171" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O171" s="26"/>
       <c r="P171" s="26"/>
       <c r="Q171" s="26"/>
       <c r="R171" s="26"/>
       <c r="S171" s="26"/>
-    </row>
-    <row r="172" spans="1:19" s="11" customFormat="1">
+      <c r="T171" s="26"/>
+    </row>
+    <row r="172" spans="1:20" s="11" customFormat="1">
       <c r="A172" s="8" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="16">
-        <v>1808</v>
+        <v>1807</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O172" s="26"/>
       <c r="P172" s="26"/>
       <c r="Q172" s="26"/>
       <c r="R172" s="26"/>
       <c r="S172" s="26"/>
-    </row>
-    <row r="173" spans="1:19" s="11" customFormat="1">
+      <c r="T172" s="26"/>
+    </row>
+    <row r="173" spans="1:20" s="11" customFormat="1">
       <c r="A173" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="16">
@@ -6224,18 +6473,18 @@
       <c r="G173" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O173" s="26"/>
       <c r="P173" s="26"/>
       <c r="Q173" s="26"/>
       <c r="R173" s="26"/>
       <c r="S173" s="26"/>
-    </row>
-    <row r="174" spans="1:19" s="11" customFormat="1">
+      <c r="T173" s="26"/>
+    </row>
+    <row r="174" spans="1:20" s="11" customFormat="1">
       <c r="A174" s="8" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>360</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="16">
@@ -6244,18 +6493,18 @@
       <c r="G174" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O174" s="26"/>
       <c r="P174" s="26"/>
       <c r="Q174" s="26"/>
       <c r="R174" s="26"/>
       <c r="S174" s="26"/>
-    </row>
-    <row r="175" spans="1:19" s="11" customFormat="1">
+      <c r="T174" s="26"/>
+    </row>
+    <row r="175" spans="1:20" s="11" customFormat="1">
       <c r="A175" s="8" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="B175" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="16">
@@ -6264,18 +6513,18 @@
       <c r="G175" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O175" s="26"/>
       <c r="P175" s="26"/>
       <c r="Q175" s="26"/>
       <c r="R175" s="26"/>
       <c r="S175" s="26"/>
-    </row>
-    <row r="176" spans="1:19" s="11" customFormat="1">
+      <c r="T175" s="26"/>
+    </row>
+    <row r="176" spans="1:20" s="11" customFormat="1">
       <c r="A176" s="8" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="16">
@@ -6284,18 +6533,18 @@
       <c r="G176" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O176" s="26"/>
       <c r="P176" s="26"/>
       <c r="Q176" s="26"/>
       <c r="R176" s="26"/>
       <c r="S176" s="26"/>
-    </row>
-    <row r="177" spans="1:19" s="11" customFormat="1">
+      <c r="T176" s="26"/>
+    </row>
+    <row r="177" spans="1:21" s="11" customFormat="1">
       <c r="A177" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B177" t="s">
-        <v>392</v>
+        <v>54</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="16">
@@ -6304,38 +6553,38 @@
       <c r="G177" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O177" s="26"/>
+      <c r="K177" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P177" s="26"/>
       <c r="Q177" s="26"/>
       <c r="R177" s="26"/>
       <c r="S177" s="26"/>
-    </row>
-    <row r="178" spans="1:19" s="11" customFormat="1">
+      <c r="T177" s="26"/>
+    </row>
+    <row r="178" spans="1:21" s="11" customFormat="1">
       <c r="A178" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>350</v>
+        <v>257</v>
+      </c>
+      <c r="B178" t="s">
+        <v>392</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="16">
         <v>1808</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H178" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O178" s="26"/>
+        <v>422</v>
+      </c>
       <c r="P178" s="26"/>
       <c r="Q178" s="26"/>
       <c r="R178" s="26"/>
       <c r="S178" s="26"/>
-    </row>
-    <row r="179" spans="1:19" s="11" customFormat="1">
+      <c r="T178" s="26"/>
+    </row>
+    <row r="179" spans="1:21" s="11" customFormat="1">
       <c r="A179" s="8" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>350</v>
@@ -6345,20 +6594,23 @@
         <v>1808</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O179" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P179" s="26"/>
       <c r="Q179" s="26"/>
       <c r="R179" s="26"/>
       <c r="S179" s="26"/>
-    </row>
-    <row r="180" spans="1:19" s="11" customFormat="1">
+      <c r="T179" s="26"/>
+    </row>
+    <row r="180" spans="1:21" s="11" customFormat="1">
       <c r="A180" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B180" t="s">
-        <v>411</v>
+        <v>296</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="16">
@@ -6367,104 +6619,108 @@
       <c r="G180" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O180" s="26"/>
       <c r="P180" s="26"/>
       <c r="Q180" s="26"/>
       <c r="R180" s="26"/>
       <c r="S180" s="26"/>
-    </row>
-    <row r="181" spans="1:19" s="11" customFormat="1">
+      <c r="T180" s="26"/>
+    </row>
+    <row r="181" spans="1:21" s="11" customFormat="1">
       <c r="A181" s="8" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>411</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="16">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O181" s="26"/>
       <c r="P181" s="26"/>
       <c r="Q181" s="26"/>
       <c r="R181" s="26"/>
       <c r="S181" s="26"/>
-    </row>
-    <row r="182" spans="1:19" s="11" customFormat="1">
+      <c r="T181" s="26"/>
+    </row>
+    <row r="182" spans="1:21" s="11" customFormat="1">
       <c r="A182" s="8" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>442</v>
+        <v>15</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="16">
         <v>1809</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O182" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="K182" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P182" s="26"/>
       <c r="Q182" s="26"/>
       <c r="R182" s="26"/>
       <c r="S182" s="26"/>
-    </row>
-    <row r="183" spans="1:19" s="11" customFormat="1">
+      <c r="T182" s="26"/>
+    </row>
+    <row r="183" spans="1:21" s="11" customFormat="1">
       <c r="A183" s="8" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="16">
         <v>1809</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O183" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P183" s="26"/>
       <c r="Q183" s="26"/>
       <c r="R183" s="26"/>
       <c r="S183" s="26"/>
-    </row>
-    <row r="184" spans="1:19" s="11" customFormat="1">
-      <c r="A184" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2">
-        <v>1810</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O184" s="26"/>
+      <c r="T183" s="26"/>
+    </row>
+    <row r="184" spans="1:21" s="11" customFormat="1">
+      <c r="A184" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B184" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="16">
+        <v>1809</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P184" s="26"/>
       <c r="Q184" s="26"/>
       <c r="R184" s="26"/>
       <c r="S184" s="26"/>
-    </row>
-    <row r="185" spans="1:19" s="11" customFormat="1">
+      <c r="T184" s="26"/>
+    </row>
+    <row r="185" spans="1:21" s="11" customFormat="1">
       <c r="A185" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B185" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2">
         <v>1810</v>
@@ -6476,15 +6732,24 @@
       <c r="G185" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O185" s="26"/>
+      <c r="J185" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="P185" s="26"/>
       <c r="Q185" s="26"/>
       <c r="R185" s="26"/>
       <c r="S185" s="26"/>
-    </row>
-    <row r="186" spans="1:19" s="11" customFormat="1">
-      <c r="A186" s="3" t="s">
-        <v>109</v>
+      <c r="T185" s="26"/>
+    </row>
+    <row r="186" spans="1:21" s="11" customFormat="1">
+      <c r="A186" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6498,66 +6763,64 @@
       <c r="G186" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O186" s="26"/>
       <c r="P186" s="26"/>
       <c r="Q186" s="26"/>
       <c r="R186" s="26"/>
       <c r="S186" s="26"/>
-    </row>
-    <row r="187" spans="1:19" s="11" customFormat="1">
+      <c r="T186" s="26"/>
+    </row>
+    <row r="187" spans="1:21" s="11" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2">
         <v>1810</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O187" s="26"/>
       <c r="P187" s="26"/>
       <c r="Q187" s="26"/>
       <c r="R187" s="26"/>
       <c r="S187" s="26"/>
-    </row>
-    <row r="188" spans="1:19" s="11" customFormat="1">
-      <c r="A188" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
-        <v>363</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="16">
+      <c r="T187" s="26"/>
+    </row>
+    <row r="188" spans="1:21" s="11" customFormat="1">
+      <c r="A188" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2">
         <v>1810</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F188" s="4"/>
-      <c r="G188" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O188" s="26"/>
+      <c r="E188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P188" s="26"/>
       <c r="Q188" s="26"/>
       <c r="R188" s="26"/>
       <c r="S188" s="26"/>
-    </row>
-    <row r="189" spans="1:19" s="11" customFormat="1">
+      <c r="T188" s="26"/>
+    </row>
+    <row r="189" spans="1:21" s="11" customFormat="1">
       <c r="A189" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>47</v>
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>363</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="16">
@@ -6570,18 +6833,18 @@
       <c r="G189" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O189" s="26"/>
       <c r="P189" s="26"/>
       <c r="Q189" s="26"/>
       <c r="R189" s="26"/>
       <c r="S189" s="26"/>
-    </row>
-    <row r="190" spans="1:19" s="11" customFormat="1">
+      <c r="T189" s="26"/>
+    </row>
+    <row r="190" spans="1:21" s="11" customFormat="1">
       <c r="A190" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B190" t="s">
-        <v>402</v>
+        <v>191</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="16">
@@ -6594,18 +6857,21 @@
       <c r="G190" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O190" s="26"/>
+      <c r="K190" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P190" s="26"/>
       <c r="Q190" s="26"/>
       <c r="R190" s="26"/>
       <c r="S190" s="26"/>
-    </row>
-    <row r="191" spans="1:19" s="11" customFormat="1">
+      <c r="T190" s="26"/>
+    </row>
+    <row r="191" spans="1:21" s="11" customFormat="1">
       <c r="A191" s="8" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B191" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="16">
@@ -6618,18 +6884,18 @@
       <c r="G191" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O191" s="26"/>
       <c r="P191" s="26"/>
       <c r="Q191" s="26"/>
       <c r="R191" s="26"/>
       <c r="S191" s="26"/>
-    </row>
-    <row r="192" spans="1:19" s="11" customFormat="1">
+      <c r="T191" s="26"/>
+    </row>
+    <row r="192" spans="1:21" s="11" customFormat="1">
       <c r="A192" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>405</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="16">
@@ -6642,18 +6908,38 @@
       <c r="G192" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O192" s="26"/>
-      <c r="P192" s="26"/>
-      <c r="Q192" s="26"/>
-      <c r="R192" s="26"/>
-      <c r="S192" s="26"/>
-    </row>
-    <row r="193" spans="1:19" s="11" customFormat="1">
+      <c r="J192" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="P192" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q192" s="31">
+        <v>38930</v>
+      </c>
+      <c r="R192" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S192" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="T192" s="26"/>
+      <c r="U192" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" s="11" customFormat="1">
       <c r="A193" s="8" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>32</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="16">
@@ -6666,18 +6952,21 @@
       <c r="G193" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O193" s="26"/>
+      <c r="K193" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P193" s="26"/>
       <c r="Q193" s="26"/>
       <c r="R193" s="26"/>
       <c r="S193" s="26"/>
-    </row>
-    <row r="194" spans="1:19" s="11" customFormat="1">
+      <c r="T193" s="26"/>
+    </row>
+    <row r="194" spans="1:21" s="11" customFormat="1">
       <c r="A194" s="8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B194" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="16">
@@ -6690,65 +6979,78 @@
       <c r="G194" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O194" s="26"/>
+      <c r="K194" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N194" s="11" t="s">
+        <v>541</v>
+      </c>
       <c r="P194" s="26"/>
       <c r="Q194" s="26"/>
       <c r="R194" s="26"/>
       <c r="S194" s="26"/>
-    </row>
-    <row r="195" spans="1:19" s="11" customFormat="1">
-      <c r="A195" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2">
-        <v>1811</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O195" s="26"/>
+      <c r="T194" s="26"/>
+    </row>
+    <row r="195" spans="1:21" s="11" customFormat="1">
+      <c r="A195" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B195" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="16">
+        <v>1810</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195" s="4"/>
+      <c r="G195" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="P195" s="26"/>
       <c r="Q195" s="26"/>
       <c r="R195" s="26"/>
       <c r="S195" s="26"/>
-    </row>
-    <row r="196" spans="1:19" s="11" customFormat="1">
-      <c r="A196" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B196" t="s">
-        <v>360</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="16">
+      <c r="T195" s="26"/>
+    </row>
+    <row r="196" spans="1:21" s="11" customFormat="1">
+      <c r="A196" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2">
         <v>1811</v>
       </c>
-      <c r="E196" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G196" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O196" s="26"/>
+      <c r="E196" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P196" s="26"/>
       <c r="Q196" s="26"/>
       <c r="R196" s="26"/>
       <c r="S196" s="26"/>
-    </row>
-    <row r="197" spans="1:19" s="11" customFormat="1">
+      <c r="T196" s="26"/>
+    </row>
+    <row r="197" spans="1:21" s="11" customFormat="1">
       <c r="A197" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="16">
@@ -6760,18 +7062,21 @@
       <c r="G197" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O197" s="26"/>
+      <c r="K197" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P197" s="26"/>
       <c r="Q197" s="26"/>
       <c r="R197" s="26"/>
       <c r="S197" s="26"/>
-    </row>
-    <row r="198" spans="1:19" s="11" customFormat="1">
+      <c r="T197" s="26"/>
+    </row>
+    <row r="198" spans="1:21" s="11" customFormat="1">
       <c r="A198" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B198" t="s">
-        <v>373</v>
+        <v>50</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="16">
@@ -6783,18 +7088,21 @@
       <c r="G198" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O198" s="26"/>
+      <c r="K198" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P198" s="26"/>
       <c r="Q198" s="26"/>
       <c r="R198" s="26"/>
       <c r="S198" s="26"/>
-    </row>
-    <row r="199" spans="1:19" s="11" customFormat="1">
+      <c r="T198" s="26"/>
+    </row>
+    <row r="199" spans="1:21" s="11" customFormat="1">
       <c r="A199" s="8" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="16">
@@ -6806,18 +7114,21 @@
       <c r="G199" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O199" s="26"/>
+      <c r="K199" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P199" s="26"/>
       <c r="Q199" s="26"/>
       <c r="R199" s="26"/>
       <c r="S199" s="26"/>
-    </row>
-    <row r="200" spans="1:19" s="11" customFormat="1">
+      <c r="T199" s="26"/>
+    </row>
+    <row r="200" spans="1:21" s="11" customFormat="1">
       <c r="A200" s="8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>405</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="16">
@@ -6829,62 +7140,77 @@
       <c r="G200" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O200" s="26"/>
+      <c r="J200" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="K200" s="11" t="s">
+        <v>544</v>
+      </c>
       <c r="P200" s="26"/>
-      <c r="Q200" s="26"/>
-      <c r="R200" s="26"/>
-      <c r="S200" s="26"/>
-    </row>
-    <row r="201" spans="1:19" s="11" customFormat="1">
-      <c r="A201" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2">
-        <v>1812</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O201" s="26"/>
+      <c r="Q200" s="31">
+        <v>38930</v>
+      </c>
+      <c r="R200" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S200" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="T200" s="26"/>
+    </row>
+    <row r="201" spans="1:21" s="11" customFormat="1">
+      <c r="A201" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="16">
+        <v>1811</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G201" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P201" s="26"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="26"/>
       <c r="S201" s="26"/>
-    </row>
-    <row r="202" spans="1:19" s="11" customFormat="1">
-      <c r="A202" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B202" t="s">
-        <v>54</v>
-      </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="16">
+      <c r="T201" s="26"/>
+    </row>
+    <row r="202" spans="1:21" s="11" customFormat="1">
+      <c r="A202" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2">
         <v>1812</v>
       </c>
-      <c r="G202" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O202" s="26"/>
+      <c r="E202" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P202" s="26"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="26"/>
       <c r="S202" s="26"/>
-    </row>
-    <row r="203" spans="1:19" s="11" customFormat="1">
+      <c r="T202" s="26"/>
+    </row>
+    <row r="203" spans="1:21" s="11" customFormat="1">
       <c r="A203" s="8" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="B203" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="16">
@@ -6893,66 +7219,73 @@
       <c r="G203" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O203" s="26"/>
       <c r="P203" s="26"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="26"/>
       <c r="S203" s="26"/>
-    </row>
-    <row r="204" spans="1:19" s="11" customFormat="1">
-      <c r="A204" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2">
-        <v>1813</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O204" s="26"/>
+      <c r="T203" s="26"/>
+    </row>
+    <row r="204" spans="1:21" s="11" customFormat="1">
+      <c r="A204" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="16">
+        <v>1812</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P204" s="26"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="26"/>
       <c r="S204" s="26"/>
-    </row>
-    <row r="205" spans="1:19" s="11" customFormat="1">
-      <c r="A205" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B205" t="s">
-        <v>370</v>
-      </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="16">
+      <c r="T204" s="26"/>
+    </row>
+    <row r="205" spans="1:21" s="11" customFormat="1">
+      <c r="A205" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2">
         <v>1813</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F205" s="2"/>
-      <c r="G205" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O205" s="26"/>
+      <c r="G205" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J205" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>546</v>
+      </c>
       <c r="P205" s="26"/>
-      <c r="Q205" s="26"/>
+      <c r="Q205" s="29">
+        <v>41455</v>
+      </c>
       <c r="R205" s="26"/>
       <c r="S205" s="26"/>
-    </row>
-    <row r="206" spans="1:19" s="11" customFormat="1">
+      <c r="T205" s="26"/>
+      <c r="U205" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" s="11" customFormat="1">
       <c r="A206" s="8" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="16">
@@ -6965,18 +7298,21 @@
       <c r="G206" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O206" s="26"/>
+      <c r="K206" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P206" s="26"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="26"/>
       <c r="S206" s="26"/>
-    </row>
-    <row r="207" spans="1:19" s="11" customFormat="1">
+      <c r="T206" s="26"/>
+    </row>
+    <row r="207" spans="1:21" s="11" customFormat="1">
       <c r="A207" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>350</v>
+        <v>298</v>
+      </c>
+      <c r="B207" t="s">
+        <v>403</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="16">
@@ -6989,45 +7325,46 @@
       <c r="G207" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O207" s="26"/>
       <c r="P207" s="26"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="26"/>
       <c r="S207" s="26"/>
-    </row>
-    <row r="208" spans="1:19" s="11" customFormat="1">
+      <c r="T207" s="26"/>
+    </row>
+    <row r="208" spans="1:21" s="11" customFormat="1">
       <c r="A208" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B208" t="s">
-        <v>410</v>
+        <v>328</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="16">
-        <v>1814</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>1813</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" s="2"/>
       <c r="G208" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O208" s="26"/>
       <c r="P208" s="26"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="26"/>
       <c r="S208" s="26"/>
-    </row>
-    <row r="209" spans="1:19" s="11" customFormat="1">
+      <c r="T208" s="26"/>
+    </row>
+    <row r="209" spans="1:21" s="11" customFormat="1">
       <c r="A209" s="8" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B209" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="16">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>58</v>
@@ -7035,18 +7372,21 @@
       <c r="G209" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O209" s="26"/>
+      <c r="K209" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P209" s="26"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="26"/>
       <c r="S209" s="26"/>
-    </row>
-    <row r="210" spans="1:19" s="11" customFormat="1">
+      <c r="T209" s="26"/>
+    </row>
+    <row r="210" spans="1:21" s="11" customFormat="1">
       <c r="A210" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="16">
@@ -7058,42 +7398,44 @@
       <c r="G210" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O210" s="26"/>
+      <c r="K210" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P210" s="26"/>
       <c r="Q210" s="26"/>
       <c r="R210" s="26"/>
       <c r="S210" s="26"/>
-    </row>
-    <row r="211" spans="1:19" s="11" customFormat="1">
-      <c r="A211" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2">
-        <v>1816</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O211" s="26"/>
+      <c r="T210" s="26"/>
+    </row>
+    <row r="211" spans="1:21" s="11" customFormat="1">
+      <c r="A211" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B211" t="s">
+        <v>410</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="16">
+        <v>1815</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P211" s="26"/>
       <c r="Q211" s="26"/>
       <c r="R211" s="26"/>
       <c r="S211" s="26"/>
-    </row>
-    <row r="212" spans="1:19" s="11" customFormat="1">
-      <c r="A212" s="6" t="s">
-        <v>113</v>
+      <c r="T211" s="26"/>
+    </row>
+    <row r="212" spans="1:21" s="11" customFormat="1">
+      <c r="A212" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2">
@@ -7106,42 +7448,45 @@
       <c r="G212" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O212" s="26"/>
+      <c r="N212" s="11" t="s">
+        <v>548</v>
+      </c>
       <c r="P212" s="26"/>
       <c r="Q212" s="26"/>
       <c r="R212" s="26"/>
       <c r="S212" s="26"/>
-    </row>
-    <row r="213" spans="1:19" s="11" customFormat="1">
-      <c r="A213" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B213" t="s">
-        <v>385</v>
-      </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="16">
+      <c r="T212" s="26"/>
+    </row>
+    <row r="213" spans="1:21" s="11" customFormat="1">
+      <c r="A213" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2">
         <v>1816</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F213" s="4"/>
-      <c r="G213" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O213" s="26"/>
+      <c r="E213" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P213" s="26"/>
       <c r="Q213" s="26"/>
       <c r="R213" s="26"/>
       <c r="S213" s="26"/>
-    </row>
-    <row r="214" spans="1:19" s="11" customFormat="1">
+      <c r="T213" s="26"/>
+    </row>
+    <row r="214" spans="1:21" s="11" customFormat="1">
       <c r="A214" s="8" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="16">
@@ -7154,147 +7499,173 @@
       <c r="G214" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O214" s="26"/>
+      <c r="K214" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>549</v>
+      </c>
       <c r="P214" s="26"/>
       <c r="Q214" s="26"/>
       <c r="R214" s="26"/>
       <c r="S214" s="26"/>
-    </row>
-    <row r="215" spans="1:19" s="11" customFormat="1">
-      <c r="A215" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2">
-        <v>1818</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O215" s="26"/>
+      <c r="T214" s="26"/>
+    </row>
+    <row r="215" spans="1:21" s="11" customFormat="1">
+      <c r="A215" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B215" t="s">
+        <v>403</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="16">
+        <v>1816</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F215" s="4"/>
+      <c r="G215" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P215" s="26"/>
       <c r="Q215" s="26"/>
       <c r="R215" s="26"/>
       <c r="S215" s="26"/>
-    </row>
-    <row r="216" spans="1:19" s="11" customFormat="1">
-      <c r="A216" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B216" t="s">
-        <v>364</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="16">
+      <c r="T215" s="26"/>
+    </row>
+    <row r="216" spans="1:21" s="11" customFormat="1">
+      <c r="A216" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2">
         <v>1818</v>
       </c>
-      <c r="G216" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O216" s="26"/>
+      <c r="E216" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P216" s="26"/>
       <c r="Q216" s="26"/>
       <c r="R216" s="26"/>
       <c r="S216" s="26"/>
-    </row>
-    <row r="217" spans="1:19" s="11" customFormat="1">
+      <c r="T216" s="26"/>
+    </row>
+    <row r="217" spans="1:21" s="11" customFormat="1">
       <c r="A217" s="8" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="16">
         <v>1818</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H217" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O217" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="N217" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="P217" s="26"/>
       <c r="Q217" s="26"/>
       <c r="R217" s="26"/>
       <c r="S217" s="26"/>
-    </row>
-    <row r="218" spans="1:19" s="11" customFormat="1">
+      <c r="T217" s="26"/>
+    </row>
+    <row r="218" spans="1:21" s="11" customFormat="1">
       <c r="A218" s="8" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>410</v>
+        <v>53</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="16">
         <v>1818</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O218" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H218" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J218" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="K218" s="11" t="s">
+        <v>552</v>
+      </c>
       <c r="P218" s="26"/>
       <c r="Q218" s="26"/>
-      <c r="R218" s="26"/>
-      <c r="S218" s="26"/>
-    </row>
-    <row r="219" spans="1:19" s="11" customFormat="1">
-      <c r="A219" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2">
-        <v>1819</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O219" s="26"/>
+      <c r="R218" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S218" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="T218" s="26"/>
+      <c r="U218" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" s="11" customFormat="1">
+      <c r="A219" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B219" t="s">
+        <v>410</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="16">
+        <v>1818</v>
+      </c>
+      <c r="G219" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P219" s="26"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="26"/>
       <c r="S219" s="26"/>
-    </row>
-    <row r="220" spans="1:19" s="11" customFormat="1">
-      <c r="A220" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B220" t="s">
-        <v>349</v>
-      </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="16">
+      <c r="T219" s="26"/>
+    </row>
+    <row r="220" spans="1:21" s="11" customFormat="1">
+      <c r="A220" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2">
         <v>1819</v>
       </c>
-      <c r="G220" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O220" s="26"/>
+      <c r="E220" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P220" s="26"/>
       <c r="Q220" s="26"/>
       <c r="R220" s="26"/>
       <c r="S220" s="26"/>
-    </row>
-    <row r="221" spans="1:19" s="11" customFormat="1">
+      <c r="T220" s="26"/>
+    </row>
+    <row r="221" spans="1:21" s="11" customFormat="1">
       <c r="A221" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B221" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="16">
@@ -7303,18 +7674,18 @@
       <c r="G221" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O221" s="26"/>
       <c r="P221" s="26"/>
       <c r="Q221" s="26"/>
       <c r="R221" s="26"/>
       <c r="S221" s="26"/>
-    </row>
-    <row r="222" spans="1:19" s="11" customFormat="1">
+      <c r="T221" s="26"/>
+    </row>
+    <row r="222" spans="1:21" s="11" customFormat="1">
       <c r="A222" s="8" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="16">
@@ -7323,18 +7694,18 @@
       <c r="G222" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O222" s="26"/>
       <c r="P222" s="26"/>
       <c r="Q222" s="26"/>
       <c r="R222" s="26"/>
       <c r="S222" s="26"/>
-    </row>
-    <row r="223" spans="1:19" s="11" customFormat="1">
+      <c r="T222" s="26"/>
+    </row>
+    <row r="223" spans="1:21" s="11" customFormat="1">
       <c r="A223" s="8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="16">
@@ -7343,15 +7714,15 @@
       <c r="G223" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O223" s="26"/>
       <c r="P223" s="26"/>
       <c r="Q223" s="26"/>
       <c r="R223" s="26"/>
       <c r="S223" s="26"/>
-    </row>
-    <row r="224" spans="1:19" s="11" customFormat="1">
+      <c r="T223" s="26"/>
+    </row>
+    <row r="224" spans="1:21" s="11" customFormat="1">
       <c r="A224" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B224" t="s">
         <v>399</v>
@@ -7361,90 +7732,127 @@
         <v>1819</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O224" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="K224" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N224" s="11" t="s">
+        <v>555</v>
+      </c>
       <c r="P224" s="26"/>
       <c r="Q224" s="26"/>
       <c r="R224" s="26"/>
       <c r="S224" s="26"/>
-    </row>
-    <row r="225" spans="1:19" s="11" customFormat="1">
+      <c r="T224" s="26"/>
+    </row>
+    <row r="225" spans="1:21" s="11" customFormat="1">
       <c r="A225" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B225" t="s">
+        <v>399</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="16">
+        <v>1819</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J225" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="K225" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="P225" s="26"/>
+      <c r="Q225" s="29">
+        <v>41055</v>
+      </c>
+      <c r="R225" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S225" s="26"/>
+      <c r="T225" s="26"/>
+      <c r="U225" s="28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" s="11" customFormat="1">
+      <c r="A226" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B225" s="14" t="s">
+      <c r="B226" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C225" s="10"/>
-      <c r="D225" s="17">
+      <c r="C226" s="10"/>
+      <c r="D226" s="17">
         <v>1819</v>
       </c>
-      <c r="G225" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O225" s="26"/>
-      <c r="P225" s="26"/>
-      <c r="Q225" s="26"/>
-      <c r="R225" s="26"/>
-      <c r="S225" s="26"/>
-    </row>
-    <row r="226" spans="1:19" s="11" customFormat="1">
-      <c r="A226" s="3" t="s">
+      <c r="G226" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="K226" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="P226" s="26"/>
+      <c r="Q226" s="29">
+        <v>38413</v>
+      </c>
+      <c r="R226" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S226" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="T226" s="26"/>
+      <c r="U226" s="28" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" s="11" customFormat="1">
+      <c r="A227" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2">
+      <c r="C227" s="2"/>
+      <c r="D227" s="2">
         <v>1820</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E227" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2" t="s">
+      <c r="F227" s="2"/>
+      <c r="G227" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O226" s="26"/>
-      <c r="P226" s="26"/>
-      <c r="Q226" s="26"/>
-      <c r="R226" s="26"/>
-      <c r="S226" s="26"/>
-    </row>
-    <row r="227" spans="1:19" s="11" customFormat="1">
-      <c r="A227" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B227" t="s">
-        <v>356</v>
-      </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="16">
-        <v>1820</v>
-      </c>
-      <c r="E227" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O227" s="26"/>
+      <c r="J227" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="P227" s="26"/>
       <c r="Q227" s="26"/>
       <c r="R227" s="26"/>
       <c r="S227" s="26"/>
-    </row>
-    <row r="228" spans="1:19" s="11" customFormat="1">
+      <c r="T227" s="26"/>
+    </row>
+    <row r="228" spans="1:21" s="11" customFormat="1">
       <c r="A228" s="8" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B228" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="16">
@@ -7456,18 +7864,24 @@
       <c r="G228" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O228" s="26"/>
+      <c r="K228" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N228" s="11" t="s">
+        <v>565</v>
+      </c>
       <c r="P228" s="26"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="26"/>
       <c r="S228" s="26"/>
-    </row>
-    <row r="229" spans="1:19" s="11" customFormat="1">
+      <c r="T228" s="26"/>
+    </row>
+    <row r="229" spans="1:21" s="11" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B229" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="16">
@@ -7479,18 +7893,21 @@
       <c r="G229" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O229" s="26"/>
+      <c r="K229" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P229" s="26"/>
       <c r="Q229" s="26"/>
       <c r="R229" s="26"/>
       <c r="S229" s="26"/>
-    </row>
-    <row r="230" spans="1:19" s="11" customFormat="1">
+      <c r="T229" s="26"/>
+    </row>
+    <row r="230" spans="1:21" s="11" customFormat="1">
       <c r="A230" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="16">
@@ -7502,18 +7919,21 @@
       <c r="G230" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O230" s="26"/>
+      <c r="K230" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P230" s="26"/>
       <c r="Q230" s="26"/>
       <c r="R230" s="26"/>
       <c r="S230" s="26"/>
-    </row>
-    <row r="231" spans="1:19" s="11" customFormat="1">
+      <c r="T230" s="26"/>
+    </row>
+    <row r="231" spans="1:21" s="11" customFormat="1">
       <c r="A231" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="16">
@@ -7525,18 +7945,24 @@
       <c r="G231" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O231" s="26"/>
+      <c r="K231" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N231" s="11" t="s">
+        <v>566</v>
+      </c>
       <c r="P231" s="26"/>
       <c r="Q231" s="26"/>
       <c r="R231" s="26"/>
       <c r="S231" s="26"/>
-    </row>
-    <row r="232" spans="1:19" s="11" customFormat="1">
+      <c r="T231" s="26"/>
+    </row>
+    <row r="232" spans="1:21" s="11" customFormat="1">
       <c r="A232" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="16">
@@ -7548,18 +7974,24 @@
       <c r="G232" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O232" s="26"/>
+      <c r="K232" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N232" s="11" t="s">
+        <v>567</v>
+      </c>
       <c r="P232" s="26"/>
       <c r="Q232" s="26"/>
       <c r="R232" s="26"/>
       <c r="S232" s="26"/>
-    </row>
-    <row r="233" spans="1:19" s="11" customFormat="1">
+      <c r="T232" s="26"/>
+    </row>
+    <row r="233" spans="1:21" s="11" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B233" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="16">
@@ -7569,23 +8001,23 @@
         <v>58</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H233" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O233" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="K233" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P233" s="26"/>
       <c r="Q233" s="26"/>
       <c r="R233" s="26"/>
       <c r="S233" s="26"/>
-    </row>
-    <row r="234" spans="1:19" s="11" customFormat="1">
-      <c r="A234" s="9" t="s">
-        <v>339</v>
+      <c r="T233" s="26"/>
+    </row>
+    <row r="234" spans="1:21" s="11" customFormat="1">
+      <c r="A234" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>54</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="16">
@@ -7595,65 +8027,89 @@
         <v>58</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O234" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H234" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="L234" s="11" t="s">
+        <v>571</v>
+      </c>
       <c r="P234" s="26"/>
-      <c r="Q234" s="26"/>
-      <c r="R234" s="26"/>
-      <c r="S234" s="26"/>
-    </row>
-    <row r="235" spans="1:19" s="11" customFormat="1">
-      <c r="A235" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2">
-        <v>1821</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O235" s="26"/>
+      <c r="Q234" s="29">
+        <v>42711</v>
+      </c>
+      <c r="R234" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S234" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="T234" s="26"/>
+      <c r="U234" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" s="11" customFormat="1">
+      <c r="A235" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B235" t="s">
+        <v>416</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G235" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K235" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N235" s="11" t="s">
+        <v>572</v>
+      </c>
       <c r="P235" s="26"/>
       <c r="Q235" s="26"/>
       <c r="R235" s="26"/>
       <c r="S235" s="26"/>
-    </row>
-    <row r="236" spans="1:19" s="11" customFormat="1">
-      <c r="A236" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B236" t="s">
-        <v>376</v>
-      </c>
-      <c r="C236" s="10"/>
-      <c r="D236" s="16">
-        <v>1822</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G236" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O236" s="26"/>
+      <c r="T235" s="26"/>
+    </row>
+    <row r="236" spans="1:21" s="11" customFormat="1">
+      <c r="A236" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2">
+        <v>1821</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
       <c r="R236" s="26"/>
       <c r="S236" s="26"/>
-    </row>
-    <row r="237" spans="1:19" s="11" customFormat="1">
+      <c r="T236" s="26"/>
+    </row>
+    <row r="237" spans="1:21" s="11" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B237" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="16">
@@ -7665,18 +8121,21 @@
       <c r="G237" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O237" s="26"/>
+      <c r="K237" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P237" s="26"/>
       <c r="Q237" s="26"/>
       <c r="R237" s="26"/>
       <c r="S237" s="26"/>
-    </row>
-    <row r="238" spans="1:19" s="11" customFormat="1">
+      <c r="T237" s="26"/>
+    </row>
+    <row r="238" spans="1:21" s="11" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B238" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="16">
@@ -7688,18 +8147,21 @@
       <c r="G238" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O238" s="26"/>
+      <c r="K238" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="P238" s="26"/>
       <c r="Q238" s="26"/>
       <c r="R238" s="26"/>
       <c r="S238" s="26"/>
-    </row>
-    <row r="239" spans="1:19" s="11" customFormat="1">
+      <c r="T238" s="26"/>
+    </row>
+    <row r="239" spans="1:21" s="11" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="16">
@@ -7711,22 +8173,22 @@
       <c r="G239" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O239" s="26"/>
       <c r="P239" s="26"/>
       <c r="Q239" s="26"/>
       <c r="R239" s="26"/>
       <c r="S239" s="26"/>
-    </row>
-    <row r="240" spans="1:19" s="11" customFormat="1">
+      <c r="T239" s="26"/>
+    </row>
+    <row r="240" spans="1:21" s="11" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B240" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="16">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>58</v>
@@ -7734,18 +8196,18 @@
       <c r="G240" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O240" s="26"/>
       <c r="P240" s="26"/>
       <c r="Q240" s="26"/>
       <c r="R240" s="26"/>
       <c r="S240" s="26"/>
-    </row>
-    <row r="241" spans="1:19" s="11" customFormat="1">
+      <c r="T240" s="26"/>
+    </row>
+    <row r="241" spans="1:21" s="11" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>385</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="16">
@@ -7757,18 +8219,18 @@
       <c r="G241" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O241" s="26"/>
       <c r="P241" s="26"/>
       <c r="Q241" s="26"/>
       <c r="R241" s="26"/>
       <c r="S241" s="26"/>
-    </row>
-    <row r="242" spans="1:19" s="11" customFormat="1">
+      <c r="T241" s="26"/>
+    </row>
+    <row r="242" spans="1:21" s="11" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="16">
@@ -7780,65 +8242,82 @@
       <c r="G242" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O242" s="26"/>
       <c r="P242" s="26"/>
       <c r="Q242" s="26"/>
       <c r="R242" s="26"/>
       <c r="S242" s="26"/>
-    </row>
-    <row r="243" spans="1:19" s="11" customFormat="1">
-      <c r="A243" s="4" t="s">
+      <c r="T242" s="26"/>
+    </row>
+    <row r="243" spans="1:21" s="11" customFormat="1">
+      <c r="A243" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B243" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="16">
+        <v>1823</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J243" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="K243" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="P243" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q243" s="31">
+        <v>38930</v>
+      </c>
+      <c r="R243" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S243" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="T243" s="26"/>
+      <c r="U243" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" s="11" customFormat="1">
+      <c r="A244" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2">
         <v>1824</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2" t="s">
+      <c r="F244" s="2"/>
+      <c r="G244" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O243" s="26"/>
-      <c r="P243" s="26"/>
-      <c r="Q243" s="26"/>
-      <c r="R243" s="26"/>
-      <c r="S243" s="26"/>
-    </row>
-    <row r="244" spans="1:19" s="11" customFormat="1">
-      <c r="A244" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B244" t="s">
-        <v>367</v>
-      </c>
-      <c r="C244" s="10"/>
-      <c r="D244" s="16">
-        <v>1824</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G244" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O244" s="26"/>
       <c r="P244" s="26"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="26"/>
       <c r="S244" s="26"/>
-    </row>
-    <row r="245" spans="1:19" s="11" customFormat="1">
+      <c r="T244" s="26"/>
+    </row>
+    <row r="245" spans="1:21" s="11" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B245" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="16">
@@ -7850,15 +8329,15 @@
       <c r="G245" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O245" s="26"/>
       <c r="P245" s="26"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="26"/>
       <c r="S245" s="26"/>
-    </row>
-    <row r="246" spans="1:19" s="11" customFormat="1">
+      <c r="T245" s="26"/>
+    </row>
+    <row r="246" spans="1:21" s="11" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B246" t="s">
         <v>371</v>
@@ -7873,18 +8352,18 @@
       <c r="G246" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O246" s="26"/>
       <c r="P246" s="26"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="26"/>
       <c r="S246" s="26"/>
-    </row>
-    <row r="247" spans="1:19" s="11" customFormat="1">
+      <c r="T246" s="26"/>
+    </row>
+    <row r="247" spans="1:21" s="11" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B247" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="16">
@@ -7896,18 +8375,18 @@
       <c r="G247" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O247" s="26"/>
       <c r="P247" s="26"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="26"/>
       <c r="S247" s="26"/>
-    </row>
-    <row r="248" spans="1:19" s="11" customFormat="1">
+      <c r="T247" s="26"/>
+    </row>
+    <row r="248" spans="1:21" s="11" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="16">
@@ -7919,18 +8398,18 @@
       <c r="G248" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O248" s="26"/>
       <c r="P248" s="26"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="26"/>
       <c r="S248" s="26"/>
-    </row>
-    <row r="249" spans="1:19" s="11" customFormat="1">
+      <c r="T248" s="26"/>
+    </row>
+    <row r="249" spans="1:21" s="11" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="16">
@@ -7942,22 +8421,22 @@
       <c r="G249" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O249" s="26"/>
       <c r="P249" s="26"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="26"/>
       <c r="S249" s="26"/>
-    </row>
-    <row r="250" spans="1:19" s="11" customFormat="1">
+      <c r="T249" s="26"/>
+    </row>
+    <row r="250" spans="1:21" s="11" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="B250" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="16">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>58</v>
@@ -7965,18 +8444,18 @@
       <c r="G250" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O250" s="26"/>
       <c r="P250" s="26"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="26"/>
       <c r="S250" s="26"/>
-    </row>
-    <row r="251" spans="1:19" s="11" customFormat="1">
+      <c r="T250" s="26"/>
+    </row>
+    <row r="251" spans="1:21" s="11" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="16">
@@ -7988,22 +8467,22 @@
       <c r="G251" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O251" s="26"/>
       <c r="P251" s="26"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="26"/>
       <c r="S251" s="26"/>
-    </row>
-    <row r="252" spans="1:19" s="11" customFormat="1">
+      <c r="T251" s="26"/>
+    </row>
+    <row r="252" spans="1:21" s="11" customFormat="1">
       <c r="A252" s="8" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="B252" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="16">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E252" s="11" t="s">
         <v>58</v>
@@ -8011,18 +8490,18 @@
       <c r="G252" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O252" s="26"/>
       <c r="P252" s="26"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="26"/>
       <c r="S252" s="26"/>
-    </row>
-    <row r="253" spans="1:19" s="11" customFormat="1">
+      <c r="T252" s="26"/>
+    </row>
+    <row r="253" spans="1:21" s="11" customFormat="1">
       <c r="A253" s="8" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B253" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="16">
@@ -8034,18 +8513,18 @@
       <c r="G253" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O253" s="26"/>
       <c r="P253" s="26"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="26"/>
       <c r="S253" s="26"/>
-    </row>
-    <row r="254" spans="1:19" s="11" customFormat="1">
+      <c r="T253" s="26"/>
+    </row>
+    <row r="254" spans="1:21" s="11" customFormat="1">
       <c r="A254" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>25</v>
+        <v>198</v>
+      </c>
+      <c r="B254" t="s">
+        <v>371</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="16">
@@ -8057,21 +8536,18 @@
       <c r="G254" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="J254" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="O254" s="26"/>
       <c r="P254" s="26"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="26"/>
       <c r="S254" s="26"/>
-    </row>
-    <row r="255" spans="1:19" s="11" customFormat="1">
+      <c r="T254" s="26"/>
+    </row>
+    <row r="255" spans="1:21" s="11" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B255" t="s">
-        <v>53</v>
+        <v>276</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="16">
@@ -8083,22 +8559,25 @@
       <c r="G255" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O255" s="26"/>
+      <c r="J255" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="P255" s="26"/>
       <c r="Q255" s="26"/>
       <c r="R255" s="26"/>
       <c r="S255" s="26"/>
-    </row>
-    <row r="256" spans="1:19" s="11" customFormat="1">
+      <c r="T255" s="26"/>
+    </row>
+    <row r="256" spans="1:21" s="11" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="B256" t="s">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="16">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E256" s="11" t="s">
         <v>58</v>
@@ -8106,18 +8585,18 @@
       <c r="G256" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O256" s="26"/>
       <c r="P256" s="26"/>
       <c r="Q256" s="26"/>
       <c r="R256" s="26"/>
       <c r="S256" s="26"/>
-    </row>
-    <row r="257" spans="1:19" s="11" customFormat="1">
+      <c r="T256" s="26"/>
+    </row>
+    <row r="257" spans="1:20" s="11" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B257" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="16">
@@ -8129,18 +8608,18 @@
       <c r="G257" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O257" s="26"/>
       <c r="P257" s="26"/>
       <c r="Q257" s="26"/>
       <c r="R257" s="26"/>
       <c r="S257" s="26"/>
-    </row>
-    <row r="258" spans="1:19" s="11" customFormat="1">
+      <c r="T257" s="26"/>
+    </row>
+    <row r="258" spans="1:20" s="11" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="B258" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="16">
@@ -8152,22 +8631,22 @@
       <c r="G258" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O258" s="26"/>
       <c r="P258" s="26"/>
       <c r="Q258" s="26"/>
       <c r="R258" s="26"/>
       <c r="S258" s="26"/>
-    </row>
-    <row r="259" spans="1:19" s="11" customFormat="1">
+      <c r="T258" s="26"/>
+    </row>
+    <row r="259" spans="1:20" s="11" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="16">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E259" s="11" t="s">
         <v>58</v>
@@ -8175,18 +8654,18 @@
       <c r="G259" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O259" s="26"/>
       <c r="P259" s="26"/>
       <c r="Q259" s="26"/>
       <c r="R259" s="26"/>
       <c r="S259" s="26"/>
-    </row>
-    <row r="260" spans="1:19" s="11" customFormat="1">
+      <c r="T259" s="26"/>
+    </row>
+    <row r="260" spans="1:20" s="11" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B260" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="16">
@@ -8198,18 +8677,18 @@
       <c r="G260" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O260" s="26"/>
       <c r="P260" s="26"/>
       <c r="Q260" s="26"/>
       <c r="R260" s="26"/>
       <c r="S260" s="26"/>
-    </row>
-    <row r="261" spans="1:19" s="11" customFormat="1">
+      <c r="T260" s="26"/>
+    </row>
+    <row r="261" spans="1:20" s="11" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B261" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="16">
@@ -8221,18 +8700,18 @@
       <c r="G261" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O261" s="26"/>
       <c r="P261" s="26"/>
       <c r="Q261" s="26"/>
       <c r="R261" s="26"/>
       <c r="S261" s="26"/>
-    </row>
-    <row r="262" spans="1:19" s="11" customFormat="1">
+      <c r="T261" s="26"/>
+    </row>
+    <row r="262" spans="1:20" s="11" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="16">
@@ -8244,22 +8723,22 @@
       <c r="G262" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O262" s="26"/>
       <c r="P262" s="26"/>
       <c r="Q262" s="26"/>
       <c r="R262" s="26"/>
       <c r="S262" s="26"/>
-    </row>
-    <row r="263" spans="1:19" s="11" customFormat="1">
+      <c r="T262" s="26"/>
+    </row>
+    <row r="263" spans="1:20" s="11" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="16">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E263" s="11" t="s">
         <v>58</v>
@@ -8267,18 +8746,18 @@
       <c r="G263" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O263" s="26"/>
       <c r="P263" s="26"/>
       <c r="Q263" s="26"/>
       <c r="R263" s="26"/>
       <c r="S263" s="26"/>
-    </row>
-    <row r="264" spans="1:19" s="11" customFormat="1">
+      <c r="T263" s="26"/>
+    </row>
+    <row r="264" spans="1:20" s="11" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="B264" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="16">
@@ -8290,18 +8769,18 @@
       <c r="G264" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O264" s="26"/>
       <c r="P264" s="26"/>
       <c r="Q264" s="26"/>
       <c r="R264" s="26"/>
       <c r="S264" s="26"/>
-    </row>
-    <row r="265" spans="1:19" s="11" customFormat="1">
+      <c r="T264" s="26"/>
+    </row>
+    <row r="265" spans="1:20" s="11" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
-        <v>410</v>
+        <v>53</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="16">
@@ -8313,22 +8792,22 @@
       <c r="G265" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O265" s="26"/>
       <c r="P265" s="26"/>
       <c r="Q265" s="26"/>
       <c r="R265" s="26"/>
       <c r="S265" s="26"/>
-    </row>
-    <row r="266" spans="1:19" s="11" customFormat="1">
+      <c r="T265" s="26"/>
+    </row>
+    <row r="266" spans="1:20" s="11" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B266" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="16">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E266" s="11" t="s">
         <v>58</v>
@@ -8336,22 +8815,22 @@
       <c r="G266" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O266" s="26"/>
       <c r="P266" s="26"/>
       <c r="Q266" s="26"/>
       <c r="R266" s="26"/>
       <c r="S266" s="26"/>
-    </row>
-    <row r="267" spans="1:19" s="11" customFormat="1">
+      <c r="T266" s="26"/>
+    </row>
+    <row r="267" spans="1:20" s="11" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="16">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E267" s="11" t="s">
         <v>58</v>
@@ -8359,18 +8838,18 @@
       <c r="G267" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O267" s="26"/>
       <c r="P267" s="26"/>
       <c r="Q267" s="26"/>
       <c r="R267" s="26"/>
       <c r="S267" s="26"/>
-    </row>
-    <row r="268" spans="1:19" s="11" customFormat="1">
+      <c r="T267" s="26"/>
+    </row>
+    <row r="268" spans="1:20" s="11" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B268" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="16">
@@ -8382,18 +8861,18 @@
       <c r="G268" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O268" s="26"/>
       <c r="P268" s="26"/>
       <c r="Q268" s="26"/>
       <c r="R268" s="26"/>
       <c r="S268" s="26"/>
-    </row>
-    <row r="269" spans="1:19" s="11" customFormat="1">
+      <c r="T268" s="26"/>
+    </row>
+    <row r="269" spans="1:20" s="11" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B269" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="16">
@@ -8405,74 +8884,71 @@
       <c r="G269" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O269" s="26"/>
       <c r="P269" s="26"/>
       <c r="Q269" s="26"/>
       <c r="R269" s="26"/>
       <c r="S269" s="26"/>
-    </row>
-    <row r="270" spans="1:19" s="11" customFormat="1">
-      <c r="A270" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2">
-        <v>1834</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O270" s="26"/>
+      <c r="T269" s="26"/>
+    </row>
+    <row r="270" spans="1:20" s="11" customFormat="1">
+      <c r="A270" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B270" t="s">
+        <v>379</v>
+      </c>
+      <c r="C270" s="10"/>
+      <c r="D270" s="16">
+        <v>1832</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P270" s="26"/>
       <c r="Q270" s="26"/>
       <c r="R270" s="26"/>
       <c r="S270" s="26"/>
-    </row>
-    <row r="271" spans="1:19" s="11" customFormat="1">
-      <c r="A271" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B271" t="s">
-        <v>53</v>
-      </c>
-      <c r="C271" s="10"/>
-      <c r="D271" s="16">
-        <v>1835</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O271" s="26"/>
+      <c r="T270" s="26"/>
+    </row>
+    <row r="271" spans="1:20" s="11" customFormat="1">
+      <c r="A271" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2">
+        <v>1834</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P271" s="26"/>
       <c r="Q271" s="26"/>
       <c r="R271" s="26"/>
       <c r="S271" s="26"/>
-    </row>
-    <row r="272" spans="1:19" s="11" customFormat="1">
-      <c r="A272" s="8" t="s">
-        <v>300</v>
+      <c r="T271" s="26"/>
+    </row>
+    <row r="272" spans="1:20" s="11" customFormat="1">
+      <c r="A272" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="B272" t="s">
         <v>53</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="16">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E272" s="11" t="s">
         <v>58</v>
@@ -8483,51 +8959,51 @@
       <c r="G272" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O272" s="26"/>
       <c r="P272" s="26"/>
       <c r="Q272" s="26"/>
       <c r="R272" s="26"/>
       <c r="S272" s="26"/>
-    </row>
-    <row r="273" spans="1:19" s="11" customFormat="1">
-      <c r="A273" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2">
-        <v>1839</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O273" s="26"/>
+      <c r="T272" s="26"/>
+    </row>
+    <row r="273" spans="1:20" s="11" customFormat="1">
+      <c r="A273" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" s="10"/>
+      <c r="D273" s="16">
+        <v>1837</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P273" s="26"/>
       <c r="Q273" s="26"/>
       <c r="R273" s="26"/>
       <c r="S273" s="26"/>
-    </row>
-    <row r="274" spans="1:19" s="11" customFormat="1">
-      <c r="A274" s="4" t="s">
-        <v>100</v>
+      <c r="T273" s="26"/>
+    </row>
+    <row r="274" spans="1:20" s="11" customFormat="1">
+      <c r="A274" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>424</v>
@@ -8535,87 +9011,90 @@
       <c r="G274" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O274" s="26"/>
       <c r="P274" s="26"/>
       <c r="Q274" s="26"/>
       <c r="R274" s="26"/>
       <c r="S274" s="26"/>
-    </row>
-    <row r="275" spans="1:19" s="11" customFormat="1">
+      <c r="T274" s="26"/>
+    </row>
+    <row r="275" spans="1:20" s="11" customFormat="1">
       <c r="A275" s="4" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F275" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="G275" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O275" s="26"/>
       <c r="P275" s="26"/>
       <c r="Q275" s="26"/>
       <c r="R275" s="26"/>
       <c r="S275" s="26"/>
-    </row>
-    <row r="276" spans="1:19" s="11" customFormat="1">
-      <c r="A276" s="3" t="s">
-        <v>26</v>
+      <c r="T275" s="26"/>
+    </row>
+    <row r="276" spans="1:20" s="11" customFormat="1">
+      <c r="A276" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="C276" s="2"/>
-      <c r="D276" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E276" s="2"/>
+      <c r="D276" s="2">
+        <v>1851</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O276" s="26"/>
       <c r="P276" s="26"/>
       <c r="Q276" s="26"/>
       <c r="R276" s="26"/>
       <c r="S276" s="26"/>
-    </row>
-    <row r="277" spans="1:19" s="11" customFormat="1">
-      <c r="A277" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E277" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G277" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="O277" s="26"/>
+      <c r="T276" s="26"/>
+    </row>
+    <row r="277" spans="1:20" s="11" customFormat="1">
+      <c r="A277" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P277" s="26"/>
       <c r="Q277" s="26"/>
       <c r="R277" s="26"/>
       <c r="S277" s="26"/>
-    </row>
-    <row r="278" spans="1:19" s="11" customFormat="1">
+      <c r="T277" s="26"/>
+    </row>
+    <row r="278" spans="1:20" s="11" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>360</v>
+        <v>150</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="17" t="s">
@@ -8627,15 +9106,15 @@
       <c r="G278" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O278" s="26"/>
       <c r="P278" s="26"/>
       <c r="Q278" s="26"/>
       <c r="R278" s="26"/>
       <c r="S278" s="26"/>
-    </row>
-    <row r="279" spans="1:19" s="11" customFormat="1">
+      <c r="T278" s="26"/>
+    </row>
+    <row r="279" spans="1:20" s="11" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B279" s="14" t="s">
         <v>360</v>
@@ -8650,18 +9129,18 @@
       <c r="G279" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O279" s="26"/>
       <c r="P279" s="26"/>
       <c r="Q279" s="26"/>
       <c r="R279" s="26"/>
       <c r="S279" s="26"/>
-    </row>
-    <row r="280" spans="1:19" s="11" customFormat="1">
+      <c r="T279" s="26"/>
+    </row>
+    <row r="280" spans="1:20" s="11" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="17" t="s">
@@ -8673,15 +9152,15 @@
       <c r="G280" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O280" s="26"/>
       <c r="P280" s="26"/>
       <c r="Q280" s="26"/>
       <c r="R280" s="26"/>
       <c r="S280" s="26"/>
-    </row>
-    <row r="281" spans="1:19" s="11" customFormat="1">
+      <c r="T280" s="26"/>
+    </row>
+    <row r="281" spans="1:20" s="11" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>416</v>
@@ -8696,100 +9175,109 @@
       <c r="G281" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="O281" s="26"/>
       <c r="P281" s="26"/>
       <c r="Q281" s="26"/>
       <c r="R281" s="26"/>
       <c r="S281" s="26"/>
-    </row>
-    <row r="282" spans="1:19" s="11" customFormat="1">
-      <c r="A282" t="s">
-        <v>143</v>
-      </c>
-      <c r="B282" t="s">
-        <v>144</v>
-      </c>
-      <c r="C282"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="O282" s="26"/>
+      <c r="T281" s="26"/>
+    </row>
+    <row r="282" spans="1:20" s="11" customFormat="1">
+      <c r="A282" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C282" s="10"/>
+      <c r="D282" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="P282" s="26"/>
       <c r="Q282" s="26"/>
       <c r="R282" s="26"/>
       <c r="S282" s="26"/>
-    </row>
-    <row r="283" spans="1:19" s="11" customFormat="1">
+      <c r="T282" s="26"/>
+    </row>
+    <row r="283" spans="1:20" s="11" customFormat="1">
       <c r="A283" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B283" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C283"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-      <c r="O283" s="26"/>
       <c r="P283" s="26"/>
       <c r="Q283" s="26"/>
       <c r="R283" s="26"/>
       <c r="S283" s="26"/>
-    </row>
-    <row r="284" spans="1:19" s="11" customFormat="1">
+      <c r="T283" s="26"/>
+    </row>
+    <row r="284" spans="1:20" s="11" customFormat="1">
       <c r="A284" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B284" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C284"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-      <c r="O284" s="26"/>
       <c r="P284" s="26"/>
       <c r="Q284" s="26"/>
       <c r="R284" s="26"/>
       <c r="S284" s="26"/>
-    </row>
-    <row r="285" spans="1:19">
-      <c r="A285" s="3" t="s">
+      <c r="T284" s="26"/>
+    </row>
+    <row r="285" spans="1:20" s="11" customFormat="1">
+      <c r="A285" t="s">
+        <v>147</v>
+      </c>
+      <c r="B285" t="s">
+        <v>148</v>
+      </c>
+      <c r="C285"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="P285" s="26"/>
+      <c r="Q285" s="26"/>
+      <c r="R285" s="26"/>
+      <c r="S285" s="26"/>
+      <c r="T285" s="26"/>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D286" s="2">
         <v>1816</v>
       </c>
-      <c r="G285" s="2" t="s">
+      <c r="G286" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="J285" s="2" t="s">
+      <c r="J286" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="286" spans="1:19">
-      <c r="A286" s="3" t="s">
+    <row r="287" spans="1:20">
+      <c r="A287" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D286" s="2">
-        <v>1798</v>
-      </c>
-      <c r="J286" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19">
-      <c r="A287" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>76</v>
@@ -8797,31 +9285,45 @@
       <c r="D287" s="2">
         <v>1798</v>
       </c>
-    </row>
-    <row r="288" spans="1:19">
+      <c r="J287" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D288" s="2">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D288" s="2">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="22" t="s">
-        <v>434</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D289" s="2">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D290" s="2">
         <v>1845</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I289"/>
+  <autoFilter ref="A2:I290"/>
   <sortState ref="A3:F304">
     <sortCondition ref="D3:D304"/>
   </sortState>

--- a/_gothicTextsDb.xlsx
+++ b/_gothicTextsDb.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$288</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="617">
   <si>
     <t>Title</t>
   </si>
@@ -1402,24 +1402,15 @@
     <t>Byron, Lord George Gordon</t>
   </si>
   <si>
-    <t>dated 1816–1817</t>
-  </si>
-  <si>
     <t>Davison, Gothic Literature</t>
   </si>
   <si>
     <t>Christabel</t>
   </si>
   <si>
-    <t>dated 1798–1801</t>
-  </si>
-  <si>
     <t>The Rime of the Ancient Mariner</t>
   </si>
   <si>
-    <t>Confessions of an English Opium-Eater</t>
-  </si>
-  <si>
     <t>Suspiria De Profundis: Being a Sequel to The Confessions of an English Opium-Eater'</t>
   </si>
   <si>
@@ -1582,9 +1573,6 @@
     <t>eText Pub date</t>
   </si>
   <si>
-    <t>Bibliographic Info</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -1844,13 +1832,148 @@
   </si>
   <si>
     <t>0606801h.html</t>
+  </si>
+  <si>
+    <t>Can't locatetext</t>
+  </si>
+  <si>
+    <t>Valancourt has an edition</t>
+  </si>
+  <si>
+    <t>Hogg_PrivateMemoirs_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/2276/pg2276.txt</t>
+  </si>
+  <si>
+    <t>#2276</t>
+  </si>
+  <si>
+    <t>Produced by Andreas Philipp and Martin Adamson. HTML version by Al Haines</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/albigensesromanc04matu</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/18247/pg18247.txt</t>
+  </si>
+  <si>
+    <t>ShelleyMary_TheLastMan_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>#18247</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/isleofdevilshist00lewirich</t>
+  </si>
+  <si>
+    <t>Moore_TheEpicurean_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/49332/49332-0.txt</t>
+  </si>
+  <si>
+    <t>#49332</t>
+  </si>
+  <si>
+    <t>ShelleyMary_PerkinWarbeck_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606411h.html</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/klosterheimorma02quingoog</t>
+  </si>
+  <si>
+    <t>DeQuincey_Klosterheim_UMDL.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/23564/23564-h/23564-h.htm</t>
+  </si>
+  <si>
+    <t>Ainsworth_Rookwood_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>#23564</t>
+  </si>
+  <si>
+    <t>Produced by Afra Ullah, Stephen Blundell and the Online Distributed Proofreading Team at http://www.pgdp.net</t>
+  </si>
+  <si>
+    <t>ShelleyMary_Lodore_GutenbergAus.txt</t>
+  </si>
+  <si>
+    <t>http://gutenberg.net.au/ebooks06/0606381h.html</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/falknernovel00shel</t>
+  </si>
+  <si>
+    <t>Levent Kurnaz and Jose Menendez</t>
+  </si>
+  <si>
+    <t>#932</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/932/pg932.txt</t>
+  </si>
+  <si>
+    <t>Poe_FallOfTheHouseOfUsher_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>Poe_AnnabelLee_PoetryFoundation.txt</t>
+  </si>
+  <si>
+    <t>https://www.poetryfoundation.org/poems-and-poets/poems/detail/44885</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/files/43529/43529-h/43529-h.htm</t>
+  </si>
+  <si>
+    <t>Fenwick_Secrecy_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>#43529</t>
+  </si>
+  <si>
+    <t>Delphine Lettau, Mary Meehan,(http://www.pgdp.net)</t>
+  </si>
+  <si>
+    <t>Byron_Manfred_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/files/20158/20158-h/20158-h.htm#MANFRED</t>
+  </si>
+  <si>
+    <t>Coleridge_Christabel_PoetryFoundation.txt</t>
+  </si>
+  <si>
+    <t>https://www.poetryfoundation.org/poems-and-poets/poems/detail/43971</t>
+  </si>
+  <si>
+    <t>Coleridge_RimeOfTheAncientMariner_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>http://www.gutenberg.org/cache/epub/151/pg151.txt</t>
+  </si>
+  <si>
+    <t>#151</t>
+  </si>
+  <si>
+    <t>Boss, Judy</t>
+  </si>
+  <si>
+    <t>DeQuincey_Suspiria_Gutenberg.txt</t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/files/23788/23788-h/23788-h.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1918,6 +2041,17 @@
       <color rgb="FF000000"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1980,7 +2114,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2004,8 +2138,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2052,8 +2194,13 @@
     <xf numFmtId="15" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2065,6 +2212,10 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2076,6 +2227,10 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2405,13 +2560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U290"/>
+  <dimension ref="A1:U288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q243" sqref="Q243"/>
+      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2423,332 +2578,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="P1" s="23" t="s">
-        <v>488</v>
+      <c r="A1" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="20">
+        <v>1753</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="16">
+        <v>1762</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1768</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="20">
-        <v>1753</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16">
-        <v>1762</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>422</v>
+      <c r="L4" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2">
-        <v>1764</v>
+        <v>1771</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="L5" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R6" s="25">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1773</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="16">
+        <v>1773</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1783</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1771</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1773</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R8" s="25">
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1773</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16">
-        <v>1773</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1783</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="16">
+        <v>1783</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1783</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="L12" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16">
-        <v>1783</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>422</v>
+      <c r="D13" s="2">
+        <v>1785</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R13" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="4" t="s">
-        <v>82</v>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R14" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>58</v>
@@ -2760,112 +2944,99 @@
         <v>422</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="R15" s="25">
         <v>42810</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="L16" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R16" s="25">
-        <v>42810</v>
-      </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1786</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>453</v>
+      <c r="A17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="16">
+        <v>1788</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R17" s="25">
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="16">
+        <v>1788</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R18" s="25">
         <v>42810</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1787</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="8" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="16">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -2873,46 +3044,38 @@
         <v>422</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
-        <v>460</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="16">
-        <v>1788</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R20" s="25">
-        <v>42810</v>
-      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="8" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>25</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16">
@@ -2923,99 +3086,96 @@
       <c r="G21" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="L21" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="R21" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16">
-        <v>1789</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>446</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1790</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="16">
-        <v>1789</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R23" s="25">
-        <v>42810</v>
+      <c r="D23" s="2">
+        <v>1790</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="A24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="16">
         <v>1790</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>138</v>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="A25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="16">
         <v>1790</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>138</v>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="8" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="16">
@@ -3026,16 +3186,22 @@
       <c r="G26" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="J26" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="L26" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R26" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="8" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="16">
@@ -3046,105 +3212,105 @@
       <c r="G27" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="J27" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="L27" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="R27" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="16">
-        <v>1790</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="D28" s="2">
+        <v>1791</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1791</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="16">
+        <v>1791</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R28" s="25">
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="16">
+        <v>1791</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R31" s="25">
         <v>42810</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" t="s">
-        <v>417</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="16">
-        <v>1790</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R29" s="25">
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1791</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1791</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="8" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="16">
@@ -3156,45 +3322,39 @@
         <v>422</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="8" t="s">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>356</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="16">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="L33" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R33" s="25">
-        <v>42810</v>
-      </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="8" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="16">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -3202,15 +3362,15 @@
         <v>422</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="8" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16">
@@ -3221,137 +3381,137 @@
       <c r="G35" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="K35" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="L35" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" t="s">
-        <v>377</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="16">
-        <v>1792</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>422</v>
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1793</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R36" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="16">
-        <v>1792</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>422</v>
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1793</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="R37" s="25">
+        <v>42810</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
+      <c r="A38" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2">
         <v>1793</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="16">
+        <v>1793</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="R38" s="25">
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="2">
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="16">
         <v>1793</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R39" s="25">
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1793</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>138</v>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="8" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>458</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="16">
@@ -3360,67 +3520,76 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="s">
-        <v>422</v>
+        <v>459</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R41" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B42" t="s">
-        <v>415</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="16">
-        <v>1793</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
-        <v>422</v>
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1794</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="R42" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B43" t="s">
-        <v>461</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="16">
-        <v>1793</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R43" s="25">
-        <v>42810</v>
+      <c r="A43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1794</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2">
         <v>1794</v>
@@ -3431,11 +3600,8 @@
       <c r="G44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>470</v>
@@ -3448,71 +3614,59 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
+      <c r="A45" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D45" s="2">
         <v>1794</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="A46" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="16">
         <v>1794</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R46" s="25">
-        <v>42810</v>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="A47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="16">
         <v>1794</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>138</v>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>350</v>
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>375</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="16">
@@ -3526,10 +3680,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="8" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="16">
@@ -3538,15 +3692,33 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="s">
-        <v>422</v>
+        <v>138</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R49" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="8" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="16">
@@ -3557,13 +3729,16 @@
       <c r="G50" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="L50" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="8" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="B51" t="s">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="16">
@@ -3578,27 +3753,21 @@
         <v>422</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="R51" s="25">
         <v>42810</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="8" t="s">
-        <v>226</v>
+      <c r="A52" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="16">
@@ -3609,16 +3778,16 @@
       <c r="G52" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>447</v>
+      <c r="K52" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="8" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="16">
@@ -3627,51 +3796,36 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1795</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R53" s="25">
-        <v>42810</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="16">
-        <v>1794</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="8" t="s">
-        <v>332</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="16">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -3680,28 +3834,28 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="A56" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="16">
         <v>1795</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>138</v>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="8" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="16">
@@ -3715,10 +3869,10 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="8" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="B58" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="16">
@@ -3731,45 +3885,45 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" t="s">
-        <v>392</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="16">
-        <v>1795</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
-        <v>422</v>
+      <c r="A59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1796</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B60" t="s">
-        <v>414</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="16">
-        <v>1795</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
-        <v>422</v>
+      <c r="A60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1796</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>1796</v>
@@ -3782,28 +3936,40 @@
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="3" t="s">
-        <v>18</v>
+      <c r="A62" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2">
         <v>1796</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="J62" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="R62" s="25">
+        <v>42810</v>
+      </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2">
         <v>1796</v>
@@ -3814,62 +3980,54 @@
       <c r="G63" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="K63" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="A64" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="16">
         <v>1796</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R64" s="25">
-        <v>42810</v>
+      <c r="E64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="A65" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="16">
         <v>1796</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>480</v>
+      <c r="E65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="8" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="16">
@@ -3882,13 +4040,16 @@
       <c r="G66" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="K66" s="2" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="8" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="16">
@@ -3904,10 +4065,10 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="8" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="16">
@@ -3918,18 +4079,27 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="11" t="s">
-        <v>422</v>
+        <v>138</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>446</v>
+        <v>478</v>
+      </c>
+      <c r="R68" s="25">
+        <v>42810</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="8" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="16">
@@ -3945,10 +4115,10 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="8" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="16">
@@ -3959,27 +4129,15 @@
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="R70" s="25">
-        <v>42810</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>396</v>
+        <v>24</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="16">
@@ -3992,13 +4150,19 @@
       <c r="G71" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="K71" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="8" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="16">
@@ -4009,15 +4173,36 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="11" t="s">
-        <v>422</v>
+        <v>138</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P72" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="R72" s="25">
+        <v>42812</v>
+      </c>
+      <c r="T72" s="26" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="8" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="16">
@@ -4031,18 +4216,18 @@
         <v>422</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="8" t="s">
-        <v>290</v>
+      <c r="A74" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>413</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="16">
@@ -4053,97 +4238,93 @@
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1797</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="P74" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="R74" s="25">
-        <v>42812</v>
-      </c>
-      <c r="T74" s="26" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="16">
-        <v>1796</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="11" t="s">
-        <v>422</v>
-      </c>
       <c r="K75" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B76" t="s">
-        <v>413</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="16">
-        <v>1796</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="11" t="s">
-        <v>422</v>
+      <c r="A76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1797</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2">
         <v>1797</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="J77" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="K77" s="2" t="s">
-        <v>446</v>
+        <v>491</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P77" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q77" s="27">
+        <v>38930</v>
+      </c>
+      <c r="R77" s="25">
+        <v>42812</v>
+      </c>
+      <c r="S77" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="T77" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="U77" s="28" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="6" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D78" s="2">
         <v>1797</v>
@@ -4157,60 +4338,36 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2">
         <v>1797</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="P79" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q79" s="27">
-        <v>38930</v>
-      </c>
-      <c r="R79" s="25">
-        <v>42812</v>
-      </c>
-      <c r="S79" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="T79" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="U79" s="28" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="6" t="s">
-        <v>67</v>
+      <c r="A80" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D80" s="2">
         <v>1797</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>138</v>
@@ -4218,30 +4375,24 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="3" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D81" s="2">
         <v>1797</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D82" s="2">
         <v>1797</v>
@@ -4254,56 +4405,73 @@
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>76</v>
+      <c r="A83" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D83" s="2">
         <v>1797</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="A84" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="16">
         <v>1797</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>138</v>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="A85" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="16">
         <v>1797</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="11"/>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="8" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="16">
@@ -4314,13 +4482,27 @@
       <c r="G86" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="11"/>
     </row>
     <row r="87" spans="1:21" s="11" customFormat="1">
       <c r="A87" s="8" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="16">
@@ -4337,163 +4519,191 @@
     </row>
     <row r="88" spans="1:21" s="11" customFormat="1">
       <c r="A88" s="8" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="16">
         <v>1797</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>422</v>
+        <v>138</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="P88" s="26"/>
       <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
+      <c r="R88" s="25">
+        <v>42810</v>
+      </c>
       <c r="S88" s="26"/>
       <c r="T88" s="26"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="16">
-        <v>1797</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="26"/>
-      <c r="T89" s="26"/>
+      <c r="A89" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2">
+        <v>1798</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="P89" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q89" s="29">
+        <v>39667</v>
+      </c>
+      <c r="R89" s="29">
+        <v>42812</v>
+      </c>
+      <c r="S89" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="T89" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="U89" s="28" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="90" spans="1:21" s="11" customFormat="1">
-      <c r="A90" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="16">
-        <v>1797</v>
-      </c>
-      <c r="G90" s="11" t="s">
+      <c r="A90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
+        <v>1798</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>444</v>
+      <c r="K90" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
-      <c r="R90" s="25">
-        <v>42810</v>
-      </c>
+      <c r="R90" s="26"/>
       <c r="S90" s="26"/>
       <c r="T90" s="26"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="3" t="s">
-        <v>501</v>
+      <c r="A91" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2">
         <v>1798</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>424</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="L91" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="P91" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q91" s="29">
-        <v>39667</v>
-      </c>
-      <c r="R91" s="29">
-        <v>42812</v>
-      </c>
-      <c r="S91" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="T91" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="U91" s="28" t="s">
-        <v>499</v>
-      </c>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
     </row>
     <row r="92" spans="1:21" s="11" customFormat="1">
       <c r="A92" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2">
         <v>1798</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="J92" s="11" t="s">
+        <v>506</v>
+      </c>
       <c r="K92" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="P92" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q92" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="R92" s="29">
+        <v>42812</v>
+      </c>
+      <c r="S92" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="T92" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="U92" s="35" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A93" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2">
         <v>1798</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
@@ -4506,66 +4716,45 @@
       <c r="T93" s="26"/>
     </row>
     <row r="94" spans="1:21" s="11" customFormat="1">
-      <c r="A94" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2">
+      <c r="A94" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="16">
         <v>1798</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>510</v>
+      <c r="H94" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="L94" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="P94" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q94" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="R94" s="29">
-        <v>42812</v>
-      </c>
-      <c r="S94" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="T94" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="U94" s="30" t="s">
-        <v>508</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="36"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2">
+      <c r="A95" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="16">
         <v>1798</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>138</v>
+      <c r="G95" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
@@ -4575,23 +4764,17 @@
     </row>
     <row r="96" spans="1:21" s="11" customFormat="1">
       <c r="A96" s="8" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="16">
         <v>1798</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="P96" s="26"/>
       <c r="Q96" s="26"/>
@@ -4601,10 +4784,10 @@
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
       <c r="A97" s="8" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="16">
@@ -4612,6 +4795,9 @@
       </c>
       <c r="G97" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
@@ -4621,30 +4807,53 @@
     </row>
     <row r="98" spans="1:21" s="11" customFormat="1">
       <c r="A98" s="8" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="16">
         <v>1798</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="P98" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q98" s="31">
+        <v>38930</v>
+      </c>
+      <c r="R98" s="29">
+        <v>42812</v>
+      </c>
+      <c r="S98" s="26" t="s">
+        <v>488</v>
+      </c>
       <c r="T98" s="26"/>
+      <c r="U98" s="28" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="99" spans="1:21" s="11" customFormat="1">
       <c r="A99" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="16">
@@ -4652,9 +4861,6 @@
       </c>
       <c r="G99" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
@@ -4663,67 +4869,80 @@
       <c r="T99" s="26"/>
     </row>
     <row r="100" spans="1:21" s="11" customFormat="1">
-      <c r="A100" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="16">
+      <c r="A100" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
         <v>1798</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="P100" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q100" s="31">
-        <v>38930</v>
-      </c>
-      <c r="R100" s="29">
-        <v>42812</v>
-      </c>
-      <c r="S100" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="T100" s="26"/>
-      <c r="U100" s="28" t="s">
-        <v>514</v>
-      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" t="s">
-        <v>412</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="16">
+      <c r="A101" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
         <v>1798</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
-      <c r="T101" s="26"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q101" s="25">
+        <v>38787</v>
+      </c>
+      <c r="R101" s="25">
+        <v>42815</v>
+      </c>
+      <c r="S101" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="T101" s="24"/>
+      <c r="U101" s="2" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="102" spans="1:21" s="11" customFormat="1">
       <c r="A102" s="4" t="s">
@@ -4804,31 +5023,31 @@
         <v>422</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P105" s="26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q105" s="26" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="R105" s="29">
         <v>42812</v>
       </c>
       <c r="S105" s="26" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="T105" s="26" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="U105" s="30" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
@@ -4978,10 +5197,10 @@
         <v>422</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
@@ -5024,13 +5243,13 @@
         <v>422</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
@@ -5193,7 +5412,7 @@
         <v>422</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P121" s="26"/>
       <c r="Q121" s="26"/>
@@ -5219,7 +5438,7 @@
         <v>422</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
@@ -5245,7 +5464,7 @@
         <v>422</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P123" s="26"/>
       <c r="Q123" s="26"/>
@@ -5271,7 +5490,7 @@
         <v>422</v>
       </c>
       <c r="K124" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P124" s="26"/>
       <c r="Q124" s="26"/>
@@ -5724,7 +5943,7 @@
         <v>422</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P143" s="26"/>
       <c r="Q143" s="26"/>
@@ -5941,7 +6160,7 @@
     </row>
     <row r="153" spans="1:21" s="11" customFormat="1">
       <c r="A153" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B153" t="s">
         <v>50</v>
@@ -5954,30 +6173,30 @@
         <v>81</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P153" s="26" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q153" s="26"/>
       <c r="R153" s="26"/>
       <c r="S153" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="T153" s="26" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="U153" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:21" s="11" customFormat="1">
@@ -6122,7 +6341,7 @@
         <v>422</v>
       </c>
       <c r="K159" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P159" s="26"/>
       <c r="Q159" s="26"/>
@@ -6173,10 +6392,10 @@
         <v>422</v>
       </c>
       <c r="K161" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N161" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P161" s="26"/>
       <c r="Q161" s="26"/>
@@ -6227,7 +6446,7 @@
         <v>422</v>
       </c>
       <c r="N163" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P163" s="26"/>
       <c r="Q163" s="26"/>
@@ -6254,7 +6473,7 @@
         <v>422</v>
       </c>
       <c r="K164" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P164" s="26"/>
       <c r="Q164" s="26"/>
@@ -6327,7 +6546,7 @@
         <v>422</v>
       </c>
       <c r="K167" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P167" s="26"/>
       <c r="Q167" s="26"/>
@@ -6353,7 +6572,7 @@
         <v>422</v>
       </c>
       <c r="K168" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P168" s="26"/>
       <c r="Q168" s="26"/>
@@ -6379,10 +6598,10 @@
         <v>422</v>
       </c>
       <c r="K169" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P169" s="26"/>
       <c r="Q169" s="26"/>
@@ -6554,7 +6773,7 @@
         <v>422</v>
       </c>
       <c r="K177" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P177" s="26"/>
       <c r="Q177" s="26"/>
@@ -6660,7 +6879,7 @@
         <v>422</v>
       </c>
       <c r="K182" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P182" s="26"/>
       <c r="Q182" s="26"/>
@@ -6673,7 +6892,7 @@
         <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="16">
@@ -6686,7 +6905,7 @@
         <v>422</v>
       </c>
       <c r="K183" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P183" s="26"/>
       <c r="Q183" s="26"/>
@@ -6733,13 +6952,13 @@
         <v>138</v>
       </c>
       <c r="J185" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K185" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L185" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P185" s="26"/>
       <c r="Q185" s="26"/>
@@ -6858,7 +7077,7 @@
         <v>422</v>
       </c>
       <c r="K190" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P190" s="26"/>
       <c r="Q190" s="26"/>
@@ -6909,16 +7128,16 @@
         <v>422</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K192" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L192" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P192" s="26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q192" s="31">
         <v>38930</v>
@@ -6927,11 +7146,11 @@
         <v>42815</v>
       </c>
       <c r="S192" s="26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="T192" s="26"/>
       <c r="U192" s="28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:21" s="11" customFormat="1">
@@ -6953,7 +7172,7 @@
         <v>422</v>
       </c>
       <c r="K193" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P193" s="26"/>
       <c r="Q193" s="26"/>
@@ -6980,10 +7199,10 @@
         <v>422</v>
       </c>
       <c r="K194" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N194" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P194" s="26"/>
       <c r="Q194" s="26"/>
@@ -7010,10 +7229,10 @@
         <v>422</v>
       </c>
       <c r="K195" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N195" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P195" s="26"/>
       <c r="Q195" s="26"/>
@@ -7063,7 +7282,7 @@
         <v>422</v>
       </c>
       <c r="K197" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P197" s="26"/>
       <c r="Q197" s="26"/>
@@ -7089,7 +7308,7 @@
         <v>422</v>
       </c>
       <c r="K198" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P198" s="26"/>
       <c r="Q198" s="26"/>
@@ -7115,7 +7334,7 @@
         <v>422</v>
       </c>
       <c r="K199" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P199" s="26"/>
       <c r="Q199" s="26"/>
@@ -7141,10 +7360,10 @@
         <v>422</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K200" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P200" s="26"/>
       <c r="Q200" s="31">
@@ -7154,7 +7373,7 @@
         <v>42815</v>
       </c>
       <c r="S200" s="26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="T200" s="26"/>
     </row>
@@ -7264,10 +7483,10 @@
         <v>138</v>
       </c>
       <c r="J205" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K205" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P205" s="26"/>
       <c r="Q205" s="29">
@@ -7277,7 +7496,7 @@
       <c r="S205" s="26"/>
       <c r="T205" s="26"/>
       <c r="U205" s="28" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
@@ -7299,7 +7518,7 @@
         <v>422</v>
       </c>
       <c r="K206" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P206" s="26"/>
       <c r="Q206" s="26"/>
@@ -7373,7 +7592,7 @@
         <v>422</v>
       </c>
       <c r="K209" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P209" s="26"/>
       <c r="Q209" s="26"/>
@@ -7399,7 +7618,7 @@
         <v>422</v>
       </c>
       <c r="K210" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P210" s="26"/>
       <c r="Q210" s="26"/>
@@ -7449,7 +7668,7 @@
         <v>138</v>
       </c>
       <c r="N212" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P212" s="26"/>
       <c r="Q212" s="26"/>
@@ -7500,10 +7719,10 @@
         <v>422</v>
       </c>
       <c r="K214" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N214" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P214" s="26"/>
       <c r="Q214" s="26"/>
@@ -7536,43 +7755,55 @@
       <c r="T215" s="26"/>
     </row>
     <row r="216" spans="1:21" s="11" customFormat="1">
-      <c r="A216" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B216" s="2"/>
+      <c r="A216" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2">
-        <v>1818</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>1816</v>
+      </c>
+      <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="24"/>
+      <c r="Q216" s="24"/>
+      <c r="R216" s="24"/>
+      <c r="S216" s="34"/>
+      <c r="T216" s="24"/>
+      <c r="U216" s="2"/>
+    </row>
+    <row r="217" spans="1:21" s="11" customFormat="1">
+      <c r="A217" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2">
+        <v>1818</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="P216" s="26"/>
-      <c r="Q216" s="26"/>
-      <c r="R216" s="26"/>
-      <c r="S216" s="26"/>
-      <c r="T216" s="26"/>
-    </row>
-    <row r="217" spans="1:21" s="11" customFormat="1">
-      <c r="A217" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B217" t="s">
-        <v>364</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="16">
-        <v>1818</v>
-      </c>
-      <c r="G217" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="N217" s="11" t="s">
-        <v>550</v>
       </c>
       <c r="P217" s="26"/>
       <c r="Q217" s="26"/>
@@ -7582,77 +7813,76 @@
     </row>
     <row r="218" spans="1:21" s="11" customFormat="1">
       <c r="A218" s="8" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="16">
         <v>1818</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H218" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J218" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="K218" s="11" t="s">
-        <v>552</v>
+        <v>422</v>
+      </c>
+      <c r="N218" s="11" t="s">
+        <v>546</v>
       </c>
       <c r="P218" s="26"/>
       <c r="Q218" s="26"/>
-      <c r="R218" s="29">
-        <v>42815</v>
-      </c>
-      <c r="S218" s="26" t="s">
-        <v>554</v>
-      </c>
+      <c r="R218" s="26"/>
+      <c r="S218" s="26"/>
       <c r="T218" s="26"/>
-      <c r="U218" s="28" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="219" spans="1:21" s="11" customFormat="1">
       <c r="A219" s="8" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>410</v>
+        <v>53</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="16">
         <v>1818</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>422</v>
+        <v>138</v>
+      </c>
+      <c r="H219" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J219" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K219" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="P219" s="26"/>
       <c r="Q219" s="26"/>
-      <c r="R219" s="26"/>
-      <c r="S219" s="26"/>
+      <c r="R219" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S219" s="26" t="s">
+        <v>550</v>
+      </c>
       <c r="T219" s="26"/>
+      <c r="U219" s="28" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="220" spans="1:21" s="11" customFormat="1">
-      <c r="A220" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2">
-        <v>1819</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2" t="s">
-        <v>138</v>
+      <c r="A220" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B220" t="s">
+        <v>410</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="16">
+        <v>1818</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="P220" s="26"/>
       <c r="Q220" s="26"/>
@@ -7661,18 +7891,22 @@
       <c r="T220" s="26"/>
     </row>
     <row r="221" spans="1:21" s="11" customFormat="1">
-      <c r="A221" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B221" t="s">
-        <v>349</v>
-      </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="16">
+      <c r="A221" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2">
         <v>1819</v>
       </c>
-      <c r="G221" s="11" t="s">
-        <v>422</v>
+      <c r="E221" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P221" s="26"/>
       <c r="Q221" s="26"/>
@@ -7682,10 +7916,10 @@
     </row>
     <row r="222" spans="1:21" s="11" customFormat="1">
       <c r="A222" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B222" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="16">
@@ -7702,10 +7936,10 @@
     </row>
     <row r="223" spans="1:21" s="11" customFormat="1">
       <c r="A223" s="8" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="B223" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="16">
@@ -7722,10 +7956,10 @@
     </row>
     <row r="224" spans="1:21" s="11" customFormat="1">
       <c r="A224" s="8" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B224" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="16">
@@ -7733,12 +7967,6 @@
       </c>
       <c r="G224" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="K224" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="N224" s="11" t="s">
-        <v>555</v>
       </c>
       <c r="P224" s="26"/>
       <c r="Q224" s="26"/>
@@ -7748,7 +7976,7 @@
     </row>
     <row r="225" spans="1:21" s="11" customFormat="1">
       <c r="A225" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B225" t="s">
         <v>399</v>
@@ -7758,117 +7986,114 @@
         <v>1819</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H225" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J225" s="11" t="s">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="K225" s="11" t="s">
-        <v>556</v>
+        <v>443</v>
+      </c>
+      <c r="N225" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="P225" s="26"/>
-      <c r="Q225" s="29">
-        <v>41055</v>
-      </c>
-      <c r="R225" s="29">
-        <v>42815</v>
-      </c>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
       <c r="S225" s="26"/>
       <c r="T225" s="26"/>
-      <c r="U225" s="28" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
       <c r="A226" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>53</v>
+        <v>273</v>
+      </c>
+      <c r="B226" t="s">
+        <v>399</v>
       </c>
       <c r="C226" s="10"/>
-      <c r="D226" s="17">
+      <c r="D226" s="16">
         <v>1819</v>
       </c>
       <c r="G226" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H226" s="11" t="s">
         <v>422</v>
       </c>
       <c r="J226" s="11" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K226" s="11" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P226" s="26"/>
       <c r="Q226" s="29">
-        <v>38413</v>
+        <v>41055</v>
       </c>
       <c r="R226" s="29">
         <v>42815</v>
       </c>
-      <c r="S226" s="26" t="s">
-        <v>561</v>
-      </c>
+      <c r="S226" s="26"/>
       <c r="T226" s="26"/>
       <c r="U226" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" s="11" customFormat="1">
+      <c r="A227" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="17">
+        <v>1819</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J227" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="P227" s="26"/>
+      <c r="Q227" s="29">
+        <v>38413</v>
+      </c>
+      <c r="R227" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S227" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="T227" s="26"/>
+      <c r="U227" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" s="11" customFormat="1">
+      <c r="A228" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2">
+        <v>1820</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="K228" s="11" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2">
-        <v>1820</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J227" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="K227" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="P227" s="26"/>
-      <c r="Q227" s="26"/>
-      <c r="R227" s="26"/>
-      <c r="S227" s="26"/>
-      <c r="T227" s="26"/>
-    </row>
-    <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B228" t="s">
-        <v>356</v>
-      </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="16">
-        <v>1820</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G228" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K228" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="N228" s="11" t="s">
-        <v>565</v>
       </c>
       <c r="P228" s="26"/>
       <c r="Q228" s="26"/>
@@ -7878,10 +8103,10 @@
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B229" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="16">
@@ -7894,7 +8119,10 @@
         <v>422</v>
       </c>
       <c r="K229" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="N229" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="P229" s="26"/>
       <c r="Q229" s="26"/>
@@ -7904,10 +8132,10 @@
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
       <c r="A230" s="8" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="16">
@@ -7920,7 +8148,7 @@
         <v>422</v>
       </c>
       <c r="K230" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P230" s="26"/>
       <c r="Q230" s="26"/>
@@ -7930,10 +8158,10 @@
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
       <c r="A231" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="16">
@@ -7946,10 +8174,7 @@
         <v>422</v>
       </c>
       <c r="K231" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="N231" s="11" t="s">
-        <v>566</v>
+        <v>443</v>
       </c>
       <c r="P231" s="26"/>
       <c r="Q231" s="26"/>
@@ -7959,10 +8184,10 @@
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
       <c r="A232" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B232" t="s">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="16">
@@ -7975,10 +8200,10 @@
         <v>422</v>
       </c>
       <c r="K232" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N232" s="11" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P232" s="26"/>
       <c r="Q232" s="26"/>
@@ -7988,10 +8213,10 @@
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="16">
@@ -8004,7 +8229,10 @@
         <v>422</v>
       </c>
       <c r="K233" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="N233" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="P233" s="26"/>
       <c r="Q233" s="26"/>
@@ -8014,10 +8242,10 @@
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B234" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="16">
@@ -8027,38 +8255,23 @@
         <v>58</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H234" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="J234" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="L234" s="11" t="s">
-        <v>571</v>
+        <v>422</v>
+      </c>
+      <c r="K234" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P234" s="26"/>
-      <c r="Q234" s="29">
-        <v>42711</v>
-      </c>
-      <c r="R234" s="29">
-        <v>42815</v>
-      </c>
-      <c r="S234" s="26" t="s">
-        <v>569</v>
-      </c>
+      <c r="Q234" s="26"/>
+      <c r="R234" s="26"/>
+      <c r="S234" s="26"/>
       <c r="T234" s="26"/>
-      <c r="U234" s="11" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="9" t="s">
-        <v>339</v>
+      <c r="A235" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="B235" t="s">
-        <v>416</v>
+        <v>54</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="16">
@@ -8068,35 +8281,54 @@
         <v>58</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K235" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="N235" s="11" t="s">
-        <v>572</v>
+        <v>138</v>
+      </c>
+      <c r="H235" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J235" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="L235" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="P235" s="26"/>
-      <c r="Q235" s="26"/>
-      <c r="R235" s="26"/>
-      <c r="S235" s="26"/>
+      <c r="Q235" s="29">
+        <v>42711</v>
+      </c>
+      <c r="R235" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S235" s="26" t="s">
+        <v>565</v>
+      </c>
       <c r="T235" s="26"/>
+      <c r="U235" s="11" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="236" spans="1:21" s="11" customFormat="1">
-      <c r="A236" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2">
-        <v>1821</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2" t="s">
-        <v>138</v>
+      <c r="A236" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B236" t="s">
+        <v>416</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="16">
+        <v>1820</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K236" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="N236" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
@@ -8105,24 +8337,20 @@
       <c r="T236" s="26"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B237" t="s">
-        <v>376</v>
-      </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="16">
-        <v>1822</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G237" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="K237" s="11" t="s">
-        <v>446</v>
+      <c r="A237" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2">
+        <v>1821</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P237" s="26"/>
       <c r="Q237" s="26"/>
@@ -8132,10 +8360,10 @@
     </row>
     <row r="238" spans="1:21" s="11" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B238" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="16">
@@ -8148,7 +8376,7 @@
         <v>422</v>
       </c>
       <c r="K238" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P238" s="26"/>
       <c r="Q238" s="26"/>
@@ -8158,10 +8386,10 @@
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B239" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="16">
@@ -8172,6 +8400,9 @@
       </c>
       <c r="G239" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K239" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P239" s="26"/>
       <c r="Q239" s="26"/>
@@ -8181,10 +8412,10 @@
     </row>
     <row r="240" spans="1:21" s="11" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="16">
@@ -8204,14 +8435,14 @@
     </row>
     <row r="241" spans="1:21" s="11" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="16">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E241" s="11" t="s">
         <v>58</v>
@@ -8227,10 +8458,10 @@
     </row>
     <row r="242" spans="1:21" s="11" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>385</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="16">
@@ -8250,10 +8481,10 @@
     </row>
     <row r="243" spans="1:21" s="11" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="16">
@@ -8265,69 +8496,69 @@
       <c r="G243" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="J243" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="K243" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="P243" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q243" s="31">
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26"/>
+      <c r="S243" s="26"/>
+      <c r="T243" s="26"/>
+    </row>
+    <row r="244" spans="1:21" s="11" customFormat="1">
+      <c r="A244" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B244" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="16">
+        <v>1823</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="J244" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="K244" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="P244" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q244" s="31">
         <v>38930</v>
       </c>
-      <c r="R243" s="29">
+      <c r="R244" s="29">
         <v>42815</v>
       </c>
-      <c r="S243" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="T243" s="26"/>
-      <c r="U243" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" s="11" customFormat="1">
-      <c r="A244" s="4" t="s">
+      <c r="S244" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="T244" s="26"/>
+      <c r="U244" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" s="11" customFormat="1">
+      <c r="A245" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2">
         <v>1824</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2" t="s">
+      <c r="F245" s="2"/>
+      <c r="G245" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="P244" s="26"/>
-      <c r="Q244" s="26"/>
-      <c r="R244" s="26"/>
-      <c r="S244" s="26"/>
-      <c r="T244" s="26"/>
-    </row>
-    <row r="245" spans="1:21" s="11" customFormat="1">
-      <c r="A245" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B245" t="s">
-        <v>367</v>
-      </c>
-      <c r="C245" s="10"/>
-      <c r="D245" s="16">
-        <v>1824</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G245" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="P245" s="26"/>
       <c r="Q245" s="26"/>
@@ -8337,10 +8568,10 @@
     </row>
     <row r="246" spans="1:21" s="11" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B246" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="16">
@@ -8351,6 +8582,12 @@
       </c>
       <c r="G246" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K246" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="O246" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="P246" s="26"/>
       <c r="Q246" s="26"/>
@@ -8360,7 +8597,7 @@
     </row>
     <row r="247" spans="1:21" s="11" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B247" t="s">
         <v>371</v>
@@ -8374,6 +8611,9 @@
       </c>
       <c r="G247" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K247" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P247" s="26"/>
       <c r="Q247" s="26"/>
@@ -8383,10 +8623,10 @@
     </row>
     <row r="248" spans="1:21" s="11" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B248" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="16">
@@ -8406,10 +8646,10 @@
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="16">
@@ -8421,18 +8661,35 @@
       <c r="G249" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="P249" s="26"/>
-      <c r="Q249" s="26"/>
-      <c r="R249" s="26"/>
-      <c r="S249" s="26"/>
+      <c r="J249" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="K249" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="P249" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q249" s="29">
+        <v>39893</v>
+      </c>
+      <c r="R249" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S249" s="26" t="s">
+        <v>577</v>
+      </c>
       <c r="T249" s="26"/>
+      <c r="U249" s="11" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="16">
@@ -8443,6 +8700,12 @@
       </c>
       <c r="G250" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K250" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="N250" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="P250" s="26"/>
       <c r="Q250" s="26"/>
@@ -8452,20 +8715,23 @@
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="B251" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="16">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E251" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G251" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K251" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P251" s="26"/>
       <c r="Q251" s="26"/>
@@ -8475,10 +8741,10 @@
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
       <c r="A252" s="8" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="16">
@@ -8498,14 +8764,14 @@
     </row>
     <row r="253" spans="1:21" s="11" customFormat="1">
       <c r="A253" s="8" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="16">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E253" s="11" t="s">
         <v>58</v>
@@ -8521,10 +8787,10 @@
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
       <c r="A254" s="8" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B254" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="16">
@@ -8535,6 +8801,9 @@
       </c>
       <c r="G254" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K254" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P254" s="26"/>
       <c r="Q254" s="26"/>
@@ -8544,10 +8813,10 @@
     </row>
     <row r="255" spans="1:21" s="11" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>25</v>
+        <v>198</v>
+      </c>
+      <c r="B255" t="s">
+        <v>371</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="16">
@@ -8558,9 +8827,6 @@
       </c>
       <c r="G255" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="J255" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="P255" s="26"/>
       <c r="Q255" s="26"/>
@@ -8570,10 +8836,10 @@
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B256" t="s">
-        <v>53</v>
+        <v>276</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="16">
@@ -8584,6 +8850,9 @@
       </c>
       <c r="G256" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K256" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="P256" s="26"/>
       <c r="Q256" s="26"/>
@@ -8591,16 +8860,16 @@
       <c r="S256" s="26"/>
       <c r="T256" s="26"/>
     </row>
-    <row r="257" spans="1:20" s="11" customFormat="1">
+    <row r="257" spans="1:21" s="11" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="B257" t="s">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="16">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E257" s="11" t="s">
         <v>58</v>
@@ -8608,18 +8877,31 @@
       <c r="G257" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="J257" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="K257" s="11" t="s">
+        <v>579</v>
+      </c>
       <c r="P257" s="26"/>
-      <c r="Q257" s="26"/>
-      <c r="R257" s="26"/>
+      <c r="Q257" s="29">
+        <v>38831</v>
+      </c>
+      <c r="R257" s="29">
+        <v>42815</v>
+      </c>
       <c r="S257" s="26"/>
       <c r="T257" s="26"/>
-    </row>
-    <row r="258" spans="1:20" s="11" customFormat="1">
+      <c r="U257" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" s="11" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B258" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="16">
@@ -8630,6 +8912,12 @@
       </c>
       <c r="G258" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K258" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="N258" s="11" t="s">
+        <v>582</v>
       </c>
       <c r="P258" s="26"/>
       <c r="Q258" s="26"/>
@@ -8637,12 +8925,12 @@
       <c r="S258" s="26"/>
       <c r="T258" s="26"/>
     </row>
-    <row r="259" spans="1:20" s="11" customFormat="1">
+    <row r="259" spans="1:21" s="11" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="16">
@@ -8654,28 +8942,46 @@
       <c r="G259" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="P259" s="26"/>
-      <c r="Q259" s="26"/>
-      <c r="R259" s="26"/>
+      <c r="J259" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="P259" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q259" s="29">
+        <v>42184</v>
+      </c>
+      <c r="R259" s="29">
+        <v>42815</v>
+      </c>
       <c r="S259" s="26"/>
       <c r="T259" s="26"/>
-    </row>
-    <row r="260" spans="1:20" s="11" customFormat="1">
+      <c r="U259" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" s="11" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="B260" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="16">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E260" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G260" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P260" s="26"/>
       <c r="Q260" s="26"/>
@@ -8683,12 +8989,12 @@
       <c r="S260" s="26"/>
       <c r="T260" s="26"/>
     </row>
-    <row r="261" spans="1:20" s="11" customFormat="1">
+    <row r="261" spans="1:21" s="11" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B261" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="16">
@@ -8706,12 +9012,12 @@
       <c r="S261" s="26"/>
       <c r="T261" s="26"/>
     </row>
-    <row r="262" spans="1:20" s="11" customFormat="1">
+    <row r="262" spans="1:21" s="11" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B262" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="16">
@@ -8729,12 +9035,12 @@
       <c r="S262" s="26"/>
       <c r="T262" s="26"/>
     </row>
-    <row r="263" spans="1:20" s="11" customFormat="1">
+    <row r="263" spans="1:21" s="11" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="B263" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="16">
@@ -8752,16 +9058,16 @@
       <c r="S263" s="26"/>
       <c r="T263" s="26"/>
     </row>
-    <row r="264" spans="1:20" s="11" customFormat="1">
+    <row r="264" spans="1:21" s="11" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="B264" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="16">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E264" s="11" t="s">
         <v>58</v>
@@ -8775,12 +9081,12 @@
       <c r="S264" s="26"/>
       <c r="T264" s="26"/>
     </row>
-    <row r="265" spans="1:20" s="11" customFormat="1">
+    <row r="265" spans="1:21" s="11" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="B265" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="16">
@@ -8791,6 +9097,9 @@
       </c>
       <c r="G265" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K265" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P265" s="26"/>
       <c r="Q265" s="26"/>
@@ -8798,12 +9107,12 @@
       <c r="S265" s="26"/>
       <c r="T265" s="26"/>
     </row>
-    <row r="266" spans="1:20" s="11" customFormat="1">
+    <row r="266" spans="1:21" s="11" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>53</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="16">
@@ -8815,28 +9124,43 @@
       <c r="G266" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="J266" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="K266" s="11" t="s">
+        <v>587</v>
+      </c>
       <c r="P266" s="26"/>
-      <c r="Q266" s="26"/>
-      <c r="R266" s="26"/>
-      <c r="S266" s="26"/>
+      <c r="Q266" s="31">
+        <v>38930</v>
+      </c>
+      <c r="R266" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S266" s="26" t="s">
+        <v>488</v>
+      </c>
       <c r="T266" s="26"/>
     </row>
-    <row r="267" spans="1:20" s="11" customFormat="1">
+    <row r="267" spans="1:21" s="11" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B267" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="16">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E267" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G267" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K267" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P267" s="26"/>
       <c r="Q267" s="26"/>
@@ -8844,16 +9168,16 @@
       <c r="S267" s="26"/>
       <c r="T267" s="26"/>
     </row>
-    <row r="268" spans="1:20" s="11" customFormat="1">
+    <row r="268" spans="1:21" s="11" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B268" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="16">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E268" s="11" t="s">
         <v>58</v>
@@ -8867,12 +9191,12 @@
       <c r="S268" s="26"/>
       <c r="T268" s="26"/>
     </row>
-    <row r="269" spans="1:20" s="11" customFormat="1">
+    <row r="269" spans="1:21" s="11" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B269" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="16">
@@ -8883,6 +9207,12 @@
       </c>
       <c r="G269" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="J269" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="N269" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="P269" s="26"/>
       <c r="Q269" s="26"/>
@@ -8890,12 +9220,12 @@
       <c r="S269" s="26"/>
       <c r="T269" s="26"/>
     </row>
-    <row r="270" spans="1:20" s="11" customFormat="1">
+    <row r="270" spans="1:21" s="11" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B270" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="16">
@@ -8913,25 +9243,22 @@
       <c r="S270" s="26"/>
       <c r="T270" s="26"/>
     </row>
-    <row r="271" spans="1:20" s="11" customFormat="1">
-      <c r="A271" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2">
-        <v>1834</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>138</v>
+    <row r="271" spans="1:21" s="11" customFormat="1">
+      <c r="A271" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B271" t="s">
+        <v>379</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="16">
+        <v>1832</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G271" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="P271" s="26"/>
       <c r="Q271" s="26"/>
@@ -8939,42 +9266,59 @@
       <c r="S271" s="26"/>
       <c r="T271" s="26"/>
     </row>
-    <row r="272" spans="1:20" s="11" customFormat="1">
-      <c r="A272" s="9" t="s">
+    <row r="272" spans="1:21" s="11" customFormat="1">
+      <c r="A272" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2">
+        <v>1834</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J272" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="K272" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="P272" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q272" s="29">
+        <v>39393</v>
+      </c>
+      <c r="R272" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S272" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="T272" s="26"/>
+      <c r="U272" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" s="11" customFormat="1">
+      <c r="A273" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="B272" t="s">
-        <v>53</v>
-      </c>
-      <c r="C272" s="10"/>
-      <c r="D272" s="16">
-        <v>1835</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G272" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="P272" s="26"/>
-      <c r="Q272" s="26"/>
-      <c r="R272" s="26"/>
-      <c r="S272" s="26"/>
-      <c r="T272" s="26"/>
-    </row>
-    <row r="273" spans="1:20" s="11" customFormat="1">
-      <c r="A273" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="B273" t="s">
         <v>53</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="16">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E273" s="11" t="s">
         <v>58</v>
@@ -8985,31 +9329,54 @@
       <c r="G273" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="P273" s="26"/>
-      <c r="Q273" s="26"/>
-      <c r="R273" s="26"/>
-      <c r="S273" s="26"/>
+      <c r="J273" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="K273" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="P273" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q273" s="32">
+        <v>42953</v>
+      </c>
+      <c r="R273" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S273" s="26" t="s">
+        <v>488</v>
+      </c>
       <c r="T273" s="26"/>
-    </row>
-    <row r="274" spans="1:20" s="11" customFormat="1">
-      <c r="A274" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2">
-        <v>1839</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>138</v>
+      <c r="U273" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" s="11" customFormat="1">
+      <c r="A274" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B274" t="s">
+        <v>53</v>
+      </c>
+      <c r="C274" s="10"/>
+      <c r="D274" s="16">
+        <v>1837</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K274" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="N274" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="P274" s="26"/>
       <c r="Q274" s="26"/>
@@ -9017,19 +9384,19 @@
       <c r="S274" s="26"/>
       <c r="T274" s="26"/>
     </row>
-    <row r="275" spans="1:20" s="11" customFormat="1">
-      <c r="A275" s="4" t="s">
-        <v>100</v>
+    <row r="275" spans="1:21" s="11" customFormat="1">
+      <c r="A275" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>424</v>
@@ -9037,51 +9404,84 @@
       <c r="G275" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P275" s="26"/>
-      <c r="Q275" s="26"/>
-      <c r="R275" s="26"/>
-      <c r="S275" s="26"/>
+      <c r="J275" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="K275" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="P275" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q275" s="29">
+        <v>40527</v>
+      </c>
+      <c r="R275" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S275" s="26" t="s">
+        <v>597</v>
+      </c>
       <c r="T275" s="26"/>
     </row>
-    <row r="276" spans="1:20" s="11" customFormat="1">
-      <c r="A276" s="4" t="s">
-        <v>136</v>
+    <row r="276" spans="1:21" s="11" customFormat="1">
+      <c r="A276" s="22" t="s">
+        <v>431</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2">
-        <v>1851</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>1845</v>
+      </c>
+      <c r="E276" s="2"/>
       <c r="F276" s="2"/>
-      <c r="G276" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P276" s="26"/>
-      <c r="Q276" s="26"/>
-      <c r="R276" s="26"/>
-      <c r="S276" s="26"/>
-      <c r="T276" s="26"/>
-    </row>
-    <row r="277" spans="1:20" s="11" customFormat="1">
-      <c r="A277" s="3" t="s">
-        <v>26</v>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K276" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
+      <c r="N276" s="2"/>
+      <c r="O276" s="2"/>
+      <c r="P276" s="24"/>
+      <c r="Q276" s="24"/>
+      <c r="R276" s="24"/>
+      <c r="S276" s="24"/>
+      <c r="T276" s="24"/>
+      <c r="U276" s="2"/>
+    </row>
+    <row r="277" spans="1:21" s="11" customFormat="1">
+      <c r="A277" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C277" s="2"/>
-      <c r="D277" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
+      <c r="D277" s="2">
+        <v>1849</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="G277" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="J277" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="K277" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="P277" s="26"/>
       <c r="Q277" s="26"/>
@@ -9089,22 +9489,23 @@
       <c r="S277" s="26"/>
       <c r="T277" s="26"/>
     </row>
-    <row r="278" spans="1:20" s="11" customFormat="1">
-      <c r="A278" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C278" s="10"/>
-      <c r="D278" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>422</v>
+    <row r="278" spans="1:21" s="11" customFormat="1">
+      <c r="A278" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2">
+        <v>1851</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P278" s="26"/>
       <c r="Q278" s="26"/>
@@ -9112,22 +9513,24 @@
       <c r="S278" s="26"/>
       <c r="T278" s="26"/>
     </row>
-    <row r="279" spans="1:20" s="11" customFormat="1">
-      <c r="A279" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C279" s="10"/>
-      <c r="D279" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E279" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G279" s="11" t="s">
-        <v>422</v>
+    <row r="279" spans="1:21" s="11" customFormat="1">
+      <c r="A279" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K279" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P279" s="26"/>
       <c r="Q279" s="26"/>
@@ -9135,35 +9538,77 @@
       <c r="S279" s="26"/>
       <c r="T279" s="26"/>
     </row>
-    <row r="280" spans="1:20" s="11" customFormat="1">
-      <c r="A280" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C280" s="10"/>
-      <c r="D280" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G280" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="P280" s="26"/>
-      <c r="Q280" s="26"/>
-      <c r="R280" s="26"/>
-      <c r="S280" s="26"/>
-      <c r="T280" s="26"/>
-    </row>
-    <row r="281" spans="1:20" s="11" customFormat="1">
+    <row r="280" spans="1:21" s="11" customFormat="1">
+      <c r="A280" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="P280" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q280" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="R280" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="S280" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="T280" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" s="11" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>416</v>
+        <v>150</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="17" t="s">
@@ -9181,12 +9626,12 @@
       <c r="S281" s="26"/>
       <c r="T281" s="26"/>
     </row>
-    <row r="282" spans="1:20" s="11" customFormat="1">
+    <row r="282" spans="1:21" s="11" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="17" t="s">
@@ -9197,6 +9642,9 @@
       </c>
       <c r="G282" s="11" t="s">
         <v>422</v>
+      </c>
+      <c r="K282" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="P282" s="26"/>
       <c r="Q282" s="26"/>
@@ -9204,128 +9652,169 @@
       <c r="S282" s="26"/>
       <c r="T282" s="26"/>
     </row>
-    <row r="283" spans="1:20" s="11" customFormat="1">
-      <c r="A283" t="s">
-        <v>143</v>
-      </c>
-      <c r="B283" t="s">
-        <v>144</v>
-      </c>
-      <c r="C283"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
+    <row r="283" spans="1:21" s="11" customFormat="1">
+      <c r="A283" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C283" s="10"/>
+      <c r="D283" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K283" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="P283" s="26"/>
       <c r="Q283" s="26"/>
       <c r="R283" s="26"/>
       <c r="S283" s="26"/>
       <c r="T283" s="26"/>
     </row>
-    <row r="284" spans="1:20" s="11" customFormat="1">
-      <c r="A284" t="s">
-        <v>145</v>
-      </c>
-      <c r="B284" t="s">
-        <v>146</v>
-      </c>
-      <c r="C284"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
+    <row r="284" spans="1:21" s="11" customFormat="1">
+      <c r="A284" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C284" s="10"/>
+      <c r="D284" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G284" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K284" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="P284" s="26"/>
       <c r="Q284" s="26"/>
       <c r="R284" s="26"/>
-      <c r="S284" s="26"/>
+      <c r="S284" s="35"/>
       <c r="T284" s="26"/>
     </row>
-    <row r="285" spans="1:20" s="11" customFormat="1">
-      <c r="A285" t="s">
-        <v>147</v>
-      </c>
-      <c r="B285" t="s">
-        <v>148</v>
-      </c>
-      <c r="C285"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
+    <row r="285" spans="1:21" s="11" customFormat="1">
+      <c r="A285" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C285" s="10"/>
+      <c r="D285" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="K285" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="P285" s="26"/>
       <c r="Q285" s="26"/>
       <c r="R285" s="26"/>
-      <c r="S285" s="26"/>
+      <c r="S285" s="35"/>
       <c r="T285" s="26"/>
     </row>
-    <row r="286" spans="1:20">
-      <c r="A286" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D286" s="2">
-        <v>1816</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J286" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20">
-      <c r="A287" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D287" s="2">
-        <v>1798</v>
-      </c>
-      <c r="J287" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20">
-      <c r="A288" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D288" s="2">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D289" s="2">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D290" s="2">
-        <v>1845</v>
-      </c>
+    <row r="286" spans="1:21">
+      <c r="A286" t="s">
+        <v>143</v>
+      </c>
+      <c r="B286" t="s">
+        <v>144</v>
+      </c>
+      <c r="C286"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="26"/>
+      <c r="Q286" s="26"/>
+      <c r="R286" s="26"/>
+      <c r="S286" s="26"/>
+      <c r="T286" s="26"/>
+      <c r="U286" s="11"/>
+    </row>
+    <row r="287" spans="1:21">
+      <c r="A287" t="s">
+        <v>145</v>
+      </c>
+      <c r="B287" t="s">
+        <v>146</v>
+      </c>
+      <c r="C287"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="K287" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="26"/>
+      <c r="Q287" s="29">
+        <v>41507</v>
+      </c>
+      <c r="R287" s="29">
+        <v>42815</v>
+      </c>
+      <c r="S287" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="T287" s="26"/>
+      <c r="U287" s="33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21">
+      <c r="A288" t="s">
+        <v>147</v>
+      </c>
+      <c r="B288" t="s">
+        <v>148</v>
+      </c>
+      <c r="C288"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="26"/>
+      <c r="Q288" s="26"/>
+      <c r="R288" s="26"/>
+      <c r="S288" s="34"/>
+      <c r="T288" s="26"/>
+      <c r="U288" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I290"/>
-  <sortState ref="A3:F304">
-    <sortCondition ref="D3:D304"/>
+  <autoFilter ref="A2:I288"/>
+  <sortState ref="A1:U289">
+    <sortCondition ref="D1:D289"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
